--- a/Arkusze/Doktorat_obliczenia_EU-28_2013.xlsx
+++ b/Arkusze/Doktorat_obliczenia_EU-28_2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zemat\OneDrive\R_Map_Stats_GreenJobs\Arkusze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="10_ncr:8100000_{DB251C2F-26FA-4769-8868-78DF3B676958}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{1F9B6C1F-EEF3-4D9A-9E50-C253EF94B350}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="10_ncr:8100000_{DB251C2F-26FA-4769-8868-78DF3B676958}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{15B23CAC-00AA-40E1-A71A-7DB3693A336E}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="60" windowWidth="15195" windowHeight="9210" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="167">
   <si>
     <t>X1</t>
   </si>
@@ -537,6 +537,9 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>kraj</t>
+  </si>
 </sst>
 </file>
 
@@ -14189,10 +14192,10 @@
   <dimension ref="A1:AD92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD35" sqref="AD35"/>
+      <selection pane="bottomRight" activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14209,464 +14212,476 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="B1" s="6" t="str">
-        <f>'dane po Vs'!B1</f>
-        <v>X1</v>
-      </c>
-      <c r="C1" s="6" t="str">
-        <f>'dane po Vs'!C1</f>
-        <v>X5</v>
-      </c>
-      <c r="D1" s="5" t="str">
-        <f>'dane po Vs'!D1</f>
-        <v>X6</v>
-      </c>
-      <c r="E1" s="5" t="str">
-        <f>'dane po Vs'!E1</f>
-        <v>X8</v>
-      </c>
-      <c r="F1" s="5" t="str">
-        <f>'dane po Vs'!F1</f>
-        <v>X10</v>
-      </c>
-      <c r="G1" s="5" t="str">
-        <f>'dane po Vs'!G1</f>
-        <v>X11</v>
-      </c>
-      <c r="H1" s="5" t="str">
-        <f>'dane po Vs'!H1</f>
-        <v>X12</v>
-      </c>
-      <c r="I1" s="5" t="str">
-        <f>'dane po Vs'!I1</f>
-        <v>X13</v>
-      </c>
-      <c r="J1" s="5" t="str">
-        <f>'dane po Vs'!J1</f>
-        <v>X14</v>
-      </c>
-      <c r="K1" s="5" t="str">
-        <f>'dane po Vs'!K1</f>
-        <v>X15</v>
-      </c>
-      <c r="L1" s="6" t="str">
-        <f>'dane po Vs'!L1</f>
-        <v>X16</v>
-      </c>
-      <c r="M1" s="6" t="str">
-        <f>'dane po Vs'!M1</f>
-        <v>X17</v>
-      </c>
-      <c r="N1" s="6" t="str">
-        <f>'dane po Vs'!N1</f>
-        <v>X18</v>
-      </c>
-      <c r="O1" s="6" t="str">
-        <f>'dane po Vs'!O1</f>
-        <v>X20</v>
-      </c>
-      <c r="P1" s="6" t="str">
-        <f>'dane po Vs'!P1</f>
-        <v>X21</v>
-      </c>
-      <c r="Q1" s="6" t="str">
-        <f>'dane po Vs'!Q1</f>
-        <v>X22</v>
-      </c>
-      <c r="R1" s="6" t="str">
-        <f>'dane po Vs'!R1</f>
-        <v>X23</v>
-      </c>
-      <c r="S1" s="6" t="str">
-        <f>'dane po Vs'!S1</f>
-        <v>X24</v>
-      </c>
-      <c r="T1" s="5" t="str">
-        <f>'dane po Vs'!T1</f>
-        <v>X25</v>
-      </c>
-      <c r="U1" s="5" t="str">
-        <f>'dane po Vs'!U1</f>
-        <v>X26</v>
-      </c>
-      <c r="V1" s="6" t="str">
-        <f>'dane po Vs'!V1</f>
-        <v>X27</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="str">
         <f>'dane po Vs'!B2</f>
         <v>Chroniony obszar lądowy (% powierzchni państwa)</v>
       </c>
-      <c r="C2" s="6" t="str">
+      <c r="C1" s="6" t="str">
         <f>'dane po Vs'!C2</f>
         <v>Indeks wydajnosci zasobów (rok 2000=100)</v>
       </c>
-      <c r="D2" s="5" t="str">
+      <c r="D1" s="5" t="str">
         <f>'dane po Vs'!D2</f>
         <v>Połowy w regionach rybackich (tys.ton)</v>
       </c>
-      <c r="E2" s="5" t="str">
+      <c r="E1" s="5" t="str">
         <f>'dane po Vs'!E2</f>
         <v>Zależność energetyczna (%)</v>
       </c>
-      <c r="F2" s="5" t="str">
+      <c r="F1" s="5" t="str">
         <f>'dane po Vs'!F2</f>
         <v>Emisja tlenków siarki (kg/osoba)</v>
       </c>
-      <c r="G2" s="5" t="str">
+      <c r="G1" s="5" t="str">
         <f>'dane po Vs'!G2</f>
         <v>Emisja cząstek stałych (kg/osoba)</v>
       </c>
-      <c r="H2" s="5" t="str">
+      <c r="H1" s="5" t="str">
         <f>'dane po Vs'!H2</f>
         <v>Zanieczyszczenie hałasem (% ludności)</v>
       </c>
-      <c r="I2" s="5" t="str">
+      <c r="I1" s="5" t="str">
         <f>'dane po Vs'!I2</f>
         <v>Konsumpcja surowców (ton/osoba)</v>
       </c>
-      <c r="J2" s="5" t="str">
+      <c r="J1" s="5" t="str">
         <f>'dane po Vs'!J2</f>
         <v>Zużycie nawozów (kg/ha)</v>
       </c>
-      <c r="K2" s="5" t="str">
+      <c r="K1" s="5" t="str">
         <f>'dane po Vs'!K2</f>
         <v>Odpady komunalne (kg/osoba)</v>
       </c>
-      <c r="L2" s="6" t="str">
+      <c r="L1" s="6" t="str">
         <f>'dane po Vs'!L2</f>
         <v>Odnawialna energia elektryczna (%konsumpcji prądu)</v>
       </c>
-      <c r="M2" s="6" t="str">
+      <c r="M1" s="6" t="str">
         <f>'dane po Vs'!M2</f>
         <v>Krajowa konsumpcja biomasy (100 tys. ton ekwiwalentu oleju)</v>
       </c>
-      <c r="N2" s="6" t="str">
+      <c r="N1" s="6" t="str">
         <f>'dane po Vs'!N2</f>
         <v>Uprawy ekologiczne (% użytków rolnych)</v>
       </c>
-      <c r="O2" s="6" t="str">
+      <c r="O1" s="6" t="str">
         <f>'dane po Vs'!O2</f>
         <v>Wydatki na ochronę środoiwska (% PKB)</v>
       </c>
-      <c r="P2" s="6" t="str">
+      <c r="P1" s="6" t="str">
         <f>'dane po Vs'!P2</f>
         <v>Dochody z podatków środoiwskowych (% PKB)</v>
       </c>
-      <c r="Q2" s="6" t="str">
+      <c r="Q1" s="6" t="str">
         <f>'dane po Vs'!Q2</f>
         <v>Indeks eko-innowacyjnosci (śr krajów UE=100)</v>
       </c>
-      <c r="R2" s="6" t="str">
+      <c r="R1" s="6" t="str">
         <f>'dane po Vs'!R2</f>
         <v>Patenty związane z recyklingiem i surowcami wtórnymi  (liczba)</v>
       </c>
-      <c r="S2" s="6" t="str">
+      <c r="S1" s="6" t="str">
         <f>'dane po Vs'!S2</f>
         <v>Wydatki publiczne na badania i rozwój dotyczące środowiska (% PKB)</v>
       </c>
-      <c r="T2" s="5" t="str">
+      <c r="T1" s="5" t="str">
         <f>'dane po Vs'!T2</f>
         <v>Stopa bezrobocia ludzi młodych w wieku 15-24 lata, obliczona jako udział (%) w całkowitej populacji w tej samej grupie wiekowej</v>
       </c>
-      <c r="U2" s="5" t="str">
+      <c r="U1" s="5" t="str">
         <f>'dane po Vs'!U2</f>
         <v>Osoby zagrożone ubóstwem lub wykluczeniem społecznym</v>
       </c>
-      <c r="V2" s="6" t="str">
+      <c r="V1" s="6" t="str">
         <f>'dane po Vs'!V2</f>
         <v>Zatrudnienie w sektorze dóbr i usług środowiskowych (ekwiwalent pełnego czasu pracy ∙〖10〗^(-3); FTE)</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="6" t="str">
-        <f>X2</f>
+      <c r="AA1" s="6" t="str">
+        <f t="shared" ref="AA1:AA29" si="0">X1</f>
         <v>zi</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="str">
+        <f>'dane po Vs'!A3</f>
+        <v>Austria</v>
+      </c>
+      <c r="B2" s="6">
+        <f>'dane po Vs'!B3</f>
+        <v>15</v>
+      </c>
+      <c r="C2" s="6">
+        <f>'dane po Vs'!C3</f>
+        <v>128.4</v>
+      </c>
+      <c r="D2" s="5">
+        <f>'dane po Vs'!D3</f>
+        <v>324</v>
+      </c>
+      <c r="E2" s="5">
+        <f>'dane po Vs'!E3</f>
+        <v>61.3</v>
+      </c>
+      <c r="F2" s="5">
+        <f>'dane po Vs'!F3</f>
+        <v>1.8</v>
+      </c>
+      <c r="G2" s="5">
+        <f>'dane po Vs'!G3</f>
+        <v>3.9</v>
+      </c>
+      <c r="H2" s="5">
+        <f>'dane po Vs'!H3</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="I2" s="5">
+        <f>'dane po Vs'!I3</f>
+        <v>20.6</v>
+      </c>
+      <c r="J2" s="5">
+        <f>'dane po Vs'!J3</f>
+        <v>4</v>
+      </c>
+      <c r="K2" s="5">
+        <f>'dane po Vs'!K3</f>
+        <v>578</v>
+      </c>
+      <c r="L2" s="6">
+        <f>'dane po Vs'!L3</f>
+        <v>32.4</v>
+      </c>
+      <c r="M2" s="6">
+        <f>'dane po Vs'!M3</f>
+        <v>29.1</v>
+      </c>
+      <c r="N2" s="6">
+        <f>'dane po Vs'!N3</f>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O2" s="6">
+        <f>'dane po Vs'!O3</f>
+        <v>0.30714285714285711</v>
+      </c>
+      <c r="P2" s="6">
+        <f>'dane po Vs'!P3</f>
+        <v>2.38</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>'dane po Vs'!Q3</f>
+        <v>107</v>
+      </c>
+      <c r="R2" s="6">
+        <f>'dane po Vs'!R3</f>
+        <v>10</v>
+      </c>
+      <c r="S2" s="6">
+        <f>'dane po Vs'!S3</f>
+        <v>0.13</v>
+      </c>
+      <c r="T2" s="5">
+        <f>'dane po Vs'!T3</f>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="U2" s="5">
+        <f>'dane po Vs'!U3</f>
+        <v>18.8</v>
+      </c>
+      <c r="V2" s="6">
+        <f>'dane po Vs'!V3</f>
+        <v>182.5</v>
+      </c>
+      <c r="W2" s="9">
+        <f>((B2-$B$30)^2+(C2-$C$30)^2+(D2-$D$30)^2+(E2-$E$30)^2+(F2-$F$30)^2+(G2-$G$30)^2+(H2-$H$30)^2+(I2-$I$30)^2+(J2-$J$30)^2+(K2-$K$30)^2+(L2-$L$30)^2+(M2-$M$30)^2+(N2-$N$30)^2+(O2-$O$30)^2+(P2-$P$30)^2+(Q2-$Q$30)^2+(R2-$R$30)^2+(S2-$S$30)^2+(T2-$T$30)^2+(U2-$U$30)^2+(V2-$V$30)^2)^(0.5)</f>
+        <v>579.66634944232976</v>
+      </c>
+      <c r="X2" s="9">
+        <f>1-(W2/$AD$2)</f>
+        <v>0.30045508826898304</v>
+      </c>
+      <c r="Y2" s="6" t="str">
+        <f t="shared" ref="Y2:Y29" si="1">A2</f>
+        <v>Austria</v>
+      </c>
+      <c r="Z2" s="10">
+        <f t="shared" ref="Z2:Z29" si="2">X2</f>
+        <v>0.30045508826898304</v>
+      </c>
+      <c r="AA2" s="6">
+        <f t="shared" si="0"/>
+        <v>0.30045508826898304</v>
+      </c>
+      <c r="AB2" s="11">
+        <f>AVERAGE(W2:W29)</f>
+        <v>546.44064601555351</v>
+      </c>
+      <c r="AC2" s="11">
+        <f>STDEV(W2:W29)</f>
+        <v>141.09642758365499</v>
+      </c>
+      <c r="AD2" s="10">
+        <f>AB2+2*AC2</f>
+        <v>828.63350118286348</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="str">
-        <f>'dane po Vs'!A3</f>
-        <v>Austria</v>
+        <f>'dane po Vs'!A4</f>
+        <v>Belgia</v>
       </c>
       <c r="B3" s="6">
-        <f>'dane po Vs'!B3</f>
-        <v>15</v>
+        <f>'dane po Vs'!B4</f>
+        <v>13</v>
       </c>
       <c r="C3" s="6">
-        <f>'dane po Vs'!C3</f>
-        <v>128.4</v>
+        <f>'dane po Vs'!C4</f>
+        <v>121.3</v>
       </c>
       <c r="D3" s="5">
-        <f>'dane po Vs'!D3</f>
-        <v>324</v>
+        <f>'dane po Vs'!D4</f>
+        <v>231.76190476190476</v>
       </c>
       <c r="E3" s="5">
-        <f>'dane po Vs'!E3</f>
-        <v>61.3</v>
+        <f>'dane po Vs'!E4</f>
+        <v>77.400000000000006</v>
       </c>
       <c r="F3" s="5">
-        <f>'dane po Vs'!F3</f>
-        <v>1.8</v>
+        <f>'dane po Vs'!F4</f>
+        <v>4</v>
       </c>
       <c r="G3" s="5">
-        <f>'dane po Vs'!G3</f>
-        <v>3.9</v>
+        <f>'dane po Vs'!G4</f>
+        <v>3.8</v>
       </c>
       <c r="H3" s="5">
-        <f>'dane po Vs'!H3</f>
-        <v>18.899999999999999</v>
+        <f>'dane po Vs'!H4</f>
+        <v>17.5</v>
       </c>
       <c r="I3" s="5">
-        <f>'dane po Vs'!I3</f>
-        <v>20.6</v>
+        <f>'dane po Vs'!I4</f>
+        <v>13.6</v>
       </c>
       <c r="J3" s="5">
-        <f>'dane po Vs'!J3</f>
-        <v>4</v>
+        <f>'dane po Vs'!J4</f>
+        <v>6</v>
       </c>
       <c r="K3" s="5">
-        <f>'dane po Vs'!K3</f>
-        <v>578</v>
+        <f>'dane po Vs'!K4</f>
+        <v>438</v>
       </c>
       <c r="L3" s="6">
-        <f>'dane po Vs'!L3</f>
-        <v>32.4</v>
+        <f>'dane po Vs'!L4</f>
+        <v>7.5</v>
       </c>
       <c r="M3" s="6">
-        <f>'dane po Vs'!M3</f>
-        <v>29.1</v>
+        <f>'dane po Vs'!M4</f>
+        <v>11.8</v>
       </c>
       <c r="N3" s="6">
-        <f>'dane po Vs'!N3</f>
-        <v>18.399999999999999</v>
+        <f>'dane po Vs'!N4</f>
+        <v>4.67</v>
       </c>
       <c r="O3" s="6">
-        <f>'dane po Vs'!O3</f>
-        <v>0.30714285714285711</v>
+        <f>'dane po Vs'!O4</f>
+        <v>0.31857142857142856</v>
       </c>
       <c r="P3" s="6">
-        <f>'dane po Vs'!P3</f>
-        <v>2.38</v>
+        <f>'dane po Vs'!P4</f>
+        <v>2.0699999999999998</v>
       </c>
       <c r="Q3" s="6">
-        <f>'dane po Vs'!Q3</f>
-        <v>107</v>
+        <f>'dane po Vs'!Q4</f>
+        <v>98</v>
       </c>
       <c r="R3" s="6">
-        <f>'dane po Vs'!R3</f>
-        <v>10</v>
+        <f>'dane po Vs'!R4</f>
+        <v>15.42</v>
       </c>
       <c r="S3" s="6">
-        <f>'dane po Vs'!S3</f>
-        <v>0.13</v>
+        <f>'dane po Vs'!S4</f>
+        <v>0.2</v>
       </c>
       <c r="T3" s="5">
-        <f>'dane po Vs'!T3</f>
-        <v>9.6999999999999993</v>
+        <f>'dane po Vs'!T4</f>
+        <v>23.7</v>
       </c>
       <c r="U3" s="5">
-        <f>'dane po Vs'!U3</f>
-        <v>18.8</v>
+        <f>'dane po Vs'!U4</f>
+        <v>20.8</v>
       </c>
       <c r="V3" s="6">
-        <f>'dane po Vs'!V3</f>
-        <v>182.5</v>
+        <f>'dane po Vs'!V4</f>
+        <v>96</v>
       </c>
       <c r="W3" s="9">
-        <f>((B3-$B$31)^2+(C3-$C$31)^2+(D3-$D$31)^2+(E3-$E$31)^2+(F3-$F$31)^2+(G3-$G$31)^2+(H3-$H$31)^2+(I3-$I$31)^2+(J3-$J$31)^2+(K3-$K$31)^2+(L3-$L$31)^2+(M3-$M$31)^2+(N3-$N$31)^2+(O3-$O$31)^2+(P3-$P$31)^2+(Q3-$Q$31)^2+(R3-$R$31)^2+(S3-$S$31)^2+(T3-$T$31)^2+(U3-$U$31)^2+(V3-$V$31)^2)^(0.5)</f>
-        <v>579.66634944232976</v>
+        <f>((B3-$B$30)^2+(C3-$C$30)^2+(D3-$D$30)^2+(E3-$E$30)^2+(F3-$F$30)^2+(G3-$G$30)^2+(H3-$H$30)^2+(I3-$I$30)^2+(J3-$J$30)^2+(K3-$K$30)^2+(L3-$L$30)^2+(M3-$M$30)^2+(N3-$N$30)^2+(O3-$O$30)^2+(P3-$P$30)^2+(Q3-$Q$30)^2+(R3-$R$30)^2+(S3-$S$30)^2+(T3-$T$30)^2+(U3-$U$30)^2+(V3-$V$30)^2)^(0.5)</f>
+        <v>527.62945238650559</v>
       </c>
       <c r="X3" s="9">
-        <f>1-(W3/$AD$3)</f>
-        <v>0.30045508826898304</v>
+        <f>1-(W3/$AD$2)</f>
+        <v>0.36325353532856031</v>
       </c>
       <c r="Y3" s="6" t="str">
-        <f>A3</f>
-        <v>Austria</v>
+        <f t="shared" si="1"/>
+        <v>Belgia</v>
       </c>
       <c r="Z3" s="10">
-        <f>X3</f>
-        <v>0.30045508826898304</v>
-      </c>
-      <c r="AA3" s="6">
-        <f>X3</f>
-        <v>0.30045508826898304</v>
+        <f t="shared" si="2"/>
+        <v>0.36325353532856031</v>
+      </c>
+      <c r="AA3" s="10">
+        <f t="shared" si="0"/>
+        <v>0.36325353532856031</v>
       </c>
       <c r="AB3" s="11">
-        <f>AVERAGE(W3:W30)</f>
-        <v>546.44064601555351</v>
+        <f>AVERAGE(X2:X29)</f>
+        <v>0.34055207128903603</v>
       </c>
       <c r="AC3" s="11">
-        <f>STDEV(W3:W30)</f>
-        <v>141.09642758365499</v>
-      </c>
-      <c r="AD3" s="10">
-        <f>AB3+2*AC3</f>
-        <v>828.63350118286348</v>
+        <f>STDEV(X2:X29)</f>
+        <v>0.17027603564451785</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="str">
-        <f>'dane po Vs'!A4</f>
-        <v>Belgia</v>
+        <f>'dane po Vs'!A5</f>
+        <v>Bułgaria</v>
       </c>
       <c r="B4" s="6">
-        <f>'dane po Vs'!B4</f>
-        <v>13</v>
+        <f>'dane po Vs'!B5</f>
+        <v>34</v>
       </c>
       <c r="C4" s="6">
-        <f>'dane po Vs'!C4</f>
-        <v>121.3</v>
+        <f>'dane po Vs'!C5</f>
+        <v>131</v>
       </c>
       <c r="D4" s="5">
-        <f>'dane po Vs'!D4</f>
-        <v>231.76190476190476</v>
+        <f>'dane po Vs'!D5</f>
+        <v>25</v>
       </c>
       <c r="E4" s="5">
-        <f>'dane po Vs'!E4</f>
-        <v>77.400000000000006</v>
+        <f>'dane po Vs'!E5</f>
+        <v>37.700000000000003</v>
       </c>
       <c r="F4" s="5">
-        <f>'dane po Vs'!F4</f>
-        <v>4</v>
+        <f>'dane po Vs'!F5</f>
+        <v>27</v>
       </c>
       <c r="G4" s="5">
-        <f>'dane po Vs'!G4</f>
-        <v>3.8</v>
+        <f>'dane po Vs'!G5</f>
+        <v>6.7</v>
       </c>
       <c r="H4" s="5">
-        <f>'dane po Vs'!H4</f>
-        <v>17.5</v>
+        <f>'dane po Vs'!H5</f>
+        <v>11.1</v>
       </c>
       <c r="I4" s="5">
-        <f>'dane po Vs'!I4</f>
-        <v>13.6</v>
+        <f>'dane po Vs'!I5</f>
+        <v>17.100000000000001</v>
       </c>
       <c r="J4" s="5">
-        <f>'dane po Vs'!J4</f>
-        <v>6</v>
+        <f>'dane po Vs'!J5</f>
+        <v>-9</v>
       </c>
       <c r="K4" s="5">
-        <f>'dane po Vs'!K4</f>
-        <v>438</v>
+        <f>'dane po Vs'!K5</f>
+        <v>432</v>
       </c>
       <c r="L4" s="6">
-        <f>'dane po Vs'!L4</f>
-        <v>7.5</v>
+        <f>'dane po Vs'!L5</f>
+        <v>19</v>
       </c>
       <c r="M4" s="6">
-        <f>'dane po Vs'!M4</f>
-        <v>11.8</v>
+        <f>'dane po Vs'!M5</f>
+        <v>35.799999999999997</v>
       </c>
       <c r="N4" s="6">
-        <f>'dane po Vs'!N4</f>
-        <v>4.67</v>
+        <f>'dane po Vs'!N5</f>
+        <v>1.1299999999999999</v>
       </c>
       <c r="O4" s="6">
-        <f>'dane po Vs'!O4</f>
-        <v>0.31857142857142856</v>
+        <f>'dane po Vs'!O5</f>
+        <v>0.88375000000000015</v>
       </c>
       <c r="P4" s="6">
-        <f>'dane po Vs'!P4</f>
-        <v>2.0699999999999998</v>
+        <f>'dane po Vs'!P5</f>
+        <v>2.8</v>
       </c>
       <c r="Q4" s="6">
-        <f>'dane po Vs'!Q4</f>
-        <v>98</v>
+        <f>'dane po Vs'!Q5</f>
+        <v>20</v>
       </c>
       <c r="R4" s="6">
-        <f>'dane po Vs'!R4</f>
-        <v>15.42</v>
+        <f>'dane po Vs'!R5</f>
+        <v>0</v>
       </c>
       <c r="S4" s="6">
-        <f>'dane po Vs'!S4</f>
-        <v>0.2</v>
+        <f>'dane po Vs'!S5</f>
+        <v>0.19</v>
       </c>
       <c r="T4" s="5">
-        <f>'dane po Vs'!T4</f>
-        <v>23.7</v>
+        <f>'dane po Vs'!T5</f>
+        <v>28.4</v>
       </c>
       <c r="U4" s="5">
-        <f>'dane po Vs'!U4</f>
-        <v>20.8</v>
+        <f>'dane po Vs'!U5</f>
+        <v>48</v>
       </c>
       <c r="V4" s="6">
-        <f>'dane po Vs'!V4</f>
-        <v>96</v>
+        <f>'dane po Vs'!V5</f>
+        <v>42.2</v>
       </c>
       <c r="W4" s="9">
-        <f t="shared" ref="W4:W30" si="0">((B4-$B$31)^2+(C4-$C$31)^2+(D4-$D$31)^2+(E4-$E$31)^2+(F4-$F$31)^2+(G4-$G$31)^2+(H4-$H$31)^2+(I4-$I$31)^2+(J4-$J$31)^2+(K4-$K$31)^2+(L4-$L$31)^2+(M4-$M$31)^2+(N4-$N$31)^2+(O4-$O$31)^2+(P4-$P$31)^2+(Q4-$Q$31)^2+(R4-$R$31)^2+(S4-$S$31)^2+(T4-$T$31)^2+(U4-$U$31)^2+(V4-$V$31)^2)^(0.5)</f>
-        <v>527.62945238650559</v>
+        <f>((B4-$B$30)^2+(C4-$C$30)^2+(D4-$D$30)^2+(E4-$E$30)^2+(F4-$F$30)^2+(G4-$G$30)^2+(H4-$H$30)^2+(I4-$I$30)^2+(J4-$J$30)^2+(K4-$K$30)^2+(L4-$L$30)^2+(M4-$M$30)^2+(N4-$N$30)^2+(O4-$O$30)^2+(P4-$P$30)^2+(Q4-$Q$30)^2+(R4-$R$30)^2+(S4-$S$30)^2+(T4-$T$30)^2+(U4-$U$30)^2+(V4-$V$30)^2)^(0.5)</f>
+        <v>514.5861481812351</v>
       </c>
       <c r="X4" s="9">
-        <f>1-(W4/$AD$3)</f>
-        <v>0.36325353532856031</v>
+        <f>1-(W4/$AD$2)</f>
+        <v>0.37899427497600557</v>
       </c>
       <c r="Y4" s="6" t="str">
-        <f>A4</f>
-        <v>Belgia</v>
+        <f t="shared" si="1"/>
+        <v>Bułgaria</v>
       </c>
       <c r="Z4" s="10">
-        <f>X4</f>
-        <v>0.36325353532856031</v>
-      </c>
-      <c r="AA4" s="10">
-        <f>X4</f>
-        <v>0.36325353532856031</v>
-      </c>
-      <c r="AB4" s="11">
-        <f>AVERAGE(X3:X30)</f>
-        <v>0.34055207128903603</v>
-      </c>
-      <c r="AC4" s="11">
-        <f>STDEV(X3:X30)</f>
-        <v>0.17027603564451785</v>
+        <f t="shared" si="2"/>
+        <v>0.37899427497600557</v>
+      </c>
+      <c r="AA4" s="6">
+        <f t="shared" si="0"/>
+        <v>0.37899427497600557</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="AD4" s="6" t="s">
         <v>165</v>
@@ -14674,112 +14689,112 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="str">
-        <f>'dane po Vs'!A5</f>
-        <v>Bułgaria</v>
+        <f>'dane po Vs'!A6</f>
+        <v>Chorwacja</v>
       </c>
       <c r="B5" s="6">
-        <f>'dane po Vs'!B5</f>
-        <v>34</v>
+        <f>'dane po Vs'!B6</f>
+        <v>37</v>
       </c>
       <c r="C5" s="6">
-        <f>'dane po Vs'!C5</f>
-        <v>131</v>
+        <f>'dane po Vs'!C6</f>
+        <v>98.3</v>
       </c>
       <c r="D5" s="5">
-        <f>'dane po Vs'!D5</f>
-        <v>25</v>
+        <f>'dane po Vs'!D6</f>
+        <v>529</v>
       </c>
       <c r="E5" s="5">
-        <f>'dane po Vs'!E5</f>
-        <v>37.700000000000003</v>
+        <f>'dane po Vs'!E6</f>
+        <v>47.1</v>
       </c>
       <c r="F5" s="5">
-        <f>'dane po Vs'!F5</f>
-        <v>27</v>
+        <f>'dane po Vs'!F6</f>
+        <v>4</v>
       </c>
       <c r="G5" s="5">
-        <f>'dane po Vs'!G5</f>
-        <v>6.7</v>
+        <f>'dane po Vs'!G6</f>
+        <v>7</v>
       </c>
       <c r="H5" s="5">
-        <f>'dane po Vs'!H5</f>
-        <v>11.1</v>
+        <f>'dane po Vs'!H6</f>
+        <v>10</v>
       </c>
       <c r="I5" s="5">
-        <f>'dane po Vs'!I5</f>
-        <v>17.100000000000001</v>
+        <f>'dane po Vs'!I6</f>
+        <v>10</v>
       </c>
       <c r="J5" s="5">
-        <f>'dane po Vs'!J5</f>
-        <v>-9</v>
+        <f>'dane po Vs'!J6</f>
+        <v>3</v>
       </c>
       <c r="K5" s="5">
-        <f>'dane po Vs'!K5</f>
-        <v>432</v>
+        <f>'dane po Vs'!K6</f>
+        <v>404</v>
       </c>
       <c r="L5" s="6">
-        <f>'dane po Vs'!L5</f>
-        <v>19</v>
+        <f>'dane po Vs'!L6</f>
+        <v>28</v>
       </c>
       <c r="M5" s="6">
-        <f>'dane po Vs'!M5</f>
-        <v>35.799999999999997</v>
+        <f>'dane po Vs'!M6</f>
+        <v>33</v>
       </c>
       <c r="N5" s="6">
-        <f>'dane po Vs'!N5</f>
-        <v>1.1299999999999999</v>
+        <f>'dane po Vs'!N6</f>
+        <v>3.13</v>
       </c>
       <c r="O5" s="6">
-        <f>'dane po Vs'!O5</f>
-        <v>0.88375000000000015</v>
+        <f>'dane po Vs'!O6</f>
+        <v>0.70499999999999996</v>
       </c>
       <c r="P5" s="6">
-        <f>'dane po Vs'!P5</f>
-        <v>2.8</v>
+        <f>'dane po Vs'!P6</f>
+        <v>2.86</v>
       </c>
       <c r="Q5" s="6">
-        <f>'dane po Vs'!Q5</f>
-        <v>20</v>
+        <f>'dane po Vs'!Q6</f>
+        <v>53</v>
       </c>
       <c r="R5" s="6">
-        <f>'dane po Vs'!R5</f>
+        <f>'dane po Vs'!R6</f>
         <v>0</v>
       </c>
       <c r="S5" s="6">
-        <f>'dane po Vs'!S5</f>
-        <v>0.19</v>
+        <f>'dane po Vs'!S6</f>
+        <v>0.21</v>
       </c>
       <c r="T5" s="5">
-        <f>'dane po Vs'!T5</f>
-        <v>28.4</v>
+        <f>'dane po Vs'!T6</f>
+        <v>49.9</v>
       </c>
       <c r="U5" s="5">
-        <f>'dane po Vs'!U5</f>
-        <v>48</v>
+        <f>'dane po Vs'!U6</f>
+        <v>29.9</v>
       </c>
       <c r="V5" s="6">
-        <f>'dane po Vs'!V5</f>
-        <v>42.2</v>
+        <f>'dane po Vs'!V6</f>
+        <v>48.333333333333336</v>
       </c>
       <c r="W5" s="9">
+        <f>((B5-$B$30)^2+(C5-$C$30)^2+(D5-$D$30)^2+(E5-$E$30)^2+(F5-$F$30)^2+(G5-$G$30)^2+(H5-$H$30)^2+(I5-$I$30)^2+(J5-$J$30)^2+(K5-$K$30)^2+(L5-$L$30)^2+(M5-$M$30)^2+(N5-$N$30)^2+(O5-$O$30)^2+(P5-$P$30)^2+(Q5-$Q$30)^2+(R5-$R$30)^2+(S5-$S$30)^2+(T5-$T$30)^2+(U5-$U$30)^2+(V5-$V$30)^2)^(0.5)</f>
+        <v>727.38174821020937</v>
+      </c>
+      <c r="X5" s="9">
+        <f>1-(W5/$AD$2)</f>
+        <v>0.12219123753519323</v>
+      </c>
+      <c r="Y5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Chorwacja</v>
+      </c>
+      <c r="Z5" s="10">
+        <f t="shared" si="2"/>
+        <v>0.12219123753519323</v>
+      </c>
+      <c r="AA5" s="6">
         <f t="shared" si="0"/>
-        <v>514.5861481812351</v>
-      </c>
-      <c r="X5" s="9">
-        <f>1-(W5/$AD$3)</f>
-        <v>0.37899427497600557</v>
-      </c>
-      <c r="Y5" s="6" t="str">
-        <f>A5</f>
-        <v>Bułgaria</v>
-      </c>
-      <c r="Z5" s="10">
-        <f>X5</f>
-        <v>0.37899427497600557</v>
-      </c>
-      <c r="AA5" s="6">
-        <f>X5</f>
-        <v>0.37899427497600557</v>
+        <v>0.12219123753519323</v>
       </c>
       <c r="AB5" s="6" t="s">
         <v>165</v>
@@ -14793,112 +14808,112 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="str">
-        <f>'dane po Vs'!A6</f>
-        <v>Chorwacja</v>
+        <f>'dane po Vs'!A7</f>
+        <v>Cypr</v>
       </c>
       <c r="B6" s="6">
-        <f>'dane po Vs'!B6</f>
-        <v>37</v>
+        <f>'dane po Vs'!B7</f>
+        <v>28</v>
       </c>
       <c r="C6" s="6">
-        <f>'dane po Vs'!C6</f>
-        <v>98.3</v>
+        <f>'dane po Vs'!C7</f>
+        <v>173.2</v>
       </c>
       <c r="D6" s="5">
-        <f>'dane po Vs'!D6</f>
-        <v>529</v>
+        <f>'dane po Vs'!D7</f>
+        <v>173</v>
       </c>
       <c r="E6" s="5">
-        <f>'dane po Vs'!E6</f>
-        <v>47.1</v>
+        <f>'dane po Vs'!E7</f>
+        <v>96.3</v>
       </c>
       <c r="F6" s="5">
-        <f>'dane po Vs'!F6</f>
-        <v>4</v>
+        <f>'dane po Vs'!F7</f>
+        <v>16</v>
       </c>
       <c r="G6" s="5">
-        <f>'dane po Vs'!G6</f>
-        <v>7</v>
+        <f>'dane po Vs'!G7</f>
+        <v>2.1</v>
       </c>
       <c r="H6" s="5">
-        <f>'dane po Vs'!H6</f>
-        <v>10</v>
+        <f>'dane po Vs'!H7</f>
+        <v>26.2</v>
       </c>
       <c r="I6" s="5">
-        <f>'dane po Vs'!I6</f>
-        <v>10</v>
+        <f>'dane po Vs'!I7</f>
+        <v>13.9</v>
       </c>
       <c r="J6" s="5">
-        <f>'dane po Vs'!J6</f>
-        <v>3</v>
+        <f>'dane po Vs'!J7</f>
+        <v>29</v>
       </c>
       <c r="K6" s="5">
-        <f>'dane po Vs'!K6</f>
-        <v>404</v>
+        <f>'dane po Vs'!K7</f>
+        <v>618</v>
       </c>
       <c r="L6" s="6">
-        <f>'dane po Vs'!L6</f>
-        <v>28</v>
+        <f>'dane po Vs'!L7</f>
+        <v>8.1</v>
       </c>
       <c r="M6" s="6">
-        <f>'dane po Vs'!M6</f>
+        <f>'dane po Vs'!M7</f>
+        <v>235.8</v>
+      </c>
+      <c r="N6" s="6">
+        <f>'dane po Vs'!N7</f>
+        <v>4.03</v>
+      </c>
+      <c r="O6" s="6">
+        <f>'dane po Vs'!O7</f>
+        <v>0.24714285714285711</v>
+      </c>
+      <c r="P6" s="6">
+        <f>'dane po Vs'!P7</f>
+        <v>2.72</v>
+      </c>
+      <c r="Q6" s="6">
+        <f>'dane po Vs'!Q7</f>
         <v>33</v>
       </c>
-      <c r="N6" s="6">
-        <f>'dane po Vs'!N6</f>
-        <v>3.13</v>
-      </c>
-      <c r="O6" s="6">
-        <f>'dane po Vs'!O6</f>
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="P6" s="6">
-        <f>'dane po Vs'!P6</f>
-        <v>2.86</v>
-      </c>
-      <c r="Q6" s="6">
-        <f>'dane po Vs'!Q6</f>
-        <v>53</v>
-      </c>
       <c r="R6" s="6">
-        <f>'dane po Vs'!R6</f>
+        <f>'dane po Vs'!R7</f>
         <v>0</v>
       </c>
       <c r="S6" s="6">
-        <f>'dane po Vs'!S6</f>
-        <v>0.21</v>
+        <f>'dane po Vs'!S7</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T6" s="5">
-        <f>'dane po Vs'!T6</f>
-        <v>49.9</v>
+        <f>'dane po Vs'!T7</f>
+        <v>38.9</v>
       </c>
       <c r="U6" s="5">
-        <f>'dane po Vs'!U6</f>
-        <v>29.9</v>
+        <f>'dane po Vs'!U7</f>
+        <v>27.8</v>
       </c>
       <c r="V6" s="6">
-        <f>'dane po Vs'!V6</f>
-        <v>48.333333333333336</v>
+        <f>'dane po Vs'!V7</f>
+        <v>144.90352633826882</v>
       </c>
       <c r="W6" s="9">
+        <f>((B6-$B$30)^2+(C6-$C$30)^2+(D6-$D$30)^2+(E6-$E$30)^2+(F6-$F$30)^2+(G6-$G$30)^2+(H6-$H$30)^2+(I6-$I$30)^2+(J6-$J$30)^2+(K6-$K$30)^2+(L6-$L$30)^2+(M6-$M$30)^2+(N6-$N$30)^2+(O6-$O$30)^2+(P6-$P$30)^2+(Q6-$Q$30)^2+(R6-$R$30)^2+(S6-$S$30)^2+(T6-$T$30)^2+(U6-$U$30)^2+(V6-$V$30)^2)^(0.5)</f>
+        <v>533.59283420507222</v>
+      </c>
+      <c r="X6" s="9">
+        <f>1-(W6/$AD$2)</f>
+        <v>0.35605688951342729</v>
+      </c>
+      <c r="Y6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Cypr</v>
+      </c>
+      <c r="Z6" s="10">
+        <f t="shared" si="2"/>
+        <v>0.35605688951342729</v>
+      </c>
+      <c r="AA6" s="6">
         <f t="shared" si="0"/>
-        <v>727.38174821020937</v>
-      </c>
-      <c r="X6" s="9">
-        <f>1-(W6/$AD$3)</f>
-        <v>0.12219123753519323</v>
-      </c>
-      <c r="Y6" s="6" t="str">
-        <f>A6</f>
-        <v>Chorwacja</v>
-      </c>
-      <c r="Z6" s="10">
-        <f>X6</f>
-        <v>0.12219123753519323</v>
-      </c>
-      <c r="AA6" s="6">
-        <f>X6</f>
-        <v>0.12219123753519323</v>
+        <v>0.35605688951342729</v>
       </c>
       <c r="AB6" s="6" t="s">
         <v>165</v>
@@ -14912,112 +14927,112 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="str">
-        <f>'dane po Vs'!A7</f>
-        <v>Cypr</v>
+        <f>'dane po Vs'!A8</f>
+        <v>Czechy</v>
       </c>
       <c r="B7" s="6">
-        <f>'dane po Vs'!B7</f>
-        <v>28</v>
+        <f>'dane po Vs'!B8</f>
+        <v>14</v>
       </c>
       <c r="C7" s="6">
-        <f>'dane po Vs'!C7</f>
-        <v>173.2</v>
+        <f>'dane po Vs'!C8</f>
+        <v>159.19999999999999</v>
       </c>
       <c r="D7" s="5">
-        <f>'dane po Vs'!D7</f>
-        <v>173</v>
+        <f>'dane po Vs'!D8</f>
+        <v>10</v>
       </c>
       <c r="E7" s="5">
-        <f>'dane po Vs'!E7</f>
-        <v>96.3</v>
+        <f>'dane po Vs'!E8</f>
+        <v>27.7</v>
       </c>
       <c r="F7" s="5">
-        <f>'dane po Vs'!F7</f>
-        <v>16</v>
+        <f>'dane po Vs'!F8</f>
+        <v>13.2</v>
       </c>
       <c r="G7" s="5">
-        <f>'dane po Vs'!G7</f>
-        <v>2.1</v>
+        <f>'dane po Vs'!G8</f>
+        <v>3.6</v>
       </c>
       <c r="H7" s="5">
-        <f>'dane po Vs'!H7</f>
-        <v>26.2</v>
+        <f>'dane po Vs'!H8</f>
+        <v>14.9</v>
       </c>
       <c r="I7" s="5">
-        <f>'dane po Vs'!I7</f>
-        <v>13.9</v>
+        <f>'dane po Vs'!I8</f>
+        <v>14.8</v>
       </c>
       <c r="J7" s="5">
-        <f>'dane po Vs'!J7</f>
-        <v>29</v>
+        <f>'dane po Vs'!J8</f>
+        <v>-3</v>
       </c>
       <c r="K7" s="5">
-        <f>'dane po Vs'!K7</f>
-        <v>618</v>
+        <f>'dane po Vs'!K8</f>
+        <v>307</v>
       </c>
       <c r="L7" s="6">
-        <f>'dane po Vs'!L7</f>
-        <v>8.1</v>
+        <f>'dane po Vs'!L8</f>
+        <v>13.8</v>
       </c>
       <c r="M7" s="6">
-        <f>'dane po Vs'!M7</f>
-        <v>235.8</v>
+        <f>'dane po Vs'!M8</f>
+        <v>8</v>
       </c>
       <c r="N7" s="6">
-        <f>'dane po Vs'!N7</f>
-        <v>4.03</v>
+        <f>'dane po Vs'!N8</f>
+        <v>13.47</v>
       </c>
       <c r="O7" s="6">
-        <f>'dane po Vs'!O7</f>
-        <v>0.24714285714285711</v>
+        <f>'dane po Vs'!O8</f>
+        <v>0.8337500000000001</v>
       </c>
       <c r="P7" s="6">
-        <f>'dane po Vs'!P7</f>
-        <v>2.72</v>
+        <f>'dane po Vs'!P8</f>
+        <v>2.13</v>
       </c>
       <c r="Q7" s="6">
-        <f>'dane po Vs'!Q7</f>
-        <v>33</v>
+        <f>'dane po Vs'!Q8</f>
+        <v>66</v>
       </c>
       <c r="R7" s="6">
-        <f>'dane po Vs'!R7</f>
-        <v>0</v>
+        <f>'dane po Vs'!R8</f>
+        <v>7.33</v>
       </c>
       <c r="S7" s="6">
-        <f>'dane po Vs'!S7</f>
-        <v>7.0000000000000007E-2</v>
+        <f>'dane po Vs'!S8</f>
+        <v>0.35</v>
       </c>
       <c r="T7" s="5">
-        <f>'dane po Vs'!T7</f>
-        <v>38.9</v>
+        <f>'dane po Vs'!T8</f>
+        <v>18.899999999999999</v>
       </c>
       <c r="U7" s="5">
-        <f>'dane po Vs'!U7</f>
-        <v>27.8</v>
+        <f>'dane po Vs'!U8</f>
+        <v>14.6</v>
       </c>
       <c r="V7" s="6">
-        <f>'dane po Vs'!V7</f>
-        <v>144.90352633826882</v>
+        <f>'dane po Vs'!V8</f>
+        <v>96.4</v>
       </c>
       <c r="W7" s="9">
+        <f>((B7-$B$30)^2+(C7-$C$30)^2+(D7-$D$30)^2+(E7-$E$30)^2+(F7-$F$30)^2+(G7-$G$30)^2+(H7-$H$30)^2+(I7-$I$30)^2+(J7-$J$30)^2+(K7-$K$30)^2+(L7-$L$30)^2+(M7-$M$30)^2+(N7-$N$30)^2+(O7-$O$30)^2+(P7-$P$30)^2+(Q7-$Q$30)^2+(R7-$R$30)^2+(S7-$S$30)^2+(T7-$T$30)^2+(U7-$U$30)^2+(V7-$V$30)^2)^(0.5)</f>
+        <v>437.63711542783938</v>
+      </c>
+      <c r="X7" s="9">
+        <f>1-(W7/$AD$2)</f>
+        <v>0.47185684044499998</v>
+      </c>
+      <c r="Y7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Czechy</v>
+      </c>
+      <c r="Z7" s="10">
+        <f t="shared" si="2"/>
+        <v>0.47185684044499998</v>
+      </c>
+      <c r="AA7" s="6">
         <f t="shared" si="0"/>
-        <v>533.59283420507222</v>
-      </c>
-      <c r="X7" s="9">
-        <f>1-(W7/$AD$3)</f>
-        <v>0.35605688951342729</v>
-      </c>
-      <c r="Y7" s="6" t="str">
-        <f>A7</f>
-        <v>Cypr</v>
-      </c>
-      <c r="Z7" s="10">
-        <f>X7</f>
-        <v>0.35605688951342729</v>
-      </c>
-      <c r="AA7" s="6">
-        <f>X7</f>
-        <v>0.35605688951342729</v>
+        <v>0.47185684044499998</v>
       </c>
       <c r="AB7" s="6" t="s">
         <v>165</v>
@@ -15031,112 +15046,112 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="str">
-        <f>'dane po Vs'!A8</f>
-        <v>Czechy</v>
+        <f>'dane po Vs'!A9</f>
+        <v>Dania</v>
       </c>
       <c r="B8" s="6">
-        <f>'dane po Vs'!B8</f>
-        <v>14</v>
+        <f>'dane po Vs'!B9</f>
+        <v>8</v>
       </c>
       <c r="C8" s="6">
-        <f>'dane po Vs'!C8</f>
-        <v>159.19999999999999</v>
+        <f>'dane po Vs'!C9</f>
+        <v>122.9</v>
       </c>
       <c r="D8" s="5">
-        <f>'dane po Vs'!D8</f>
-        <v>10</v>
+        <f>'dane po Vs'!D9</f>
+        <v>231.76190476190476</v>
       </c>
       <c r="E8" s="5">
-        <f>'dane po Vs'!E8</f>
-        <v>27.7</v>
+        <f>'dane po Vs'!E9</f>
+        <v>12.3</v>
       </c>
       <c r="F8" s="5">
-        <f>'dane po Vs'!F8</f>
-        <v>13.2</v>
+        <f>'dane po Vs'!F9</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G8" s="5">
-        <f>'dane po Vs'!G8</f>
-        <v>3.6</v>
+        <f>'dane po Vs'!G9</f>
+        <v>5.6</v>
       </c>
       <c r="H8" s="5">
-        <f>'dane po Vs'!H8</f>
-        <v>14.9</v>
+        <f>'dane po Vs'!H9</f>
+        <v>15.6</v>
       </c>
       <c r="I8" s="5">
-        <f>'dane po Vs'!I8</f>
-        <v>14.8</v>
+        <f>'dane po Vs'!I9</f>
+        <v>21.9</v>
       </c>
       <c r="J8" s="5">
-        <f>'dane po Vs'!J8</f>
-        <v>-3</v>
+        <f>'dane po Vs'!J9</f>
+        <v>8</v>
       </c>
       <c r="K8" s="5">
-        <f>'dane po Vs'!K8</f>
-        <v>307</v>
+        <f>'dane po Vs'!K9</f>
+        <v>790</v>
       </c>
       <c r="L8" s="6">
-        <f>'dane po Vs'!L8</f>
-        <v>13.8</v>
+        <f>'dane po Vs'!L9</f>
+        <v>27.4</v>
       </c>
       <c r="M8" s="6">
-        <f>'dane po Vs'!M8</f>
-        <v>8</v>
+        <f>'dane po Vs'!M9</f>
+        <v>3.9</v>
       </c>
       <c r="N8" s="6">
-        <f>'dane po Vs'!N8</f>
-        <v>13.47</v>
+        <f>'dane po Vs'!N9</f>
+        <v>6.44</v>
       </c>
       <c r="O8" s="6">
-        <f>'dane po Vs'!O8</f>
-        <v>0.8337500000000001</v>
+        <f>'dane po Vs'!O9</f>
+        <v>0.40624999999999994</v>
       </c>
       <c r="P8" s="6">
-        <f>'dane po Vs'!P8</f>
-        <v>2.13</v>
+        <f>'dane po Vs'!P9</f>
+        <v>4.1399999999999997</v>
       </c>
       <c r="Q8" s="6">
-        <f>'dane po Vs'!Q8</f>
-        <v>66</v>
+        <f>'dane po Vs'!Q9</f>
+        <v>129</v>
       </c>
       <c r="R8" s="6">
-        <f>'dane po Vs'!R8</f>
-        <v>7.33</v>
+        <f>'dane po Vs'!R9</f>
+        <v>8.17</v>
       </c>
       <c r="S8" s="6">
-        <f>'dane po Vs'!S8</f>
-        <v>0.35</v>
+        <f>'dane po Vs'!S9</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T8" s="5">
-        <f>'dane po Vs'!T8</f>
-        <v>18.899999999999999</v>
+        <f>'dane po Vs'!T9</f>
+        <v>13</v>
       </c>
       <c r="U8" s="5">
-        <f>'dane po Vs'!U8</f>
-        <v>14.6</v>
+        <f>'dane po Vs'!U9</f>
+        <v>18.3</v>
       </c>
       <c r="V8" s="6">
-        <f>'dane po Vs'!V8</f>
-        <v>96.4</v>
+        <f>'dane po Vs'!V9</f>
+        <v>65</v>
       </c>
       <c r="W8" s="9">
+        <f>((B8-$B$30)^2+(C8-$C$30)^2+(D8-$D$30)^2+(E8-$E$30)^2+(F8-$F$30)^2+(G8-$G$30)^2+(H8-$H$30)^2+(I8-$I$30)^2+(J8-$J$30)^2+(K8-$K$30)^2+(L8-$L$30)^2+(M8-$M$30)^2+(N8-$N$30)^2+(O8-$O$30)^2+(P8-$P$30)^2+(Q8-$Q$30)^2+(R8-$R$30)^2+(S8-$S$30)^2+(T8-$T$30)^2+(U8-$U$30)^2+(V8-$V$30)^2)^(0.5)</f>
+        <v>742.71098214925848</v>
+      </c>
+      <c r="X8" s="9">
+        <f>1-(W8/$AD$2)</f>
+        <v>0.10369182384124187</v>
+      </c>
+      <c r="Y8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Dania</v>
+      </c>
+      <c r="Z8" s="10">
+        <f t="shared" si="2"/>
+        <v>0.10369182384124187</v>
+      </c>
+      <c r="AA8" s="6">
         <f t="shared" si="0"/>
-        <v>437.63711542783938</v>
-      </c>
-      <c r="X8" s="9">
-        <f>1-(W8/$AD$3)</f>
-        <v>0.47185684044499998</v>
-      </c>
-      <c r="Y8" s="6" t="str">
-        <f>A8</f>
-        <v>Czechy</v>
-      </c>
-      <c r="Z8" s="10">
-        <f>X8</f>
-        <v>0.47185684044499998</v>
-      </c>
-      <c r="AA8" s="6">
-        <f>X8</f>
-        <v>0.47185684044499998</v>
+        <v>0.10369182384124187</v>
       </c>
       <c r="AB8" s="6" t="s">
         <v>165</v>
@@ -15150,112 +15165,112 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="str">
-        <f>'dane po Vs'!A9</f>
-        <v>Dania</v>
+        <f>'dane po Vs'!A10</f>
+        <v>Estonia</v>
       </c>
       <c r="B9" s="6">
-        <f>'dane po Vs'!B9</f>
-        <v>8</v>
+        <f>'dane po Vs'!B10</f>
+        <v>18</v>
       </c>
       <c r="C9" s="6">
-        <f>'dane po Vs'!C9</f>
-        <v>122.9</v>
+        <f>'dane po Vs'!C10</f>
+        <v>95</v>
       </c>
       <c r="D9" s="5">
-        <f>'dane po Vs'!D9</f>
-        <v>231.76190476190476</v>
+        <f>'dane po Vs'!D10</f>
+        <v>219</v>
       </c>
       <c r="E9" s="5">
-        <f>'dane po Vs'!E9</f>
-        <v>12.3</v>
+        <f>'dane po Vs'!E10</f>
+        <v>11.9</v>
       </c>
       <c r="F9" s="5">
-        <f>'dane po Vs'!F9</f>
-        <v>2.2999999999999998</v>
+        <f>'dane po Vs'!F10</f>
+        <v>27.7</v>
       </c>
       <c r="G9" s="5">
-        <f>'dane po Vs'!G9</f>
-        <v>5.6</v>
+        <f>'dane po Vs'!G10</f>
+        <v>13.3</v>
       </c>
       <c r="H9" s="5">
-        <f>'dane po Vs'!H9</f>
-        <v>15.6</v>
+        <f>'dane po Vs'!H10</f>
+        <v>10.8</v>
       </c>
       <c r="I9" s="5">
-        <f>'dane po Vs'!I9</f>
-        <v>21.9</v>
+        <f>'dane po Vs'!I10</f>
+        <v>28.8</v>
       </c>
       <c r="J9" s="5">
-        <f>'dane po Vs'!J9</f>
-        <v>8</v>
+        <f>'dane po Vs'!J10</f>
+        <v>-8</v>
       </c>
       <c r="K9" s="5">
-        <f>'dane po Vs'!K9</f>
-        <v>790</v>
+        <f>'dane po Vs'!K10</f>
+        <v>293</v>
       </c>
       <c r="L9" s="6">
-        <f>'dane po Vs'!L9</f>
-        <v>27.4</v>
+        <f>'dane po Vs'!L10</f>
+        <v>25.6</v>
       </c>
       <c r="M9" s="6">
-        <f>'dane po Vs'!M9</f>
-        <v>3.9</v>
+        <f>'dane po Vs'!M10</f>
+        <v>12</v>
       </c>
       <c r="N9" s="6">
-        <f>'dane po Vs'!N9</f>
-        <v>6.44</v>
+        <f>'dane po Vs'!N10</f>
+        <v>15.65</v>
       </c>
       <c r="O9" s="6">
-        <f>'dane po Vs'!O9</f>
-        <v>0.40624999999999994</v>
+        <f>'dane po Vs'!O10</f>
+        <v>0.53999999999999992</v>
       </c>
       <c r="P9" s="6">
-        <f>'dane po Vs'!P9</f>
-        <v>4.1399999999999997</v>
+        <f>'dane po Vs'!P10</f>
+        <v>2.56</v>
       </c>
       <c r="Q9" s="6">
-        <f>'dane po Vs'!Q9</f>
-        <v>129</v>
+        <f>'dane po Vs'!Q10</f>
+        <v>56</v>
       </c>
       <c r="R9" s="6">
-        <f>'dane po Vs'!R9</f>
-        <v>8.17</v>
+        <f>'dane po Vs'!R10</f>
+        <v>0</v>
       </c>
       <c r="S9" s="6">
-        <f>'dane po Vs'!S9</f>
-        <v>7.0000000000000007E-2</v>
+        <f>'dane po Vs'!S10</f>
+        <v>0.15</v>
       </c>
       <c r="T9" s="5">
-        <f>'dane po Vs'!T9</f>
-        <v>13</v>
+        <f>'dane po Vs'!T10</f>
+        <v>18.7</v>
       </c>
       <c r="U9" s="5">
-        <f>'dane po Vs'!U9</f>
-        <v>18.3</v>
+        <f>'dane po Vs'!U10</f>
+        <v>23.5</v>
       </c>
       <c r="V9" s="6">
-        <f>'dane po Vs'!V9</f>
-        <v>65</v>
+        <f>'dane po Vs'!V10</f>
+        <v>28.25</v>
       </c>
       <c r="W9" s="9">
+        <f>((B9-$B$30)^2+(C9-$C$30)^2+(D9-$D$30)^2+(E9-$E$30)^2+(F9-$F$30)^2+(G9-$G$30)^2+(H9-$H$30)^2+(I9-$I$30)^2+(J9-$J$30)^2+(K9-$K$30)^2+(L9-$L$30)^2+(M9-$M$30)^2+(N9-$N$30)^2+(O9-$O$30)^2+(P9-$P$30)^2+(Q9-$Q$30)^2+(R9-$R$30)^2+(S9-$S$30)^2+(T9-$T$30)^2+(U9-$U$30)^2+(V9-$V$30)^2)^(0.5)</f>
+        <v>546.95378686326194</v>
+      </c>
+      <c r="X9" s="9">
+        <f>1-(W9/$AD$2)</f>
+        <v>0.33993280976150186</v>
+      </c>
+      <c r="Y9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Estonia</v>
+      </c>
+      <c r="Z9" s="10">
+        <f t="shared" si="2"/>
+        <v>0.33993280976150186</v>
+      </c>
+      <c r="AA9" s="6">
         <f t="shared" si="0"/>
-        <v>742.71098214925848</v>
-      </c>
-      <c r="X9" s="9">
-        <f>1-(W9/$AD$3)</f>
-        <v>0.10369182384124187</v>
-      </c>
-      <c r="Y9" s="6" t="str">
-        <f>A9</f>
-        <v>Dania</v>
-      </c>
-      <c r="Z9" s="10">
-        <f>X9</f>
-        <v>0.10369182384124187</v>
-      </c>
-      <c r="AA9" s="6">
-        <f>X9</f>
-        <v>0.10369182384124187</v>
+        <v>0.33993280976150186</v>
       </c>
       <c r="AB9" s="6" t="s">
         <v>165</v>
@@ -15269,112 +15284,112 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="str">
-        <f>'dane po Vs'!A10</f>
-        <v>Estonia</v>
+        <f>'dane po Vs'!A11</f>
+        <v>Finlandia</v>
       </c>
       <c r="B10" s="6">
-        <f>'dane po Vs'!B10</f>
-        <v>18</v>
+        <f>'dane po Vs'!B11</f>
+        <v>14</v>
       </c>
       <c r="C10" s="6">
-        <f>'dane po Vs'!C10</f>
-        <v>95</v>
+        <f>'dane po Vs'!C11</f>
+        <v>102.1</v>
       </c>
       <c r="D10" s="5">
-        <f>'dane po Vs'!D10</f>
-        <v>219</v>
+        <f>'dane po Vs'!D11</f>
+        <v>231.76190476190476</v>
       </c>
       <c r="E10" s="5">
-        <f>'dane po Vs'!E10</f>
-        <v>11.9</v>
+        <f>'dane po Vs'!E11</f>
+        <v>48.6</v>
       </c>
       <c r="F10" s="5">
-        <f>'dane po Vs'!F10</f>
-        <v>27.7</v>
+        <f>'dane po Vs'!F11</f>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G10" s="5">
-        <f>'dane po Vs'!G10</f>
-        <v>13.3</v>
+        <f>'dane po Vs'!G11</f>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H10" s="5">
-        <f>'dane po Vs'!H10</f>
-        <v>10.8</v>
+        <f>'dane po Vs'!H11</f>
+        <v>13.4</v>
       </c>
       <c r="I10" s="5">
-        <f>'dane po Vs'!I10</f>
-        <v>28.8</v>
+        <f>'dane po Vs'!I11</f>
+        <v>37.299999999999997</v>
       </c>
       <c r="J10" s="5">
-        <f>'dane po Vs'!J10</f>
-        <v>-8</v>
+        <f>'dane po Vs'!J11</f>
+        <v>4</v>
       </c>
       <c r="K10" s="5">
-        <f>'dane po Vs'!K10</f>
-        <v>293</v>
+        <f>'dane po Vs'!K11</f>
+        <v>493</v>
       </c>
       <c r="L10" s="6">
-        <f>'dane po Vs'!L10</f>
-        <v>25.6</v>
+        <f>'dane po Vs'!L11</f>
+        <v>36.700000000000003</v>
       </c>
       <c r="M10" s="6">
-        <f>'dane po Vs'!M10</f>
-        <v>12</v>
+        <f>'dane po Vs'!M11</f>
+        <v>69.400000000000006</v>
       </c>
       <c r="N10" s="6">
-        <f>'dane po Vs'!N10</f>
-        <v>15.65</v>
+        <f>'dane po Vs'!N11</f>
+        <v>9.07</v>
       </c>
       <c r="O10" s="6">
-        <f>'dane po Vs'!O10</f>
-        <v>0.53999999999999992</v>
+        <f>'dane po Vs'!O11</f>
+        <v>0.40285714285714291</v>
       </c>
       <c r="P10" s="6">
-        <f>'dane po Vs'!P10</f>
-        <v>2.56</v>
+        <f>'dane po Vs'!P11</f>
+        <v>2.93</v>
       </c>
       <c r="Q10" s="6">
-        <f>'dane po Vs'!Q10</f>
-        <v>56</v>
+        <f>'dane po Vs'!Q11</f>
+        <v>133</v>
       </c>
       <c r="R10" s="6">
-        <f>'dane po Vs'!R10</f>
-        <v>0</v>
+        <f>'dane po Vs'!R11</f>
+        <v>14.42</v>
       </c>
       <c r="S10" s="6">
-        <f>'dane po Vs'!S10</f>
-        <v>0.15</v>
+        <f>'dane po Vs'!S11</f>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T10" s="5">
-        <f>'dane po Vs'!T10</f>
-        <v>18.7</v>
+        <f>'dane po Vs'!T11</f>
+        <v>19.899999999999999</v>
       </c>
       <c r="U10" s="5">
-        <f>'dane po Vs'!U10</f>
-        <v>23.5</v>
+        <f>'dane po Vs'!U11</f>
+        <v>16</v>
       </c>
       <c r="V10" s="6">
-        <f>'dane po Vs'!V10</f>
-        <v>28.25</v>
+        <f>'dane po Vs'!V11</f>
+        <v>132.69999999999999</v>
       </c>
       <c r="W10" s="9">
+        <f>((B10-$B$30)^2+(C10-$C$30)^2+(D10-$D$30)^2+(E10-$E$30)^2+(F10-$F$30)^2+(G10-$G$30)^2+(H10-$H$30)^2+(I10-$I$30)^2+(J10-$J$30)^2+(K10-$K$30)^2+(L10-$L$30)^2+(M10-$M$30)^2+(N10-$N$30)^2+(O10-$O$30)^2+(P10-$P$30)^2+(Q10-$Q$30)^2+(R10-$R$30)^2+(S10-$S$30)^2+(T10-$T$30)^2+(U10-$U$30)^2+(V10-$V$30)^2)^(0.5)</f>
+        <v>502.19839163104285</v>
+      </c>
+      <c r="X10" s="9">
+        <f>1-(W10/$AD$2)</f>
+        <v>0.39394389568589583</v>
+      </c>
+      <c r="Y10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Finlandia</v>
+      </c>
+      <c r="Z10" s="10">
+        <f t="shared" si="2"/>
+        <v>0.39394389568589583</v>
+      </c>
+      <c r="AA10" s="6">
         <f t="shared" si="0"/>
-        <v>546.95378686326194</v>
-      </c>
-      <c r="X10" s="9">
-        <f>1-(W10/$AD$3)</f>
-        <v>0.33993280976150186</v>
-      </c>
-      <c r="Y10" s="6" t="str">
-        <f>A10</f>
-        <v>Estonia</v>
-      </c>
-      <c r="Z10" s="10">
-        <f>X10</f>
-        <v>0.33993280976150186</v>
-      </c>
-      <c r="AA10" s="6">
-        <f>X10</f>
-        <v>0.33993280976150186</v>
+        <v>0.39394389568589583</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>165</v>
@@ -15388,112 +15403,111 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="str">
-        <f>'dane po Vs'!A11</f>
-        <v>Finlandia</v>
+        <f>'dane po Vs'!A12</f>
+        <v>Francja</v>
       </c>
       <c r="B11" s="6">
-        <f>'dane po Vs'!B11</f>
-        <v>14</v>
+        <f>'dane po Vs'!B12</f>
+        <v>13</v>
       </c>
       <c r="C11" s="6">
-        <f>'dane po Vs'!C11</f>
-        <v>102.1</v>
+        <f>'dane po Vs'!C12</f>
+        <v>131.19999999999999</v>
       </c>
       <c r="D11" s="5">
-        <f>'dane po Vs'!D11</f>
-        <v>231.76190476190476</v>
+        <f>'dane po Vs'!D12</f>
+        <v>904</v>
       </c>
       <c r="E11" s="5">
-        <f>'dane po Vs'!E11</f>
-        <v>48.6</v>
+        <f>'dane po Vs'!E12</f>
+        <v>47.9</v>
       </c>
       <c r="F11" s="5">
-        <f>'dane po Vs'!F11</f>
-        <v>8.6999999999999993</v>
+        <f>'dane po Vs'!F12</f>
+        <v>3</v>
       </c>
       <c r="G11" s="5">
-        <f>'dane po Vs'!G11</f>
-        <v>8.3000000000000007</v>
+        <f>'dane po Vs'!G12</f>
+        <v>4.5</v>
       </c>
       <c r="H11" s="5">
-        <f>'dane po Vs'!H11</f>
-        <v>13.4</v>
+        <f>'dane po Vs'!H12</f>
+        <v>16.2</v>
       </c>
       <c r="I11" s="5">
-        <f>'dane po Vs'!I11</f>
-        <v>37.299999999999997</v>
+        <f>'dane po Vs'!I12</f>
+        <v>12</v>
       </c>
       <c r="J11" s="5">
-        <f>'dane po Vs'!J11</f>
-        <v>4</v>
+        <f>'dane po Vs'!J12</f>
+        <v>2</v>
       </c>
       <c r="K11" s="5">
-        <f>'dane po Vs'!K11</f>
-        <v>493</v>
+        <f>'dane po Vs'!K12</f>
+        <v>520</v>
       </c>
       <c r="L11" s="6">
-        <f>'dane po Vs'!L11</f>
-        <v>36.700000000000003</v>
+        <f>'dane po Vs'!L12</f>
+        <v>14.1</v>
       </c>
       <c r="M11" s="6">
-        <f>'dane po Vs'!M11</f>
-        <v>69.400000000000006</v>
+        <f>'dane po Vs'!M12</f>
+        <v>152.19999999999999</v>
       </c>
       <c r="N11" s="6">
-        <f>'dane po Vs'!N11</f>
-        <v>9.07</v>
+        <f>'dane po Vs'!N12</f>
+        <v>3.66</v>
       </c>
       <c r="O11" s="6">
-        <f>'dane po Vs'!O11</f>
-        <v>0.40285714285714291</v>
+        <f>'dane po Vs'!O12</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P11" s="6">
-        <f>'dane po Vs'!P11</f>
-        <v>2.93</v>
+        <f>'dane po Vs'!P12</f>
+        <v>2.0299999999999998</v>
       </c>
       <c r="Q11" s="6">
-        <f>'dane po Vs'!Q11</f>
-        <v>133</v>
+        <f>'dane po Vs'!Q12</f>
+        <v>113</v>
       </c>
       <c r="R11" s="6">
-        <f>'dane po Vs'!R11</f>
-        <v>14.42</v>
+        <f>'dane po Vs'!R12</f>
+        <v>53.73</v>
       </c>
       <c r="S11" s="6">
-        <f>'dane po Vs'!S11</f>
+        <f>'dane po Vs'!S12</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T11" s="5">
-        <f>'dane po Vs'!T11</f>
-        <v>19.899999999999999</v>
+        <f>'dane po Vs'!T12</f>
+        <v>24.9</v>
       </c>
       <c r="U11" s="5">
-        <f>'dane po Vs'!U11</f>
-        <v>16</v>
+        <f>'dane po Vs'!U12</f>
+        <v>18.100000000000001</v>
       </c>
       <c r="V11" s="6">
-        <f>'dane po Vs'!V11</f>
-        <v>132.69999999999999</v>
+        <f>'dane po Vs'!V12</f>
+        <v>444.2</v>
       </c>
       <c r="W11" s="9">
+        <f>((B11-$B$30)^2+(C11-$C$30)^2+(D11-$D$30)^2+(E11-$E$30)^2+(F11-$F$30)^2+(G11-$G$30)^2+(H11-$H$30)^2+(I11-$I$30)^2+(J11-$J$30)^2+(K11-$K$30)^2+(L11-$L$30)^2+(M11-$M$30)^2+(N11-$N$30)^2+(O11-$O$30)^2+(P11-$P$30)^2+(Q11-$Q$30)^2+(R11-$R$30)^2+(S11-$S$30)^2+(T11-$T$30)^2+(U11-$U$30)^2+(V11-$V$30)^2)^(0.5)</f>
+        <v>950.79368222767584</v>
+      </c>
+      <c r="X11" s="9">
+        <f>1-(W11/$AD$2)</f>
+        <v>-0.14742365698518145</v>
+      </c>
+      <c r="Y11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Francja</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="6">
         <f t="shared" si="0"/>
-        <v>502.19839163104285</v>
-      </c>
-      <c r="X11" s="9">
-        <f>1-(W11/$AD$3)</f>
-        <v>0.39394389568589583</v>
-      </c>
-      <c r="Y11" s="6" t="str">
-        <f>A11</f>
-        <v>Finlandia</v>
-      </c>
-      <c r="Z11" s="10">
-        <f>X11</f>
-        <v>0.39394389568589583</v>
-      </c>
-      <c r="AA11" s="6">
-        <f>X11</f>
-        <v>0.39394389568589583</v>
+        <v>-0.14742365698518145</v>
       </c>
       <c r="AB11" s="6" t="s">
         <v>165</v>
@@ -15507,112 +15521,112 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="str">
-        <f>'dane po Vs'!A12</f>
-        <v>Francja</v>
+        <f>'dane po Vs'!A13</f>
+        <v>Grecja</v>
       </c>
       <c r="B12" s="6">
-        <f>'dane po Vs'!B12</f>
-        <v>13</v>
+        <f>'dane po Vs'!B13</f>
+        <v>27</v>
       </c>
       <c r="C12" s="6">
-        <f>'dane po Vs'!C12</f>
-        <v>131.19999999999999</v>
+        <f>'dane po Vs'!C13</f>
+        <v>110.3</v>
       </c>
       <c r="D12" s="5">
-        <f>'dane po Vs'!D12</f>
-        <v>904</v>
+        <f>'dane po Vs'!D13</f>
+        <v>246</v>
       </c>
       <c r="E12" s="5">
-        <f>'dane po Vs'!E12</f>
-        <v>47.9</v>
+        <f>'dane po Vs'!E13</f>
+        <v>62.2</v>
       </c>
       <c r="F12" s="5">
-        <f>'dane po Vs'!F12</f>
-        <v>3</v>
+        <f>'dane po Vs'!F13</f>
+        <v>12.8</v>
       </c>
       <c r="G12" s="5">
-        <f>'dane po Vs'!G12</f>
-        <v>4.5</v>
+        <f>'dane po Vs'!G13</f>
+        <v>5.8</v>
       </c>
       <c r="H12" s="5">
-        <f>'dane po Vs'!H12</f>
-        <v>16.2</v>
+        <f>'dane po Vs'!H13</f>
+        <v>24.2</v>
       </c>
       <c r="I12" s="5">
-        <f>'dane po Vs'!I12</f>
-        <v>12</v>
+        <f>'dane po Vs'!I13</f>
+        <v>12.3</v>
       </c>
       <c r="J12" s="5">
-        <f>'dane po Vs'!J12</f>
+        <f>'dane po Vs'!J13</f>
         <v>2</v>
       </c>
       <c r="K12" s="5">
-        <f>'dane po Vs'!K12</f>
-        <v>520</v>
+        <f>'dane po Vs'!K13</f>
+        <v>482</v>
       </c>
       <c r="L12" s="6">
-        <f>'dane po Vs'!L12</f>
-        <v>14.1</v>
+        <f>'dane po Vs'!L13</f>
+        <v>15</v>
       </c>
       <c r="M12" s="6">
-        <f>'dane po Vs'!M12</f>
-        <v>152.19999999999999</v>
+        <f>'dane po Vs'!M13</f>
+        <v>12.8</v>
       </c>
       <c r="N12" s="6">
-        <f>'dane po Vs'!N12</f>
-        <v>3.66</v>
+        <f>'dane po Vs'!N13</f>
+        <v>7.36</v>
       </c>
       <c r="O12" s="6">
-        <f>'dane po Vs'!O12</f>
-        <v>0.14000000000000001</v>
+        <f>'dane po Vs'!O13</f>
+        <v>0.40624999999999994</v>
       </c>
       <c r="P12" s="6">
-        <f>'dane po Vs'!P12</f>
-        <v>2.0299999999999998</v>
+        <f>'dane po Vs'!P13</f>
+        <v>3.65</v>
       </c>
       <c r="Q12" s="6">
-        <f>'dane po Vs'!Q12</f>
-        <v>113</v>
+        <f>'dane po Vs'!Q13</f>
+        <v>61</v>
       </c>
       <c r="R12" s="6">
-        <f>'dane po Vs'!R12</f>
-        <v>53.73</v>
+        <f>'dane po Vs'!R13</f>
+        <v>1</v>
       </c>
       <c r="S12" s="6">
-        <f>'dane po Vs'!S12</f>
-        <v>0.28999999999999998</v>
+        <f>'dane po Vs'!S13</f>
+        <v>0.23</v>
       </c>
       <c r="T12" s="5">
-        <f>'dane po Vs'!T12</f>
-        <v>24.9</v>
+        <f>'dane po Vs'!T13</f>
+        <v>58.3</v>
       </c>
       <c r="U12" s="5">
-        <f>'dane po Vs'!U12</f>
-        <v>18.100000000000001</v>
+        <f>'dane po Vs'!U13</f>
+        <v>35.700000000000003</v>
       </c>
       <c r="V12" s="6">
-        <f>'dane po Vs'!V12</f>
-        <v>444.2</v>
+        <f>'dane po Vs'!V13</f>
+        <v>145.53229055046864</v>
       </c>
       <c r="W12" s="9">
+        <f>((B12-$B$30)^2+(C12-$C$30)^2+(D12-$D$30)^2+(E12-$E$30)^2+(F12-$F$30)^2+(G12-$G$30)^2+(H12-$H$30)^2+(I12-$I$30)^2+(J12-$J$30)^2+(K12-$K$30)^2+(L12-$L$30)^2+(M12-$M$30)^2+(N12-$N$30)^2+(O12-$O$30)^2+(P12-$P$30)^2+(Q12-$Q$30)^2+(R12-$R$30)^2+(S12-$S$30)^2+(T12-$T$30)^2+(U12-$U$30)^2+(V12-$V$30)^2)^(0.5)</f>
+        <v>528.97068819933645</v>
+      </c>
+      <c r="X12" s="9">
+        <f>1-(W12/$AD$2)</f>
+        <v>0.36163492370965244</v>
+      </c>
+      <c r="Y12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Grecja</v>
+      </c>
+      <c r="Z12" s="10">
+        <f t="shared" si="2"/>
+        <v>0.36163492370965244</v>
+      </c>
+      <c r="AA12" s="6">
         <f t="shared" si="0"/>
-        <v>950.79368222767584</v>
-      </c>
-      <c r="X12" s="9">
-        <f>1-(W12/$AD$3)</f>
-        <v>-0.14742365698518145</v>
-      </c>
-      <c r="Y12" s="6" t="str">
-        <f>A12</f>
-        <v>Francja</v>
-      </c>
-      <c r="Z12" s="10">
-        <f>X12</f>
-        <v>-0.14742365698518145</v>
-      </c>
-      <c r="AA12" s="6">
-        <f>X12</f>
-        <v>-0.14742365698518145</v>
+        <v>0.36163492370965244</v>
       </c>
       <c r="AB12" s="6" t="s">
         <v>165</v>
@@ -15626,112 +15640,112 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="str">
-        <f>'dane po Vs'!A13</f>
-        <v>Grecja</v>
+        <f>'dane po Vs'!A14</f>
+        <v>Hiszpania</v>
       </c>
       <c r="B13" s="6">
-        <f>'dane po Vs'!B13</f>
+        <f>'dane po Vs'!B14</f>
         <v>27</v>
       </c>
       <c r="C13" s="6">
-        <f>'dane po Vs'!C13</f>
-        <v>110.3</v>
+        <f>'dane po Vs'!C14</f>
+        <v>209.2</v>
       </c>
       <c r="D13" s="5">
-        <f>'dane po Vs'!D13</f>
-        <v>246</v>
+        <f>'dane po Vs'!D14</f>
+        <v>64</v>
       </c>
       <c r="E13" s="5">
-        <f>'dane po Vs'!E13</f>
-        <v>62.2</v>
+        <f>'dane po Vs'!E14</f>
+        <v>70.400000000000006</v>
       </c>
       <c r="F13" s="5">
-        <f>'dane po Vs'!F13</f>
-        <v>12.8</v>
+        <f>'dane po Vs'!F14</f>
+        <v>5.6</v>
       </c>
       <c r="G13" s="5">
-        <f>'dane po Vs'!G13</f>
-        <v>5.8</v>
+        <f>'dane po Vs'!G14</f>
+        <v>3.6</v>
       </c>
       <c r="H13" s="5">
-        <f>'dane po Vs'!H13</f>
-        <v>24.2</v>
+        <f>'dane po Vs'!H14</f>
+        <v>18.3</v>
       </c>
       <c r="I13" s="5">
-        <f>'dane po Vs'!I13</f>
-        <v>12.3</v>
+        <f>'dane po Vs'!I14</f>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J13" s="5">
-        <f>'dane po Vs'!J13</f>
-        <v>2</v>
+        <f>'dane po Vs'!J14</f>
+        <v>0</v>
       </c>
       <c r="K13" s="5">
-        <f>'dane po Vs'!K13</f>
-        <v>482</v>
+        <f>'dane po Vs'!K14</f>
+        <v>454</v>
       </c>
       <c r="L13" s="6">
-        <f>'dane po Vs'!L13</f>
-        <v>15</v>
+        <f>'dane po Vs'!L14</f>
+        <v>15.3</v>
       </c>
       <c r="M13" s="6">
-        <f>'dane po Vs'!M13</f>
-        <v>12.8</v>
+        <f>'dane po Vs'!M14</f>
+        <v>135.1</v>
       </c>
       <c r="N13" s="6">
-        <f>'dane po Vs'!N13</f>
-        <v>7.36</v>
+        <f>'dane po Vs'!N14</f>
+        <v>6.85</v>
       </c>
       <c r="O13" s="6">
-        <f>'dane po Vs'!O13</f>
-        <v>0.40624999999999994</v>
+        <f>'dane po Vs'!O14</f>
+        <v>0.25571428571428573</v>
       </c>
       <c r="P13" s="6">
-        <f>'dane po Vs'!P13</f>
-        <v>3.65</v>
+        <f>'dane po Vs'!P14</f>
+        <v>1.91</v>
       </c>
       <c r="Q13" s="6">
-        <f>'dane po Vs'!Q13</f>
-        <v>61</v>
+        <f>'dane po Vs'!Q14</f>
+        <v>120</v>
       </c>
       <c r="R13" s="6">
-        <f>'dane po Vs'!R13</f>
-        <v>1</v>
+        <f>'dane po Vs'!R14</f>
+        <v>28.65</v>
       </c>
       <c r="S13" s="6">
-        <f>'dane po Vs'!S13</f>
-        <v>0.23</v>
+        <f>'dane po Vs'!S14</f>
+        <v>0.24</v>
       </c>
       <c r="T13" s="5">
-        <f>'dane po Vs'!T13</f>
-        <v>58.3</v>
+        <f>'dane po Vs'!T14</f>
+        <v>55.5</v>
       </c>
       <c r="U13" s="5">
-        <f>'dane po Vs'!U13</f>
-        <v>35.700000000000003</v>
+        <f>'dane po Vs'!U14</f>
+        <v>27.3</v>
       </c>
       <c r="V13" s="6">
-        <f>'dane po Vs'!V13</f>
-        <v>145.53229055046864</v>
+        <f>'dane po Vs'!V14</f>
+        <v>259.75</v>
       </c>
       <c r="W13" s="9">
+        <f>((B13-$B$30)^2+(C13-$C$30)^2+(D13-$D$30)^2+(E13-$E$30)^2+(F13-$F$30)^2+(G13-$G$30)^2+(H13-$H$30)^2+(I13-$I$30)^2+(J13-$J$30)^2+(K13-$K$30)^2+(L13-$L$30)^2+(M13-$M$30)^2+(N13-$N$30)^2+(O13-$O$30)^2+(P13-$P$30)^2+(Q13-$Q$30)^2+(R13-$R$30)^2+(S13-$S$30)^2+(T13-$T$30)^2+(U13-$U$30)^2+(V13-$V$30)^2)^(0.5)</f>
+        <v>317.42341553335098</v>
+      </c>
+      <c r="X13" s="9">
+        <f>1-(W13/$AD$2)</f>
+        <v>0.6169314720196164</v>
+      </c>
+      <c r="Y13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Hiszpania</v>
+      </c>
+      <c r="Z13" s="10">
+        <f t="shared" si="2"/>
+        <v>0.6169314720196164</v>
+      </c>
+      <c r="AA13" s="6">
         <f t="shared" si="0"/>
-        <v>528.97068819933645</v>
-      </c>
-      <c r="X13" s="9">
-        <f>1-(W13/$AD$3)</f>
-        <v>0.36163492370965244</v>
-      </c>
-      <c r="Y13" s="6" t="str">
-        <f>A13</f>
-        <v>Grecja</v>
-      </c>
-      <c r="Z13" s="10">
-        <f>X13</f>
-        <v>0.36163492370965244</v>
-      </c>
-      <c r="AA13" s="6">
-        <f>X13</f>
-        <v>0.36163492370965244</v>
+        <v>0.6169314720196164</v>
       </c>
       <c r="AB13" s="6" t="s">
         <v>165</v>
@@ -15745,112 +15759,112 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="str">
-        <f>'dane po Vs'!A14</f>
-        <v>Hiszpania</v>
+        <f>'dane po Vs'!A15</f>
+        <v>Holandia</v>
       </c>
       <c r="B14" s="6">
-        <f>'dane po Vs'!B14</f>
-        <v>27</v>
+        <f>'dane po Vs'!B15</f>
+        <v>13</v>
       </c>
       <c r="C14" s="6">
-        <f>'dane po Vs'!C14</f>
-        <v>209.2</v>
+        <f>'dane po Vs'!C15</f>
+        <v>135.69999999999999</v>
       </c>
       <c r="D14" s="5">
-        <f>'dane po Vs'!D14</f>
-        <v>64</v>
+        <f>'dane po Vs'!D15</f>
+        <v>2</v>
       </c>
       <c r="E14" s="5">
-        <f>'dane po Vs'!E14</f>
-        <v>70.400000000000006</v>
+        <f>'dane po Vs'!E15</f>
+        <v>25.7</v>
       </c>
       <c r="F14" s="5">
-        <f>'dane po Vs'!F14</f>
-        <v>5.6</v>
+        <f>'dane po Vs'!F15</f>
+        <v>1.8</v>
       </c>
       <c r="G14" s="5">
-        <f>'dane po Vs'!G14</f>
-        <v>3.6</v>
+        <f>'dane po Vs'!G15</f>
+        <v>1.6</v>
       </c>
       <c r="H14" s="5">
-        <f>'dane po Vs'!H14</f>
-        <v>18.3</v>
+        <f>'dane po Vs'!H15</f>
+        <v>24.1</v>
       </c>
       <c r="I14" s="5">
-        <f>'dane po Vs'!I14</f>
-        <v>8.3000000000000007</v>
+        <f>'dane po Vs'!I15</f>
+        <v>10.1</v>
       </c>
       <c r="J14" s="5">
-        <f>'dane po Vs'!J14</f>
-        <v>0</v>
+        <f>'dane po Vs'!J15</f>
+        <v>5</v>
       </c>
       <c r="K14" s="5">
-        <f>'dane po Vs'!K14</f>
-        <v>454</v>
+        <f>'dane po Vs'!K15</f>
+        <v>526</v>
       </c>
       <c r="L14" s="6">
-        <f>'dane po Vs'!L14</f>
-        <v>15.3</v>
+        <f>'dane po Vs'!L15</f>
+        <v>4.8</v>
       </c>
       <c r="M14" s="6">
-        <f>'dane po Vs'!M14</f>
-        <v>135.1</v>
+        <f>'dane po Vs'!M15</f>
+        <v>0.4</v>
       </c>
       <c r="N14" s="6">
-        <f>'dane po Vs'!N14</f>
-        <v>6.85</v>
+        <f>'dane po Vs'!N15</f>
+        <v>2.65</v>
       </c>
       <c r="O14" s="6">
-        <f>'dane po Vs'!O14</f>
-        <v>0.25571428571428573</v>
+        <f>'dane po Vs'!O15</f>
+        <v>0.30333333333333329</v>
       </c>
       <c r="P14" s="6">
-        <f>'dane po Vs'!P14</f>
-        <v>1.91</v>
+        <f>'dane po Vs'!P15</f>
+        <v>3.3</v>
       </c>
       <c r="Q14" s="6">
-        <f>'dane po Vs'!Q14</f>
-        <v>120</v>
+        <f>'dane po Vs'!Q15</f>
+        <v>96</v>
       </c>
       <c r="R14" s="6">
-        <f>'dane po Vs'!R14</f>
-        <v>28.65</v>
+        <f>'dane po Vs'!R15</f>
+        <v>13.98</v>
       </c>
       <c r="S14" s="6">
-        <f>'dane po Vs'!S14</f>
+        <f>'dane po Vs'!S15</f>
         <v>0.24</v>
       </c>
       <c r="T14" s="5">
-        <f>'dane po Vs'!T14</f>
-        <v>55.5</v>
+        <f>'dane po Vs'!T15</f>
+        <v>13.2</v>
       </c>
       <c r="U14" s="5">
-        <f>'dane po Vs'!U14</f>
-        <v>27.3</v>
+        <f>'dane po Vs'!U15</f>
+        <v>15.9</v>
       </c>
       <c r="V14" s="6">
-        <f>'dane po Vs'!V14</f>
-        <v>259.75</v>
+        <f>'dane po Vs'!V15</f>
+        <v>130.75</v>
       </c>
       <c r="W14" s="9">
+        <f>((B14-$B$30)^2+(C14-$C$30)^2+(D14-$D$30)^2+(E14-$E$30)^2+(F14-$F$30)^2+(G14-$G$30)^2+(H14-$H$30)^2+(I14-$I$30)^2+(J14-$J$30)^2+(K14-$K$30)^2+(L14-$L$30)^2+(M14-$M$30)^2+(N14-$N$30)^2+(O14-$O$30)^2+(P14-$P$30)^2+(Q14-$Q$30)^2+(R14-$R$30)^2+(S14-$S$30)^2+(T14-$T$30)^2+(U14-$U$30)^2+(V14-$V$30)^2)^(0.5)</f>
+        <v>491.67696588665501</v>
+      </c>
+      <c r="X14" s="9">
+        <f>1-(W14/$AD$2)</f>
+        <v>0.40664121691339705</v>
+      </c>
+      <c r="Y14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Holandia</v>
+      </c>
+      <c r="Z14" s="10">
+        <f t="shared" si="2"/>
+        <v>0.40664121691339705</v>
+      </c>
+      <c r="AA14" s="6">
         <f t="shared" si="0"/>
-        <v>317.42341553335098</v>
-      </c>
-      <c r="X14" s="9">
-        <f>1-(W14/$AD$3)</f>
-        <v>0.6169314720196164</v>
-      </c>
-      <c r="Y14" s="6" t="str">
-        <f>A14</f>
-        <v>Hiszpania</v>
-      </c>
-      <c r="Z14" s="10">
-        <f>X14</f>
-        <v>0.6169314720196164</v>
-      </c>
-      <c r="AA14" s="6">
-        <f>X14</f>
-        <v>0.6169314720196164</v>
+        <v>0.40664121691339705</v>
       </c>
       <c r="AB14" s="6" t="s">
         <v>165</v>
@@ -15864,112 +15878,112 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="str">
-        <f>'dane po Vs'!A15</f>
-        <v>Holandia</v>
+        <f>'dane po Vs'!A16</f>
+        <v>Irlandia</v>
       </c>
       <c r="B15" s="6">
-        <f>'dane po Vs'!B15</f>
+        <f>'dane po Vs'!B16</f>
         <v>13</v>
       </c>
       <c r="C15" s="6">
-        <f>'dane po Vs'!C15</f>
-        <v>135.69999999999999</v>
+        <f>'dane po Vs'!C16</f>
+        <v>180.8</v>
       </c>
       <c r="D15" s="5">
-        <f>'dane po Vs'!D15</f>
+        <f>'dane po Vs'!D16</f>
+        <v>67</v>
+      </c>
+      <c r="E15" s="5">
+        <f>'dane po Vs'!E16</f>
+        <v>89.1</v>
+      </c>
+      <c r="F15" s="5">
+        <f>'dane po Vs'!F16</f>
+        <v>5.5</v>
+      </c>
+      <c r="G15" s="5">
+        <f>'dane po Vs'!G16</f>
+        <v>5.5</v>
+      </c>
+      <c r="H15" s="5">
+        <f>'dane po Vs'!H16</f>
+        <v>9.4</v>
+      </c>
+      <c r="I15" s="5">
+        <f>'dane po Vs'!I16</f>
+        <v>21.8</v>
+      </c>
+      <c r="J15" s="5">
+        <f>'dane po Vs'!J16</f>
+        <v>4</v>
+      </c>
+      <c r="K15" s="5">
+        <f>'dane po Vs'!K16</f>
+        <v>582</v>
+      </c>
+      <c r="L15" s="6">
+        <f>'dane po Vs'!L16</f>
+        <v>7.7</v>
+      </c>
+      <c r="M15" s="6">
+        <f>'dane po Vs'!M16</f>
+        <v>13.5</v>
+      </c>
+      <c r="N15" s="6">
+        <f>'dane po Vs'!N16</f>
+        <v>1.2</v>
+      </c>
+      <c r="O15" s="6">
+        <f>'dane po Vs'!O16</f>
+        <v>0.40624999999999994</v>
+      </c>
+      <c r="P15" s="6">
+        <f>'dane po Vs'!P16</f>
+        <v>2.46</v>
+      </c>
+      <c r="Q15" s="6">
+        <f>'dane po Vs'!Q16</f>
+        <v>96</v>
+      </c>
+      <c r="R15" s="6">
+        <f>'dane po Vs'!R16</f>
         <v>2</v>
       </c>
-      <c r="E15" s="5">
-        <f>'dane po Vs'!E15</f>
-        <v>25.7</v>
-      </c>
-      <c r="F15" s="5">
-        <f>'dane po Vs'!F15</f>
-        <v>1.8</v>
-      </c>
-      <c r="G15" s="5">
-        <f>'dane po Vs'!G15</f>
-        <v>1.6</v>
-      </c>
-      <c r="H15" s="5">
-        <f>'dane po Vs'!H15</f>
-        <v>24.1</v>
-      </c>
-      <c r="I15" s="5">
-        <f>'dane po Vs'!I15</f>
-        <v>10.1</v>
-      </c>
-      <c r="J15" s="5">
-        <f>'dane po Vs'!J15</f>
-        <v>5</v>
-      </c>
-      <c r="K15" s="5">
-        <f>'dane po Vs'!K15</f>
-        <v>526</v>
-      </c>
-      <c r="L15" s="6">
-        <f>'dane po Vs'!L15</f>
-        <v>4.8</v>
-      </c>
-      <c r="M15" s="6">
-        <f>'dane po Vs'!M15</f>
-        <v>0.4</v>
-      </c>
-      <c r="N15" s="6">
-        <f>'dane po Vs'!N15</f>
-        <v>2.65</v>
-      </c>
-      <c r="O15" s="6">
-        <f>'dane po Vs'!O15</f>
-        <v>0.30333333333333329</v>
-      </c>
-      <c r="P15" s="6">
-        <f>'dane po Vs'!P15</f>
-        <v>3.3</v>
-      </c>
-      <c r="Q15" s="6">
-        <f>'dane po Vs'!Q15</f>
-        <v>96</v>
-      </c>
-      <c r="R15" s="6">
-        <f>'dane po Vs'!R15</f>
-        <v>13.98</v>
-      </c>
       <c r="S15" s="6">
-        <f>'dane po Vs'!S15</f>
-        <v>0.24</v>
+        <f>'dane po Vs'!S16</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T15" s="5">
-        <f>'dane po Vs'!T15</f>
-        <v>13.2</v>
+        <f>'dane po Vs'!T16</f>
+        <v>26.7</v>
       </c>
       <c r="U15" s="5">
-        <f>'dane po Vs'!U15</f>
-        <v>15.9</v>
+        <f>'dane po Vs'!U16</f>
+        <v>29.9</v>
       </c>
       <c r="V15" s="6">
-        <f>'dane po Vs'!V15</f>
-        <v>130.75</v>
+        <f>'dane po Vs'!V16</f>
+        <v>16.2</v>
       </c>
       <c r="W15" s="9">
+        <f>((B15-$B$30)^2+(C15-$C$30)^2+(D15-$D$30)^2+(E15-$E$30)^2+(F15-$F$30)^2+(G15-$G$30)^2+(H15-$H$30)^2+(I15-$I$30)^2+(J15-$J$30)^2+(K15-$K$30)^2+(L15-$L$30)^2+(M15-$M$30)^2+(N15-$N$30)^2+(O15-$O$30)^2+(P15-$P$30)^2+(Q15-$Q$30)^2+(R15-$R$30)^2+(S15-$S$30)^2+(T15-$T$30)^2+(U15-$U$30)^2+(V15-$V$30)^2)^(0.5)</f>
+        <v>603.42398477873746</v>
+      </c>
+      <c r="X15" s="9">
+        <f>1-(W15/$AD$2)</f>
+        <v>0.27178422798817858</v>
+      </c>
+      <c r="Y15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Irlandia</v>
+      </c>
+      <c r="Z15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.27178422798817858</v>
+      </c>
+      <c r="AA15" s="6">
         <f t="shared" si="0"/>
-        <v>491.67696588665501</v>
-      </c>
-      <c r="X15" s="9">
-        <f>1-(W15/$AD$3)</f>
-        <v>0.40664121691339705</v>
-      </c>
-      <c r="Y15" s="6" t="str">
-        <f>A15</f>
-        <v>Holandia</v>
-      </c>
-      <c r="Z15" s="10">
-        <f>X15</f>
-        <v>0.40664121691339705</v>
-      </c>
-      <c r="AA15" s="6">
-        <f>X15</f>
-        <v>0.40664121691339705</v>
+        <v>0.27178422798817858</v>
       </c>
       <c r="AB15" s="6" t="s">
         <v>165</v>
@@ -15983,112 +15997,112 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="str">
-        <f>'dane po Vs'!A16</f>
-        <v>Irlandia</v>
+        <f>'dane po Vs'!A17</f>
+        <v>Litwa</v>
       </c>
       <c r="B16" s="6">
-        <f>'dane po Vs'!B16</f>
-        <v>13</v>
+        <f>'dane po Vs'!B17</f>
+        <v>12</v>
       </c>
       <c r="C16" s="6">
-        <f>'dane po Vs'!C16</f>
-        <v>180.8</v>
+        <f>'dane po Vs'!C17</f>
+        <v>109.7</v>
       </c>
       <c r="D16" s="5">
-        <f>'dane po Vs'!D16</f>
-        <v>67</v>
+        <f>'dane po Vs'!D17</f>
+        <v>116</v>
       </c>
       <c r="E16" s="5">
-        <f>'dane po Vs'!E16</f>
-        <v>89.1</v>
+        <f>'dane po Vs'!E17</f>
+        <v>78.3</v>
       </c>
       <c r="F16" s="5">
-        <f>'dane po Vs'!F16</f>
-        <v>5.5</v>
+        <f>'dane po Vs'!F17</f>
+        <v>6.4</v>
       </c>
       <c r="G16" s="5">
-        <f>'dane po Vs'!G16</f>
-        <v>5.5</v>
+        <f>'dane po Vs'!G17</f>
+        <v>8.9</v>
       </c>
       <c r="H16" s="5">
-        <f>'dane po Vs'!H16</f>
-        <v>9.4</v>
+        <f>'dane po Vs'!H17</f>
+        <v>14.1</v>
       </c>
       <c r="I16" s="5">
-        <f>'dane po Vs'!I16</f>
-        <v>21.8</v>
+        <f>'dane po Vs'!I17</f>
+        <v>15.7</v>
       </c>
       <c r="J16" s="5">
-        <f>'dane po Vs'!J16</f>
-        <v>4</v>
+        <f>'dane po Vs'!J17</f>
+        <v>2</v>
       </c>
       <c r="K16" s="5">
-        <f>'dane po Vs'!K16</f>
-        <v>582</v>
+        <f>'dane po Vs'!K17</f>
+        <v>433</v>
       </c>
       <c r="L16" s="6">
-        <f>'dane po Vs'!L16</f>
-        <v>7.7</v>
+        <f>'dane po Vs'!L17</f>
+        <v>22.7</v>
       </c>
       <c r="M16" s="6">
-        <f>'dane po Vs'!M16</f>
-        <v>13.5</v>
+        <f>'dane po Vs'!M17</f>
+        <v>11.1</v>
       </c>
       <c r="N16" s="6">
-        <f>'dane po Vs'!N16</f>
-        <v>1.2</v>
+        <f>'dane po Vs'!N17</f>
+        <v>5.74</v>
       </c>
       <c r="O16" s="6">
-        <f>'dane po Vs'!O16</f>
-        <v>0.40624999999999994</v>
+        <f>'dane po Vs'!O17</f>
+        <v>0.39874999999999999</v>
       </c>
       <c r="P16" s="6">
-        <f>'dane po Vs'!P16</f>
-        <v>2.46</v>
+        <f>'dane po Vs'!P17</f>
+        <v>1.68</v>
       </c>
       <c r="Q16" s="6">
-        <f>'dane po Vs'!Q16</f>
-        <v>96</v>
+        <f>'dane po Vs'!Q17</f>
+        <v>63</v>
       </c>
       <c r="R16" s="6">
-        <f>'dane po Vs'!R16</f>
-        <v>2</v>
+        <f>'dane po Vs'!R17</f>
+        <v>1</v>
       </c>
       <c r="S16" s="6">
-        <f>'dane po Vs'!S16</f>
-        <v>7.0000000000000007E-2</v>
+        <f>'dane po Vs'!S17</f>
+        <v>0.19</v>
       </c>
       <c r="T16" s="5">
-        <f>'dane po Vs'!T16</f>
-        <v>26.7</v>
+        <f>'dane po Vs'!T17</f>
+        <v>21.9</v>
       </c>
       <c r="U16" s="5">
-        <f>'dane po Vs'!U16</f>
-        <v>29.9</v>
+        <f>'dane po Vs'!U17</f>
+        <v>30.8</v>
       </c>
       <c r="V16" s="6">
-        <f>'dane po Vs'!V16</f>
-        <v>16.2</v>
+        <f>'dane po Vs'!V17</f>
+        <v>38.200000000000003</v>
       </c>
       <c r="W16" s="9">
+        <f>((B16-$B$30)^2+(C16-$C$30)^2+(D16-$D$30)^2+(E16-$E$30)^2+(F16-$F$30)^2+(G16-$G$30)^2+(H16-$H$30)^2+(I16-$I$30)^2+(J16-$J$30)^2+(K16-$K$30)^2+(L16-$L$30)^2+(M16-$M$30)^2+(N16-$N$30)^2+(O16-$O$30)^2+(P16-$P$30)^2+(Q16-$Q$30)^2+(R16-$R$30)^2+(S16-$S$30)^2+(T16-$T$30)^2+(U16-$U$30)^2+(V16-$V$30)^2)^(0.5)</f>
+        <v>536.30703689677614</v>
+      </c>
+      <c r="X16" s="9">
+        <f>1-(W16/$AD$2)</f>
+        <v>0.35278137303016976</v>
+      </c>
+      <c r="Y16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Litwa</v>
+      </c>
+      <c r="Z16" s="10">
+        <f t="shared" si="2"/>
+        <v>0.35278137303016976</v>
+      </c>
+      <c r="AA16" s="6">
         <f t="shared" si="0"/>
-        <v>603.42398477873746</v>
-      </c>
-      <c r="X16" s="9">
-        <f>1-(W16/$AD$3)</f>
-        <v>0.27178422798817858</v>
-      </c>
-      <c r="Y16" s="6" t="str">
-        <f>A16</f>
-        <v>Irlandia</v>
-      </c>
-      <c r="Z16" s="10">
-        <f>X16</f>
-        <v>0.27178422798817858</v>
-      </c>
-      <c r="AA16" s="6">
-        <f>X16</f>
-        <v>0.27178422798817858</v>
+        <v>0.35278137303016976</v>
       </c>
       <c r="AB16" s="6" t="s">
         <v>165</v>
@@ -16102,112 +16116,112 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="str">
-        <f>'dane po Vs'!A17</f>
-        <v>Litwa</v>
+        <f>'dane po Vs'!A18</f>
+        <v>Luksemburg</v>
       </c>
       <c r="B17" s="6">
-        <f>'dane po Vs'!B17</f>
-        <v>12</v>
+        <f>'dane po Vs'!B18</f>
+        <v>18</v>
       </c>
       <c r="C17" s="6">
-        <f>'dane po Vs'!C17</f>
-        <v>109.7</v>
+        <f>'dane po Vs'!C18</f>
+        <v>136.5</v>
       </c>
       <c r="D17" s="5">
-        <f>'dane po Vs'!D17</f>
-        <v>116</v>
+        <f>'dane po Vs'!D18</f>
+        <v>75</v>
       </c>
       <c r="E17" s="5">
-        <f>'dane po Vs'!E17</f>
-        <v>78.3</v>
+        <f>'dane po Vs'!E18</f>
+        <v>97.1</v>
       </c>
       <c r="F17" s="5">
-        <f>'dane po Vs'!F17</f>
-        <v>6.4</v>
+        <f>'dane po Vs'!F18</f>
+        <v>2.8</v>
       </c>
       <c r="G17" s="5">
-        <f>'dane po Vs'!G17</f>
-        <v>8.9</v>
+        <f>'dane po Vs'!G18</f>
+        <v>4</v>
       </c>
       <c r="H17" s="5">
-        <f>'dane po Vs'!H17</f>
-        <v>14.1</v>
+        <f>'dane po Vs'!H18</f>
+        <v>18.5</v>
       </c>
       <c r="I17" s="5">
-        <f>'dane po Vs'!I17</f>
-        <v>15.7</v>
+        <f>'dane po Vs'!I18</f>
+        <v>20.8</v>
       </c>
       <c r="J17" s="5">
-        <f>'dane po Vs'!J17</f>
-        <v>2</v>
+        <f>'dane po Vs'!J18</f>
+        <v>4</v>
       </c>
       <c r="K17" s="5">
-        <f>'dane po Vs'!K17</f>
-        <v>433</v>
+        <f>'dane po Vs'!K18</f>
+        <v>616</v>
       </c>
       <c r="L17" s="6">
-        <f>'dane po Vs'!L17</f>
-        <v>22.7</v>
+        <f>'dane po Vs'!L18</f>
+        <v>3.5</v>
       </c>
       <c r="M17" s="6">
-        <f>'dane po Vs'!M17</f>
-        <v>11.1</v>
+        <f>'dane po Vs'!M18</f>
+        <v>1.3</v>
       </c>
       <c r="N17" s="6">
-        <f>'dane po Vs'!N17</f>
-        <v>5.74</v>
+        <f>'dane po Vs'!N18</f>
+        <v>3.39</v>
       </c>
       <c r="O17" s="6">
-        <f>'dane po Vs'!O17</f>
-        <v>0.39874999999999999</v>
+        <f>'dane po Vs'!O18</f>
+        <v>0.40624999999999994</v>
       </c>
       <c r="P17" s="6">
-        <f>'dane po Vs'!P17</f>
-        <v>1.68</v>
+        <f>'dane po Vs'!P18</f>
+        <v>2.16</v>
       </c>
       <c r="Q17" s="6">
-        <f>'dane po Vs'!Q17</f>
-        <v>63</v>
+        <f>'dane po Vs'!Q18</f>
+        <v>114</v>
       </c>
       <c r="R17" s="6">
-        <f>'dane po Vs'!R17</f>
-        <v>1</v>
+        <f>'dane po Vs'!R18</f>
+        <v>3.26</v>
       </c>
       <c r="S17" s="6">
-        <f>'dane po Vs'!S17</f>
-        <v>0.19</v>
+        <f>'dane po Vs'!S18</f>
+        <v>0.38</v>
       </c>
       <c r="T17" s="5">
-        <f>'dane po Vs'!T17</f>
-        <v>21.9</v>
+        <f>'dane po Vs'!T18</f>
+        <v>16.899999999999999</v>
       </c>
       <c r="U17" s="5">
-        <f>'dane po Vs'!U17</f>
-        <v>30.8</v>
+        <f>'dane po Vs'!U18</f>
+        <v>19</v>
       </c>
       <c r="V17" s="6">
-        <f>'dane po Vs'!V17</f>
-        <v>38.200000000000003</v>
+        <f>'dane po Vs'!V18</f>
+        <v>9.64</v>
       </c>
       <c r="W17" s="9">
+        <f>((B17-$B$30)^2+(C17-$C$30)^2+(D17-$D$30)^2+(E17-$E$30)^2+(F17-$F$30)^2+(G17-$G$30)^2+(H17-$H$30)^2+(I17-$I$30)^2+(J17-$J$30)^2+(K17-$K$30)^2+(L17-$L$30)^2+(M17-$M$30)^2+(N17-$N$30)^2+(O17-$O$30)^2+(P17-$P$30)^2+(Q17-$Q$30)^2+(R17-$R$30)^2+(S17-$S$30)^2+(T17-$T$30)^2+(U17-$U$30)^2+(V17-$V$30)^2)^(0.5)</f>
+        <v>634.24146490611122</v>
+      </c>
+      <c r="X17" s="9">
+        <f>1-(W17/$AD$2)</f>
+        <v>0.23459350364094644</v>
+      </c>
+      <c r="Y17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Luksemburg</v>
+      </c>
+      <c r="Z17" s="10">
+        <f t="shared" si="2"/>
+        <v>0.23459350364094644</v>
+      </c>
+      <c r="AA17" s="6">
         <f t="shared" si="0"/>
-        <v>536.30703689677614</v>
-      </c>
-      <c r="X17" s="9">
-        <f>1-(W17/$AD$3)</f>
-        <v>0.35278137303016976</v>
-      </c>
-      <c r="Y17" s="6" t="str">
-        <f>A17</f>
-        <v>Litwa</v>
-      </c>
-      <c r="Z17" s="10">
-        <f>X17</f>
-        <v>0.35278137303016976</v>
-      </c>
-      <c r="AA17" s="6">
-        <f>X17</f>
-        <v>0.35278137303016976</v>
+        <v>0.23459350364094644</v>
       </c>
       <c r="AB17" s="6" t="s">
         <v>165</v>
@@ -16221,112 +16235,112 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="str">
-        <f>'dane po Vs'!A18</f>
-        <v>Luksemburg</v>
+        <f>'dane po Vs'!A19</f>
+        <v>Łotwa</v>
       </c>
       <c r="B18" s="6">
-        <f>'dane po Vs'!B18</f>
-        <v>18</v>
+        <f>'dane po Vs'!B19</f>
+        <v>12</v>
       </c>
       <c r="C18" s="6">
-        <f>'dane po Vs'!C18</f>
-        <v>136.5</v>
+        <f>'dane po Vs'!C19</f>
+        <v>136.80000000000001</v>
       </c>
       <c r="D18" s="5">
-        <f>'dane po Vs'!D18</f>
-        <v>75</v>
+        <f>'dane po Vs'!D19</f>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
-        <f>'dane po Vs'!E18</f>
-        <v>97.1</v>
+        <f>'dane po Vs'!E19</f>
+        <v>55.9</v>
       </c>
       <c r="F18" s="5">
-        <f>'dane po Vs'!F18</f>
-        <v>2.8</v>
+        <f>'dane po Vs'!F19</f>
+        <v>2</v>
       </c>
       <c r="G18" s="5">
-        <f>'dane po Vs'!G18</f>
-        <v>4</v>
+        <f>'dane po Vs'!G19</f>
+        <v>11.3</v>
       </c>
       <c r="H18" s="5">
-        <f>'dane po Vs'!H18</f>
-        <v>18.5</v>
+        <f>'dane po Vs'!H19</f>
+        <v>14.8</v>
       </c>
       <c r="I18" s="5">
-        <f>'dane po Vs'!I18</f>
+        <f>'dane po Vs'!I19</f>
         <v>20.8</v>
       </c>
       <c r="J18" s="5">
-        <f>'dane po Vs'!J18</f>
-        <v>4</v>
+        <f>'dane po Vs'!J19</f>
+        <v>3</v>
       </c>
       <c r="K18" s="5">
-        <f>'dane po Vs'!K18</f>
-        <v>616</v>
+        <f>'dane po Vs'!K19</f>
+        <v>350</v>
       </c>
       <c r="L18" s="6">
-        <f>'dane po Vs'!L18</f>
-        <v>3.5</v>
+        <f>'dane po Vs'!L19</f>
+        <v>37.1</v>
       </c>
       <c r="M18" s="6">
-        <f>'dane po Vs'!M18</f>
-        <v>1.3</v>
+        <f>'dane po Vs'!M19</f>
+        <v>29.2</v>
       </c>
       <c r="N18" s="6">
-        <f>'dane po Vs'!N18</f>
-        <v>3.39</v>
+        <f>'dane po Vs'!N19</f>
+        <v>9.89</v>
       </c>
       <c r="O18" s="6">
-        <f>'dane po Vs'!O18</f>
-        <v>0.40624999999999994</v>
+        <f>'dane po Vs'!O19</f>
+        <v>0.31374999999999997</v>
       </c>
       <c r="P18" s="6">
-        <f>'dane po Vs'!P18</f>
-        <v>2.16</v>
+        <f>'dane po Vs'!P19</f>
+        <v>3.36</v>
       </c>
       <c r="Q18" s="6">
-        <f>'dane po Vs'!Q18</f>
-        <v>114</v>
+        <f>'dane po Vs'!Q19</f>
+        <v>43</v>
       </c>
       <c r="R18" s="6">
-        <f>'dane po Vs'!R18</f>
-        <v>3.26</v>
+        <f>'dane po Vs'!R19</f>
+        <v>3</v>
       </c>
       <c r="S18" s="6">
-        <f>'dane po Vs'!S18</f>
-        <v>0.38</v>
+        <f>'dane po Vs'!S19</f>
+        <v>0.18</v>
       </c>
       <c r="T18" s="5">
-        <f>'dane po Vs'!T18</f>
-        <v>16.899999999999999</v>
+        <f>'dane po Vs'!T19</f>
+        <v>23.2</v>
       </c>
       <c r="U18" s="5">
-        <f>'dane po Vs'!U18</f>
-        <v>19</v>
+        <f>'dane po Vs'!U19</f>
+        <v>35.1</v>
       </c>
       <c r="V18" s="6">
-        <f>'dane po Vs'!V18</f>
-        <v>9.64</v>
+        <f>'dane po Vs'!V19</f>
+        <v>25.5</v>
       </c>
       <c r="W18" s="9">
+        <f>((B18-$B$30)^2+(C18-$C$30)^2+(D18-$D$30)^2+(E18-$E$30)^2+(F18-$F$30)^2+(G18-$G$30)^2+(H18-$H$30)^2+(I18-$I$30)^2+(J18-$J$30)^2+(K18-$K$30)^2+(L18-$L$30)^2+(M18-$M$30)^2+(N18-$N$30)^2+(O18-$O$30)^2+(P18-$P$30)^2+(Q18-$Q$30)^2+(R18-$R$30)^2+(S18-$S$30)^2+(T18-$T$30)^2+(U18-$U$30)^2+(V18-$V$30)^2)^(0.5)</f>
+        <v>500.72122333689833</v>
+      </c>
+      <c r="X18" s="9">
+        <f>1-(W18/$AD$2)</f>
+        <v>0.39572655145836444</v>
+      </c>
+      <c r="Y18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Łotwa</v>
+      </c>
+      <c r="Z18" s="10">
+        <f t="shared" si="2"/>
+        <v>0.39572655145836444</v>
+      </c>
+      <c r="AA18" s="6">
         <f t="shared" si="0"/>
-        <v>634.24146490611122</v>
-      </c>
-      <c r="X18" s="9">
-        <f>1-(W18/$AD$3)</f>
-        <v>0.23459350364094644</v>
-      </c>
-      <c r="Y18" s="6" t="str">
-        <f>A18</f>
-        <v>Luksemburg</v>
-      </c>
-      <c r="Z18" s="10">
-        <f>X18</f>
-        <v>0.23459350364094644</v>
-      </c>
-      <c r="AA18" s="6">
-        <f>X18</f>
-        <v>0.23459350364094644</v>
+        <v>0.39572655145836444</v>
       </c>
       <c r="AB18" s="6" t="s">
         <v>165</v>
@@ -16340,112 +16354,112 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="str">
-        <f>'dane po Vs'!A19</f>
-        <v>Łotwa</v>
+        <f>'dane po Vs'!A20</f>
+        <v>Malta</v>
       </c>
       <c r="B19" s="6">
-        <f>'dane po Vs'!B19</f>
-        <v>12</v>
+        <f>'dane po Vs'!B20</f>
+        <v>13</v>
       </c>
       <c r="C19" s="6">
-        <f>'dane po Vs'!C19</f>
-        <v>136.80000000000001</v>
+        <f>'dane po Vs'!C20</f>
+        <v>126.3</v>
       </c>
       <c r="D19" s="5">
-        <f>'dane po Vs'!D19</f>
-        <v>1</v>
+        <f>'dane po Vs'!D20</f>
+        <v>231.76190476190473</v>
       </c>
       <c r="E19" s="5">
-        <f>'dane po Vs'!E19</f>
-        <v>55.9</v>
+        <f>'dane po Vs'!E20</f>
+        <v>104.1</v>
       </c>
       <c r="F19" s="5">
-        <f>'dane po Vs'!F19</f>
-        <v>2</v>
+        <f>'dane po Vs'!F20</f>
+        <v>11.8</v>
       </c>
       <c r="G19" s="5">
-        <f>'dane po Vs'!G19</f>
-        <v>11.3</v>
+        <f>'dane po Vs'!G20</f>
+        <v>3</v>
       </c>
       <c r="H19" s="5">
-        <f>'dane po Vs'!H19</f>
-        <v>14.8</v>
+        <f>'dane po Vs'!H20</f>
+        <v>31.2</v>
       </c>
       <c r="I19" s="5">
-        <f>'dane po Vs'!I19</f>
-        <v>20.8</v>
+        <f>'dane po Vs'!I20</f>
+        <v>9</v>
       </c>
       <c r="J19" s="5">
-        <f>'dane po Vs'!J19</f>
-        <v>3</v>
+        <f>'dane po Vs'!J20</f>
+        <v>30</v>
       </c>
       <c r="K19" s="5">
-        <f>'dane po Vs'!K19</f>
-        <v>350</v>
+        <f>'dane po Vs'!K20</f>
+        <v>579</v>
       </c>
       <c r="L19" s="6">
-        <f>'dane po Vs'!L19</f>
-        <v>37.1</v>
+        <f>'dane po Vs'!L20</f>
+        <v>3.7</v>
       </c>
       <c r="M19" s="6">
-        <f>'dane po Vs'!M19</f>
-        <v>29.2</v>
+        <f>'dane po Vs'!M20</f>
+        <v>0.1</v>
       </c>
       <c r="N19" s="6">
-        <f>'dane po Vs'!N19</f>
-        <v>9.89</v>
+        <f>'dane po Vs'!N20</f>
+        <v>0.06</v>
       </c>
       <c r="O19" s="6">
-        <f>'dane po Vs'!O19</f>
-        <v>0.31374999999999997</v>
+        <f>'dane po Vs'!O20</f>
+        <v>0.40624999999999994</v>
       </c>
       <c r="P19" s="6">
-        <f>'dane po Vs'!P19</f>
-        <v>3.36</v>
+        <f>'dane po Vs'!P20</f>
+        <v>2.69</v>
       </c>
       <c r="Q19" s="6">
-        <f>'dane po Vs'!Q19</f>
-        <v>43</v>
+        <f>'dane po Vs'!Q20</f>
+        <v>68</v>
       </c>
       <c r="R19" s="6">
-        <f>'dane po Vs'!R19</f>
-        <v>3</v>
+        <f>'dane po Vs'!R20</f>
+        <v>0</v>
       </c>
       <c r="S19" s="6">
-        <f>'dane po Vs'!S19</f>
-        <v>0.18</v>
+        <f>'dane po Vs'!S20</f>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T19" s="5">
-        <f>'dane po Vs'!T19</f>
-        <v>23.2</v>
+        <f>'dane po Vs'!T20</f>
+        <v>13.7</v>
       </c>
       <c r="U19" s="5">
-        <f>'dane po Vs'!U19</f>
-        <v>35.1</v>
+        <f>'dane po Vs'!U20</f>
+        <v>24</v>
       </c>
       <c r="V19" s="6">
-        <f>'dane po Vs'!V19</f>
-        <v>25.5</v>
+        <f>'dane po Vs'!V20</f>
+        <v>143.91419305977459</v>
       </c>
       <c r="W19" s="9">
+        <f>((B19-$B$30)^2+(C19-$C$30)^2+(D19-$D$30)^2+(E19-$E$30)^2+(F19-$F$30)^2+(G19-$G$30)^2+(H19-$H$30)^2+(I19-$I$30)^2+(J19-$J$30)^2+(K19-$K$30)^2+(L19-$L$30)^2+(M19-$M$30)^2+(N19-$N$30)^2+(O19-$O$30)^2+(P19-$P$30)^2+(Q19-$Q$30)^2+(R19-$R$30)^2+(S19-$S$30)^2+(T19-$T$30)^2+(U19-$U$30)^2+(V19-$V$30)^2)^(0.5)</f>
+        <v>579.80109300936863</v>
+      </c>
+      <c r="X19" s="9">
+        <f>1-(W19/$AD$2)</f>
+        <v>0.3002924789044733</v>
+      </c>
+      <c r="Y19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Malta</v>
+      </c>
+      <c r="Z19" s="10">
+        <f t="shared" si="2"/>
+        <v>0.3002924789044733</v>
+      </c>
+      <c r="AA19" s="6">
         <f t="shared" si="0"/>
-        <v>500.72122333689833</v>
-      </c>
-      <c r="X19" s="9">
-        <f>1-(W19/$AD$3)</f>
-        <v>0.39572655145836444</v>
-      </c>
-      <c r="Y19" s="6" t="str">
-        <f>A19</f>
-        <v>Łotwa</v>
-      </c>
-      <c r="Z19" s="10">
-        <f>X19</f>
-        <v>0.39572655145836444</v>
-      </c>
-      <c r="AA19" s="6">
-        <f>X19</f>
-        <v>0.39572655145836444</v>
+        <v>0.3002924789044733</v>
       </c>
       <c r="AB19" s="6" t="s">
         <v>165</v>
@@ -16459,112 +16473,112 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="str">
-        <f>'dane po Vs'!A20</f>
-        <v>Malta</v>
+        <f>'dane po Vs'!A21</f>
+        <v>Niemcy</v>
       </c>
       <c r="B20" s="6">
-        <f>'dane po Vs'!B20</f>
-        <v>13</v>
+        <f>'dane po Vs'!B21</f>
+        <v>15</v>
       </c>
       <c r="C20" s="6">
-        <f>'dane po Vs'!C20</f>
-        <v>126.3</v>
+        <f>'dane po Vs'!C21</f>
+        <v>126.9</v>
       </c>
       <c r="D20" s="5">
-        <f>'dane po Vs'!D20</f>
-        <v>231.76190476190473</v>
+        <f>'dane po Vs'!D21</f>
+        <v>668</v>
       </c>
       <c r="E20" s="5">
-        <f>'dane po Vs'!E20</f>
-        <v>104.1</v>
+        <f>'dane po Vs'!E21</f>
+        <v>62.7</v>
       </c>
       <c r="F20" s="5">
-        <f>'dane po Vs'!F20</f>
-        <v>11.8</v>
+        <f>'dane po Vs'!F21</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G20" s="5">
-        <f>'dane po Vs'!G20</f>
-        <v>3</v>
+        <f>'dane po Vs'!G21</f>
+        <v>2.8</v>
       </c>
       <c r="H20" s="5">
-        <f>'dane po Vs'!H20</f>
-        <v>31.2</v>
+        <f>'dane po Vs'!H21</f>
+        <v>26.1</v>
       </c>
       <c r="I20" s="5">
-        <f>'dane po Vs'!I20</f>
-        <v>9</v>
+        <f>'dane po Vs'!I21</f>
+        <v>16.3</v>
       </c>
       <c r="J20" s="5">
-        <f>'dane po Vs'!J20</f>
-        <v>30</v>
+        <f>'dane po Vs'!J21</f>
+        <v>-1</v>
       </c>
       <c r="K20" s="5">
-        <f>'dane po Vs'!K20</f>
-        <v>579</v>
+        <f>'dane po Vs'!K21</f>
+        <v>615</v>
       </c>
       <c r="L20" s="6">
-        <f>'dane po Vs'!L20</f>
-        <v>3.7</v>
+        <f>'dane po Vs'!L21</f>
+        <v>12.4</v>
       </c>
       <c r="M20" s="6">
-        <f>'dane po Vs'!M20</f>
-        <v>0.1</v>
+        <f>'dane po Vs'!M21</f>
+        <v>29.1</v>
       </c>
       <c r="N20" s="6">
-        <f>'dane po Vs'!N20</f>
-        <v>0.06</v>
+        <f>'dane po Vs'!N21</f>
+        <v>6.04</v>
       </c>
       <c r="O20" s="6">
-        <f>'dane po Vs'!O20</f>
-        <v>0.40624999999999994</v>
+        <f>'dane po Vs'!O21</f>
+        <v>0.47799999999999992</v>
       </c>
       <c r="P20" s="6">
-        <f>'dane po Vs'!P20</f>
-        <v>2.69</v>
+        <f>'dane po Vs'!P21</f>
+        <v>2.0499999999999998</v>
       </c>
       <c r="Q20" s="6">
-        <f>'dane po Vs'!Q20</f>
-        <v>68</v>
+        <f>'dane po Vs'!Q21</f>
+        <v>138</v>
       </c>
       <c r="R20" s="6">
-        <f>'dane po Vs'!R20</f>
-        <v>0</v>
+        <f>'dane po Vs'!R21</f>
+        <v>92.65</v>
       </c>
       <c r="S20" s="6">
-        <f>'dane po Vs'!S20</f>
-        <v>7.0000000000000007E-2</v>
+        <f>'dane po Vs'!S21</f>
+        <v>0.42</v>
       </c>
       <c r="T20" s="5">
-        <f>'dane po Vs'!T20</f>
-        <v>13.7</v>
+        <f>'dane po Vs'!T21</f>
+        <v>7.8</v>
       </c>
       <c r="U20" s="5">
-        <f>'dane po Vs'!U20</f>
-        <v>24</v>
+        <f>'dane po Vs'!U21</f>
+        <v>20.3</v>
       </c>
       <c r="V20" s="6">
-        <f>'dane po Vs'!V20</f>
-        <v>143.91419305977459</v>
+        <f>'dane po Vs'!V21</f>
+        <v>410.24285714285713</v>
       </c>
       <c r="W20" s="9">
+        <f>((B20-$B$30)^2+(C20-$C$30)^2+(D20-$D$30)^2+(E20-$E$30)^2+(F20-$F$30)^2+(G20-$G$30)^2+(H20-$H$30)^2+(I20-$I$30)^2+(J20-$J$30)^2+(K20-$K$30)^2+(L20-$L$30)^2+(M20-$M$30)^2+(N20-$N$30)^2+(O20-$O$30)^2+(P20-$P$30)^2+(Q20-$Q$30)^2+(R20-$R$30)^2+(S20-$S$30)^2+(T20-$T$30)^2+(U20-$U$30)^2+(V20-$V$30)^2)^(0.5)</f>
+        <v>793.11370552026335</v>
+      </c>
+      <c r="X20" s="9">
+        <f>1-(W20/$AD$2)</f>
+        <v>4.2865507624174071E-2</v>
+      </c>
+      <c r="Y20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Niemcy</v>
+      </c>
+      <c r="Z20" s="10">
+        <f t="shared" si="2"/>
+        <v>4.2865507624174071E-2</v>
+      </c>
+      <c r="AA20" s="6">
         <f t="shared" si="0"/>
-        <v>579.80109300936863</v>
-      </c>
-      <c r="X20" s="9">
-        <f>1-(W20/$AD$3)</f>
-        <v>0.3002924789044733</v>
-      </c>
-      <c r="Y20" s="6" t="str">
-        <f>A20</f>
-        <v>Malta</v>
-      </c>
-      <c r="Z20" s="10">
-        <f>X20</f>
-        <v>0.3002924789044733</v>
-      </c>
-      <c r="AA20" s="6">
-        <f>X20</f>
-        <v>0.3002924789044733</v>
+        <v>4.2865507624174071E-2</v>
       </c>
       <c r="AB20" s="6" t="s">
         <v>165</v>
@@ -16578,112 +16592,112 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="str">
-        <f>'dane po Vs'!A21</f>
-        <v>Niemcy</v>
+        <f>'dane po Vs'!A22</f>
+        <v>Polska</v>
       </c>
       <c r="B21" s="6">
-        <f>'dane po Vs'!B21</f>
-        <v>15</v>
+        <f>'dane po Vs'!B22</f>
+        <v>20</v>
       </c>
       <c r="C21" s="6">
-        <f>'dane po Vs'!C21</f>
-        <v>126.9</v>
+        <f>'dane po Vs'!C22</f>
+        <v>130.5</v>
       </c>
       <c r="D21" s="5">
-        <f>'dane po Vs'!D21</f>
-        <v>668</v>
+        <f>'dane po Vs'!D22</f>
+        <v>231.76190476190473</v>
       </c>
       <c r="E21" s="5">
-        <f>'dane po Vs'!E21</f>
-        <v>62.7</v>
+        <f>'dane po Vs'!E22</f>
+        <v>25.6</v>
       </c>
       <c r="F21" s="5">
-        <f>'dane po Vs'!F21</f>
-        <v>4.5999999999999996</v>
+        <f>'dane po Vs'!F22</f>
+        <v>20</v>
       </c>
       <c r="G21" s="5">
-        <f>'dane po Vs'!G21</f>
-        <v>2.8</v>
+        <f>'dane po Vs'!G22</f>
+        <v>6.2</v>
       </c>
       <c r="H21" s="5">
-        <f>'dane po Vs'!H21</f>
-        <v>26.1</v>
+        <f>'dane po Vs'!H22</f>
+        <v>14</v>
       </c>
       <c r="I21" s="5">
-        <f>'dane po Vs'!I21</f>
-        <v>16.3</v>
+        <f>'dane po Vs'!I22</f>
+        <v>17.3</v>
       </c>
       <c r="J21" s="5">
-        <f>'dane po Vs'!J21</f>
-        <v>-1</v>
+        <f>'dane po Vs'!J22</f>
+        <v>4</v>
       </c>
       <c r="K21" s="5">
-        <f>'dane po Vs'!K21</f>
-        <v>615</v>
+        <f>'dane po Vs'!K22</f>
+        <v>297</v>
       </c>
       <c r="L21" s="6">
-        <f>'dane po Vs'!L21</f>
-        <v>12.4</v>
+        <f>'dane po Vs'!L22</f>
+        <v>11.4</v>
       </c>
       <c r="M21" s="6">
-        <f>'dane po Vs'!M21</f>
-        <v>29.1</v>
+        <f>'dane po Vs'!M22</f>
+        <v>59.4</v>
       </c>
       <c r="N21" s="6">
-        <f>'dane po Vs'!N21</f>
-        <v>6.04</v>
+        <f>'dane po Vs'!N22</f>
+        <v>4.6500000000000004</v>
       </c>
       <c r="O21" s="6">
-        <f>'dane po Vs'!O21</f>
-        <v>0.47799999999999992</v>
+        <f>'dane po Vs'!O22</f>
+        <v>0.80625000000000002</v>
       </c>
       <c r="P21" s="6">
-        <f>'dane po Vs'!P21</f>
-        <v>2.0499999999999998</v>
+        <f>'dane po Vs'!P22</f>
+        <v>2.41</v>
       </c>
       <c r="Q21" s="6">
-        <f>'dane po Vs'!Q21</f>
-        <v>138</v>
+        <f>'dane po Vs'!Q22</f>
+        <v>30</v>
       </c>
       <c r="R21" s="6">
-        <f>'dane po Vs'!R21</f>
-        <v>92.65</v>
+        <f>'dane po Vs'!R22</f>
+        <v>34.5</v>
       </c>
       <c r="S21" s="6">
-        <f>'dane po Vs'!S21</f>
-        <v>0.42</v>
+        <f>'dane po Vs'!S22</f>
+        <v>0.23</v>
       </c>
       <c r="T21" s="5">
-        <f>'dane po Vs'!T21</f>
-        <v>7.8</v>
+        <f>'dane po Vs'!T22</f>
+        <v>27.3</v>
       </c>
       <c r="U21" s="5">
-        <f>'dane po Vs'!U21</f>
-        <v>20.3</v>
+        <f>'dane po Vs'!U22</f>
+        <v>25.8</v>
       </c>
       <c r="V21" s="6">
-        <f>'dane po Vs'!V21</f>
-        <v>410.24285714285713</v>
+        <f>'dane po Vs'!V22</f>
+        <v>442.83333333333331</v>
       </c>
       <c r="W21" s="9">
+        <f>((B21-$B$30)^2+(C21-$C$30)^2+(D21-$D$30)^2+(E21-$E$30)^2+(F21-$F$30)^2+(G21-$G$30)^2+(H21-$H$30)^2+(I21-$I$30)^2+(J21-$J$30)^2+(K21-$K$30)^2+(L21-$L$30)^2+(M21-$M$30)^2+(N21-$N$30)^2+(O21-$O$30)^2+(P21-$P$30)^2+(Q21-$Q$30)^2+(R21-$R$30)^2+(S21-$S$30)^2+(T21-$T$30)^2+(U21-$U$30)^2+(V21-$V$30)^2)^(0.5)</f>
+        <v>329.72733930157199</v>
+      </c>
+      <c r="X21" s="9">
+        <f>1-(W21/$AD$2)</f>
+        <v>0.60208302122604196</v>
+      </c>
+      <c r="Y21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Polska</v>
+      </c>
+      <c r="Z21" s="10">
+        <f t="shared" si="2"/>
+        <v>0.60208302122604196</v>
+      </c>
+      <c r="AA21" s="6">
         <f t="shared" si="0"/>
-        <v>793.11370552026335</v>
-      </c>
-      <c r="X21" s="9">
-        <f>1-(W21/$AD$3)</f>
-        <v>4.2865507624174071E-2</v>
-      </c>
-      <c r="Y21" s="6" t="str">
-        <f>A21</f>
-        <v>Niemcy</v>
-      </c>
-      <c r="Z21" s="10">
-        <f>X21</f>
-        <v>4.2865507624174071E-2</v>
-      </c>
-      <c r="AA21" s="6">
-        <f>X21</f>
-        <v>4.2865507624174071E-2</v>
+        <v>0.60208302122604196</v>
       </c>
       <c r="AB21" s="6" t="s">
         <v>165</v>
@@ -16697,112 +16711,112 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="str">
-        <f>'dane po Vs'!A22</f>
-        <v>Polska</v>
+        <f>'dane po Vs'!A23</f>
+        <v>Portugalia</v>
       </c>
       <c r="B22" s="6">
-        <f>'dane po Vs'!B22</f>
-        <v>20</v>
+        <f>'dane po Vs'!B23</f>
+        <v>21</v>
       </c>
       <c r="C22" s="6">
-        <f>'dane po Vs'!C22</f>
-        <v>130.5</v>
+        <f>'dane po Vs'!C23</f>
+        <v>137.9</v>
       </c>
       <c r="D22" s="5">
-        <f>'dane po Vs'!D22</f>
-        <v>231.76190476190473</v>
+        <f>'dane po Vs'!D23</f>
+        <v>195</v>
       </c>
       <c r="E22" s="5">
-        <f>'dane po Vs'!E22</f>
-        <v>25.6</v>
+        <f>'dane po Vs'!E23</f>
+        <v>72.400000000000006</v>
       </c>
       <c r="F22" s="5">
-        <f>'dane po Vs'!F22</f>
-        <v>20</v>
+        <f>'dane po Vs'!F23</f>
+        <v>5.2</v>
       </c>
       <c r="G22" s="5">
-        <f>'dane po Vs'!G22</f>
-        <v>6.2</v>
+        <f>'dane po Vs'!G23</f>
+        <v>5.7</v>
       </c>
       <c r="H22" s="5">
-        <f>'dane po Vs'!H22</f>
+        <f>'dane po Vs'!H23</f>
+        <v>22.7</v>
+      </c>
+      <c r="I22" s="5">
+        <f>'dane po Vs'!I23</f>
         <v>14</v>
       </c>
-      <c r="I22" s="5">
-        <f>'dane po Vs'!I22</f>
-        <v>17.3</v>
-      </c>
       <c r="J22" s="5">
-        <f>'dane po Vs'!J22</f>
+        <f>'dane po Vs'!J23</f>
         <v>4</v>
       </c>
       <c r="K22" s="5">
-        <f>'dane po Vs'!K22</f>
-        <v>297</v>
+        <f>'dane po Vs'!K23</f>
+        <v>440</v>
       </c>
       <c r="L22" s="6">
-        <f>'dane po Vs'!L22</f>
-        <v>11.4</v>
+        <f>'dane po Vs'!L23</f>
+        <v>25.7</v>
       </c>
       <c r="M22" s="6">
-        <f>'dane po Vs'!M22</f>
-        <v>59.4</v>
+        <f>'dane po Vs'!M23</f>
+        <v>78</v>
       </c>
       <c r="N22" s="6">
-        <f>'dane po Vs'!N22</f>
-        <v>4.6500000000000004</v>
+        <f>'dane po Vs'!N23</f>
+        <v>5.31</v>
       </c>
       <c r="O22" s="6">
-        <f>'dane po Vs'!O22</f>
-        <v>0.80625000000000002</v>
+        <f>'dane po Vs'!O23</f>
+        <v>0.2475</v>
       </c>
       <c r="P22" s="6">
-        <f>'dane po Vs'!P22</f>
-        <v>2.41</v>
+        <f>'dane po Vs'!P23</f>
+        <v>2.21</v>
       </c>
       <c r="Q22" s="6">
-        <f>'dane po Vs'!Q22</f>
-        <v>30</v>
+        <f>'dane po Vs'!Q23</f>
+        <v>81</v>
       </c>
       <c r="R22" s="6">
-        <f>'dane po Vs'!R22</f>
-        <v>34.5</v>
+        <f>'dane po Vs'!R23</f>
+        <v>1</v>
       </c>
       <c r="S22" s="6">
-        <f>'dane po Vs'!S22</f>
-        <v>0.23</v>
+        <f>'dane po Vs'!S23</f>
+        <v>0.09</v>
       </c>
       <c r="T22" s="5">
-        <f>'dane po Vs'!T22</f>
-        <v>27.3</v>
+        <f>'dane po Vs'!T23</f>
+        <v>38.1</v>
       </c>
       <c r="U22" s="5">
-        <f>'dane po Vs'!U22</f>
-        <v>25.8</v>
+        <f>'dane po Vs'!U23</f>
+        <v>27.5</v>
       </c>
       <c r="V22" s="6">
-        <f>'dane po Vs'!V22</f>
-        <v>442.83333333333331</v>
+        <f>'dane po Vs'!V23</f>
+        <v>95.699999999999989</v>
       </c>
       <c r="W22" s="9">
+        <f>((B22-$B$30)^2+(C22-$C$30)^2+(D22-$D$30)^2+(E22-$E$30)^2+(F22-$F$30)^2+(G22-$G$30)^2+(H22-$H$30)^2+(I22-$I$30)^2+(J22-$J$30)^2+(K22-$K$30)^2+(L22-$L$30)^2+(M22-$M$30)^2+(N22-$N$30)^2+(O22-$O$30)^2+(P22-$P$30)^2+(Q22-$Q$30)^2+(R22-$R$30)^2+(S22-$S$30)^2+(T22-$T$30)^2+(U22-$U$30)^2+(V22-$V$30)^2)^(0.5)</f>
+        <v>489.35508499867711</v>
+      </c>
+      <c r="X22" s="9">
+        <f>1-(W22/$AD$2)</f>
+        <v>0.40944327703365946</v>
+      </c>
+      <c r="Y22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Portugalia</v>
+      </c>
+      <c r="Z22" s="10">
+        <f t="shared" si="2"/>
+        <v>0.40944327703365946</v>
+      </c>
+      <c r="AA22" s="6">
         <f t="shared" si="0"/>
-        <v>329.72733930157199</v>
-      </c>
-      <c r="X22" s="9">
-        <f>1-(W22/$AD$3)</f>
-        <v>0.60208302122604196</v>
-      </c>
-      <c r="Y22" s="6" t="str">
-        <f>A22</f>
-        <v>Polska</v>
-      </c>
-      <c r="Z22" s="10">
-        <f>X22</f>
-        <v>0.60208302122604196</v>
-      </c>
-      <c r="AA22" s="6">
-        <f>X22</f>
-        <v>0.60208302122604196</v>
+        <v>0.40944327703365946</v>
       </c>
       <c r="AB22" s="6" t="s">
         <v>165</v>
@@ -16816,112 +16830,112 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="str">
-        <f>'dane po Vs'!A23</f>
-        <v>Portugalia</v>
+        <f>'dane po Vs'!A24</f>
+        <v>Rumunia</v>
       </c>
       <c r="B23" s="6">
-        <f>'dane po Vs'!B23</f>
-        <v>21</v>
+        <f>'dane po Vs'!B24</f>
+        <v>23</v>
       </c>
       <c r="C23" s="6">
-        <f>'dane po Vs'!C23</f>
-        <v>137.9</v>
+        <f>'dane po Vs'!C24</f>
+        <v>63.4</v>
       </c>
       <c r="D23" s="5">
-        <f>'dane po Vs'!D23</f>
+        <f>'dane po Vs'!D24</f>
         <v>195</v>
       </c>
       <c r="E23" s="5">
-        <f>'dane po Vs'!E23</f>
-        <v>72.400000000000006</v>
+        <f>'dane po Vs'!E24</f>
+        <v>18.5</v>
       </c>
       <c r="F23" s="5">
-        <f>'dane po Vs'!F23</f>
-        <v>5.2</v>
+        <f>'dane po Vs'!F24</f>
+        <v>10.1</v>
       </c>
       <c r="G23" s="5">
-        <f>'dane po Vs'!G23</f>
-        <v>5.7</v>
+        <f>'dane po Vs'!G24</f>
+        <v>7.6</v>
       </c>
       <c r="H23" s="5">
-        <f>'dane po Vs'!H23</f>
-        <v>22.7</v>
+        <f>'dane po Vs'!H24</f>
+        <v>26.4</v>
       </c>
       <c r="I23" s="5">
-        <f>'dane po Vs'!I23</f>
-        <v>14</v>
+        <f>'dane po Vs'!I24</f>
+        <v>22.1</v>
       </c>
       <c r="J23" s="5">
-        <f>'dane po Vs'!J23</f>
-        <v>4</v>
+        <f>'dane po Vs'!J24</f>
+        <v>-2</v>
       </c>
       <c r="K23" s="5">
-        <f>'dane po Vs'!K23</f>
-        <v>440</v>
+        <f>'dane po Vs'!K24</f>
+        <v>254</v>
       </c>
       <c r="L23" s="6">
-        <f>'dane po Vs'!L23</f>
-        <v>25.7</v>
+        <f>'dane po Vs'!L24</f>
+        <v>23.9</v>
       </c>
       <c r="M23" s="6">
-        <f>'dane po Vs'!M23</f>
-        <v>78</v>
+        <f>'dane po Vs'!M24</f>
+        <v>27.9</v>
       </c>
       <c r="N23" s="6">
-        <f>'dane po Vs'!N23</f>
-        <v>5.31</v>
+        <f>'dane po Vs'!N24</f>
+        <v>2.06</v>
       </c>
       <c r="O23" s="6">
-        <f>'dane po Vs'!O23</f>
-        <v>0.2475</v>
+        <f>'dane po Vs'!O24</f>
+        <v>0.83750000000000002</v>
       </c>
       <c r="P23" s="6">
-        <f>'dane po Vs'!P23</f>
-        <v>2.21</v>
+        <f>'dane po Vs'!P24</f>
+        <v>2</v>
       </c>
       <c r="Q23" s="6">
-        <f>'dane po Vs'!Q23</f>
-        <v>81</v>
+        <f>'dane po Vs'!Q24</f>
+        <v>55</v>
       </c>
       <c r="R23" s="6">
-        <f>'dane po Vs'!R23</f>
-        <v>1</v>
+        <f>'dane po Vs'!R24</f>
+        <v>2</v>
       </c>
       <c r="S23" s="6">
-        <f>'dane po Vs'!S23</f>
-        <v>0.09</v>
+        <f>'dane po Vs'!S24</f>
+        <v>0.19</v>
       </c>
       <c r="T23" s="5">
-        <f>'dane po Vs'!T23</f>
-        <v>38.1</v>
+        <f>'dane po Vs'!T24</f>
+        <v>23.7</v>
       </c>
       <c r="U23" s="5">
-        <f>'dane po Vs'!U23</f>
-        <v>27.5</v>
+        <f>'dane po Vs'!U24</f>
+        <v>41.9</v>
       </c>
       <c r="V23" s="6">
-        <f>'dane po Vs'!V23</f>
-        <v>95.699999999999989</v>
+        <f>'dane po Vs'!V24</f>
+        <v>183.1</v>
       </c>
       <c r="W23" s="9">
+        <f>((B23-$B$30)^2+(C23-$C$30)^2+(D23-$D$30)^2+(E23-$E$30)^2+(F23-$F$30)^2+(G23-$G$30)^2+(H23-$H$30)^2+(I23-$I$30)^2+(J23-$J$30)^2+(K23-$K$30)^2+(L23-$L$30)^2+(M23-$M$30)^2+(N23-$N$30)^2+(O23-$O$30)^2+(P23-$P$30)^2+(Q23-$Q$30)^2+(R23-$R$30)^2+(S23-$S$30)^2+(T23-$T$30)^2+(U23-$U$30)^2+(V23-$V$30)^2)^(0.5)</f>
+        <v>428.18270952837702</v>
+      </c>
+      <c r="X23" s="9">
+        <f>1-(W23/$AD$2)</f>
+        <v>0.48326647556832814</v>
+      </c>
+      <c r="Y23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Rumunia</v>
+      </c>
+      <c r="Z23" s="10">
+        <f t="shared" si="2"/>
+        <v>0.48326647556832814</v>
+      </c>
+      <c r="AA23" s="6">
         <f t="shared" si="0"/>
-        <v>489.35508499867711</v>
-      </c>
-      <c r="X23" s="9">
-        <f>1-(W23/$AD$3)</f>
-        <v>0.40944327703365946</v>
-      </c>
-      <c r="Y23" s="6" t="str">
-        <f>A23</f>
-        <v>Portugalia</v>
-      </c>
-      <c r="Z23" s="10">
-        <f>X23</f>
-        <v>0.40944327703365946</v>
-      </c>
-      <c r="AA23" s="6">
-        <f>X23</f>
-        <v>0.40944327703365946</v>
+        <v>0.48326647556832814</v>
       </c>
       <c r="AB23" s="6" t="s">
         <v>165</v>
@@ -16935,112 +16949,112 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="str">
-        <f>'dane po Vs'!A24</f>
-        <v>Rumunia</v>
+        <f>'dane po Vs'!A25</f>
+        <v>Słowacja</v>
       </c>
       <c r="B24" s="6">
-        <f>'dane po Vs'!B24</f>
-        <v>23</v>
+        <f>'dane po Vs'!B25</f>
+        <v>30</v>
       </c>
       <c r="C24" s="6">
-        <f>'dane po Vs'!C24</f>
-        <v>63.4</v>
+        <f>'dane po Vs'!C25</f>
+        <v>150.9</v>
       </c>
       <c r="D24" s="5">
-        <f>'dane po Vs'!D24</f>
-        <v>195</v>
+        <f>'dane po Vs'!D25</f>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
-        <f>'dane po Vs'!E24</f>
-        <v>18.5</v>
+        <f>'dane po Vs'!E25</f>
+        <v>59.2</v>
       </c>
       <c r="F24" s="5">
-        <f>'dane po Vs'!F24</f>
+        <f>'dane po Vs'!F25</f>
+        <v>10.5</v>
+      </c>
+      <c r="G24" s="5">
+        <f>'dane po Vs'!G25</f>
+        <v>6.8</v>
+      </c>
+      <c r="H24" s="5">
+        <f>'dane po Vs'!H25</f>
+        <v>15.1</v>
+      </c>
+      <c r="I24" s="5">
+        <f>'dane po Vs'!I25</f>
+        <v>11.4</v>
+      </c>
+      <c r="J24" s="5">
+        <f>'dane po Vs'!J25</f>
+        <v>-4</v>
+      </c>
+      <c r="K24" s="5">
+        <f>'dane po Vs'!K25</f>
+        <v>304</v>
+      </c>
+      <c r="L24" s="6">
+        <f>'dane po Vs'!L25</f>
         <v>10.1</v>
       </c>
-      <c r="G24" s="5">
-        <f>'dane po Vs'!G24</f>
-        <v>7.6</v>
-      </c>
-      <c r="H24" s="5">
-        <f>'dane po Vs'!H24</f>
-        <v>26.4</v>
-      </c>
-      <c r="I24" s="5">
-        <f>'dane po Vs'!I24</f>
-        <v>22.1</v>
-      </c>
-      <c r="J24" s="5">
-        <f>'dane po Vs'!J24</f>
-        <v>-2</v>
-      </c>
-      <c r="K24" s="5">
-        <f>'dane po Vs'!K24</f>
-        <v>254</v>
-      </c>
-      <c r="L24" s="6">
-        <f>'dane po Vs'!L24</f>
-        <v>23.9</v>
-      </c>
       <c r="M24" s="6">
-        <f>'dane po Vs'!M24</f>
-        <v>27.9</v>
+        <f>'dane po Vs'!M25</f>
+        <v>38.1</v>
       </c>
       <c r="N24" s="6">
-        <f>'dane po Vs'!N24</f>
-        <v>2.06</v>
+        <f>'dane po Vs'!N25</f>
+        <v>8.18</v>
       </c>
       <c r="O24" s="6">
-        <f>'dane po Vs'!O24</f>
-        <v>0.83750000000000002</v>
+        <f>'dane po Vs'!O25</f>
+        <v>0.68714285714285706</v>
       </c>
       <c r="P24" s="6">
-        <f>'dane po Vs'!P24</f>
-        <v>2</v>
+        <f>'dane po Vs'!P25</f>
+        <v>1.72</v>
       </c>
       <c r="Q24" s="6">
-        <f>'dane po Vs'!Q24</f>
-        <v>55</v>
+        <f>'dane po Vs'!Q25</f>
+        <v>42</v>
       </c>
       <c r="R24" s="6">
-        <f>'dane po Vs'!R24</f>
-        <v>2</v>
+        <f>'dane po Vs'!R25</f>
+        <v>1</v>
       </c>
       <c r="S24" s="6">
-        <f>'dane po Vs'!S24</f>
-        <v>0.19</v>
+        <f>'dane po Vs'!S25</f>
+        <v>0.17</v>
       </c>
       <c r="T24" s="5">
-        <f>'dane po Vs'!T24</f>
-        <v>23.7</v>
+        <f>'dane po Vs'!T25</f>
+        <v>33.700000000000003</v>
       </c>
       <c r="U24" s="5">
-        <f>'dane po Vs'!U24</f>
-        <v>41.9</v>
+        <f>'dane po Vs'!U25</f>
+        <v>19.8</v>
       </c>
       <c r="V24" s="6">
-        <f>'dane po Vs'!V24</f>
-        <v>183.1</v>
+        <f>'dane po Vs'!V25</f>
+        <v>144.01113543840199</v>
       </c>
       <c r="W24" s="9">
+        <f>((B24-$B$30)^2+(C24-$C$30)^2+(D24-$D$30)^2+(E24-$E$30)^2+(F24-$F$30)^2+(G24-$G$30)^2+(H24-$H$30)^2+(I24-$I$30)^2+(J24-$J$30)^2+(K24-$K$30)^2+(L24-$L$30)^2+(M24-$M$30)^2+(N24-$N$30)^2+(O24-$O$30)^2+(P24-$P$30)^2+(Q24-$Q$30)^2+(R24-$R$30)^2+(S24-$S$30)^2+(T24-$T$30)^2+(U24-$U$30)^2+(V24-$V$30)^2)^(0.5)</f>
+        <v>395.26037350226505</v>
+      </c>
+      <c r="X24" s="9">
+        <f>1-(W24/$AD$2)</f>
+        <v>0.52299735294549876</v>
+      </c>
+      <c r="Y24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Słowacja</v>
+      </c>
+      <c r="Z24" s="10">
+        <f t="shared" si="2"/>
+        <v>0.52299735294549876</v>
+      </c>
+      <c r="AA24" s="6">
         <f t="shared" si="0"/>
-        <v>428.18270952837702</v>
-      </c>
-      <c r="X24" s="9">
-        <f>1-(W24/$AD$3)</f>
-        <v>0.48326647556832814</v>
-      </c>
-      <c r="Y24" s="6" t="str">
-        <f>A24</f>
-        <v>Rumunia</v>
-      </c>
-      <c r="Z24" s="10">
-        <f>X24</f>
-        <v>0.48326647556832814</v>
-      </c>
-      <c r="AA24" s="6">
-        <f>X24</f>
-        <v>0.48326647556832814</v>
+        <v>0.52299735294549876</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>165</v>
@@ -17054,112 +17068,112 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="str">
-        <f>'dane po Vs'!A25</f>
-        <v>Słowacja</v>
+        <f>'dane po Vs'!A26</f>
+        <v>Słowenia</v>
       </c>
       <c r="B25" s="6">
-        <f>'dane po Vs'!B25</f>
-        <v>30</v>
+        <f>'dane po Vs'!B26</f>
+        <v>38</v>
       </c>
       <c r="C25" s="6">
-        <f>'dane po Vs'!C25</f>
-        <v>150.9</v>
+        <f>'dane po Vs'!C26</f>
+        <v>171.3</v>
       </c>
       <c r="D25" s="5">
-        <f>'dane po Vs'!D25</f>
-        <v>0</v>
+        <f>'dane po Vs'!D26</f>
+        <v>2</v>
       </c>
       <c r="E25" s="5">
-        <f>'dane po Vs'!E25</f>
-        <v>59.2</v>
+        <f>'dane po Vs'!E26</f>
+        <v>46.9</v>
       </c>
       <c r="F25" s="5">
-        <f>'dane po Vs'!F25</f>
-        <v>10.5</v>
+        <f>'dane po Vs'!F26</f>
+        <v>5.6</v>
       </c>
       <c r="G25" s="5">
-        <f>'dane po Vs'!G25</f>
-        <v>6.8</v>
+        <f>'dane po Vs'!G26</f>
+        <v>7.1</v>
       </c>
       <c r="H25" s="5">
-        <f>'dane po Vs'!H25</f>
-        <v>15.1</v>
+        <f>'dane po Vs'!H26</f>
+        <v>12.3</v>
       </c>
       <c r="I25" s="5">
-        <f>'dane po Vs'!I25</f>
-        <v>11.4</v>
+        <f>'dane po Vs'!I26</f>
+        <v>12.2</v>
       </c>
       <c r="J25" s="5">
-        <f>'dane po Vs'!J25</f>
-        <v>-4</v>
+        <f>'dane po Vs'!J26</f>
+        <v>6</v>
       </c>
       <c r="K25" s="5">
-        <f>'dane po Vs'!K25</f>
-        <v>304</v>
+        <f>'dane po Vs'!K26</f>
+        <v>414</v>
       </c>
       <c r="L25" s="6">
-        <f>'dane po Vs'!L25</f>
-        <v>10.1</v>
+        <f>'dane po Vs'!L26</f>
+        <v>22.4</v>
       </c>
       <c r="M25" s="6">
-        <f>'dane po Vs'!M25</f>
-        <v>38.1</v>
+        <f>'dane po Vs'!M26</f>
+        <v>7.1</v>
       </c>
       <c r="N25" s="6">
-        <f>'dane po Vs'!N25</f>
-        <v>8.18</v>
+        <f>'dane po Vs'!N26</f>
+        <v>8.07</v>
       </c>
       <c r="O25" s="6">
-        <f>'dane po Vs'!O25</f>
-        <v>0.68714285714285706</v>
+        <f>'dane po Vs'!O26</f>
+        <v>0.87428571428571433</v>
       </c>
       <c r="P25" s="6">
-        <f>'dane po Vs'!P25</f>
-        <v>1.72</v>
+        <f>'dane po Vs'!P26</f>
+        <v>3.94</v>
       </c>
       <c r="Q25" s="6">
-        <f>'dane po Vs'!Q25</f>
-        <v>42</v>
+        <f>'dane po Vs'!Q26</f>
+        <v>71</v>
       </c>
       <c r="R25" s="6">
-        <f>'dane po Vs'!R25</f>
-        <v>1</v>
+        <f>'dane po Vs'!R26</f>
+        <v>2</v>
       </c>
       <c r="S25" s="6">
-        <f>'dane po Vs'!S25</f>
-        <v>0.17</v>
+        <f>'dane po Vs'!S26</f>
+        <v>0.34</v>
       </c>
       <c r="T25" s="5">
-        <f>'dane po Vs'!T25</f>
-        <v>33.700000000000003</v>
+        <f>'dane po Vs'!T26</f>
+        <v>21.6</v>
       </c>
       <c r="U25" s="5">
-        <f>'dane po Vs'!U25</f>
-        <v>19.8</v>
+        <f>'dane po Vs'!U26</f>
+        <v>20.399999999999999</v>
       </c>
       <c r="V25" s="6">
-        <f>'dane po Vs'!V25</f>
-        <v>144.01113543840199</v>
+        <f>'dane po Vs'!V26</f>
+        <v>23.3</v>
       </c>
       <c r="W25" s="9">
+        <f>((B25-$B$30)^2+(C25-$C$30)^2+(D25-$D$30)^2+(E25-$E$30)^2+(F25-$F$30)^2+(G25-$G$30)^2+(H25-$H$30)^2+(I25-$I$30)^2+(J25-$J$30)^2+(K25-$K$30)^2+(L25-$L$30)^2+(M25-$M$30)^2+(N25-$N$30)^2+(O25-$O$30)^2+(P25-$P$30)^2+(Q25-$Q$30)^2+(R25-$R$30)^2+(S25-$S$30)^2+(T25-$T$30)^2+(U25-$U$30)^2+(V25-$V$30)^2)^(0.5)</f>
+        <v>520.99470044288614</v>
+      </c>
+      <c r="X25" s="9">
+        <f>1-(W25/$AD$2)</f>
+        <v>0.3712603947352201</v>
+      </c>
+      <c r="Y25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Słowenia</v>
+      </c>
+      <c r="Z25" s="10">
+        <f t="shared" si="2"/>
+        <v>0.3712603947352201</v>
+      </c>
+      <c r="AA25" s="6">
         <f t="shared" si="0"/>
-        <v>395.26037350226505</v>
-      </c>
-      <c r="X25" s="9">
-        <f>1-(W25/$AD$3)</f>
-        <v>0.52299735294549876</v>
-      </c>
-      <c r="Y25" s="6" t="str">
-        <f>A25</f>
-        <v>Słowacja</v>
-      </c>
-      <c r="Z25" s="10">
-        <f>X25</f>
-        <v>0.52299735294549876</v>
-      </c>
-      <c r="AA25" s="6">
-        <f>X25</f>
-        <v>0.52299735294549876</v>
+        <v>0.3712603947352201</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>165</v>
@@ -17173,112 +17187,112 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="str">
-        <f>'dane po Vs'!A26</f>
-        <v>Słowenia</v>
+        <f>'dane po Vs'!A27</f>
+        <v>Szwecja</v>
       </c>
       <c r="B26" s="6">
-        <f>'dane po Vs'!B26</f>
-        <v>38</v>
+        <f>'dane po Vs'!B27</f>
+        <v>14</v>
       </c>
       <c r="C26" s="6">
-        <f>'dane po Vs'!C26</f>
-        <v>171.3</v>
+        <f>'dane po Vs'!C27</f>
+        <v>103.5</v>
       </c>
       <c r="D26" s="5">
-        <f>'dane po Vs'!D26</f>
-        <v>2</v>
+        <f>'dane po Vs'!D27</f>
+        <v>144</v>
       </c>
       <c r="E26" s="5">
-        <f>'dane po Vs'!E26</f>
-        <v>46.9</v>
+        <f>'dane po Vs'!E27</f>
+        <v>32</v>
       </c>
       <c r="F26" s="5">
-        <f>'dane po Vs'!F26</f>
-        <v>5.6</v>
+        <f>'dane po Vs'!F27</f>
+        <v>2.4</v>
       </c>
       <c r="G26" s="5">
-        <f>'dane po Vs'!G26</f>
-        <v>7.1</v>
+        <f>'dane po Vs'!G27</f>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H26" s="5">
-        <f>'dane po Vs'!H26</f>
-        <v>12.3</v>
+        <f>'dane po Vs'!H27</f>
+        <v>12.9</v>
       </c>
       <c r="I26" s="5">
-        <f>'dane po Vs'!I26</f>
-        <v>12.2</v>
+        <f>'dane po Vs'!I27</f>
+        <v>22.6</v>
       </c>
       <c r="J26" s="5">
-        <f>'dane po Vs'!J26</f>
-        <v>6</v>
+        <f>'dane po Vs'!J27</f>
+        <v>1</v>
       </c>
       <c r="K26" s="5">
-        <f>'dane po Vs'!K26</f>
-        <v>414</v>
+        <f>'dane po Vs'!K27</f>
+        <v>451</v>
       </c>
       <c r="L26" s="6">
-        <f>'dane po Vs'!L26</f>
-        <v>22.4</v>
+        <f>'dane po Vs'!L27</f>
+        <v>52</v>
       </c>
       <c r="M26" s="6">
-        <f>'dane po Vs'!M26</f>
-        <v>7.1</v>
+        <f>'dane po Vs'!M27</f>
+        <v>9.3000000000000007</v>
       </c>
       <c r="N26" s="6">
-        <f>'dane po Vs'!N26</f>
-        <v>8.07</v>
+        <f>'dane po Vs'!N27</f>
+        <v>16.5</v>
       </c>
       <c r="O26" s="6">
-        <f>'dane po Vs'!O26</f>
-        <v>0.87428571428571433</v>
+        <f>'dane po Vs'!O27</f>
+        <v>0.34999999999999992</v>
       </c>
       <c r="P26" s="6">
-        <f>'dane po Vs'!P26</f>
-        <v>3.94</v>
+        <f>'dane po Vs'!P27</f>
+        <v>2.36</v>
       </c>
       <c r="Q26" s="6">
-        <f>'dane po Vs'!Q26</f>
-        <v>71</v>
+        <f>'dane po Vs'!Q27</f>
+        <v>140</v>
       </c>
       <c r="R26" s="6">
-        <f>'dane po Vs'!R26</f>
-        <v>2</v>
+        <f>'dane po Vs'!R27</f>
+        <v>7.75</v>
       </c>
       <c r="S26" s="6">
-        <f>'dane po Vs'!S26</f>
-        <v>0.34</v>
+        <f>'dane po Vs'!S27</f>
+        <v>0.12</v>
       </c>
       <c r="T26" s="5">
-        <f>'dane po Vs'!T26</f>
-        <v>21.6</v>
+        <f>'dane po Vs'!T27</f>
+        <v>23.6</v>
       </c>
       <c r="U26" s="5">
-        <f>'dane po Vs'!U26</f>
-        <v>20.399999999999999</v>
+        <f>'dane po Vs'!U27</f>
+        <v>18.3</v>
       </c>
       <c r="V26" s="6">
-        <f>'dane po Vs'!V26</f>
-        <v>23.3</v>
+        <f>'dane po Vs'!V27</f>
+        <v>72</v>
       </c>
       <c r="W26" s="9">
+        <f>((B26-$B$30)^2+(C26-$C$30)^2+(D26-$D$30)^2+(E26-$E$30)^2+(F26-$F$30)^2+(G26-$G$30)^2+(H26-$H$30)^2+(I26-$I$30)^2+(J26-$J$30)^2+(K26-$K$30)^2+(L26-$L$30)^2+(M26-$M$30)^2+(N26-$N$30)^2+(O26-$O$30)^2+(P26-$P$30)^2+(Q26-$Q$30)^2+(R26-$R$30)^2+(S26-$S$30)^2+(T26-$T$30)^2+(U26-$U$30)^2+(V26-$V$30)^2)^(0.5)</f>
+        <v>514.67331705564698</v>
+      </c>
+      <c r="X26" s="9">
+        <f>1-(W26/$AD$2)</f>
+        <v>0.37888907904283675</v>
+      </c>
+      <c r="Y26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Szwecja</v>
+      </c>
+      <c r="Z26" s="10">
+        <f t="shared" si="2"/>
+        <v>0.37888907904283675</v>
+      </c>
+      <c r="AA26" s="6">
         <f t="shared" si="0"/>
-        <v>520.99470044288614</v>
-      </c>
-      <c r="X26" s="9">
-        <f>1-(W26/$AD$3)</f>
-        <v>0.3712603947352201</v>
-      </c>
-      <c r="Y26" s="6" t="str">
-        <f>A26</f>
-        <v>Słowenia</v>
-      </c>
-      <c r="Z26" s="10">
-        <f>X26</f>
-        <v>0.3712603947352201</v>
-      </c>
-      <c r="AA26" s="6">
-        <f>X26</f>
-        <v>0.3712603947352201</v>
+        <v>0.37888907904283675</v>
       </c>
       <c r="AB26" s="6" t="s">
         <v>165</v>
@@ -17292,112 +17306,112 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="str">
-        <f>'dane po Vs'!A27</f>
-        <v>Szwecja</v>
+        <f>'dane po Vs'!A28</f>
+        <v>Węgry</v>
       </c>
       <c r="B27" s="6">
-        <f>'dane po Vs'!B27</f>
-        <v>14</v>
+        <f>'dane po Vs'!B28</f>
+        <v>21</v>
       </c>
       <c r="C27" s="6">
-        <f>'dane po Vs'!C27</f>
-        <v>103.5</v>
+        <f>'dane po Vs'!C28</f>
+        <v>152.80000000000001</v>
       </c>
       <c r="D27" s="5">
-        <f>'dane po Vs'!D27</f>
-        <v>144</v>
+        <f>'dane po Vs'!D28</f>
+        <v>618</v>
       </c>
       <c r="E27" s="5">
-        <f>'dane po Vs'!E27</f>
-        <v>32</v>
+        <f>'dane po Vs'!E28</f>
+        <v>49.6</v>
       </c>
       <c r="F27" s="5">
-        <f>'dane po Vs'!F27</f>
-        <v>2.4</v>
+        <f>'dane po Vs'!F28</f>
+        <v>3.2</v>
       </c>
       <c r="G27" s="5">
-        <f>'dane po Vs'!G27</f>
-        <v>4.4000000000000004</v>
+        <f>'dane po Vs'!G28</f>
+        <v>7.7</v>
       </c>
       <c r="H27" s="5">
-        <f>'dane po Vs'!H27</f>
-        <v>12.9</v>
+        <f>'dane po Vs'!H28</f>
+        <v>12.8</v>
       </c>
       <c r="I27" s="5">
-        <f>'dane po Vs'!I27</f>
-        <v>22.6</v>
+        <f>'dane po Vs'!I28</f>
+        <v>10</v>
       </c>
       <c r="J27" s="5">
-        <f>'dane po Vs'!J27</f>
-        <v>1</v>
+        <f>'dane po Vs'!J28</f>
+        <v>-1</v>
       </c>
       <c r="K27" s="5">
-        <f>'dane po Vs'!K27</f>
-        <v>451</v>
+        <f>'dane po Vs'!K28</f>
+        <v>378</v>
       </c>
       <c r="L27" s="6">
-        <f>'dane po Vs'!L27</f>
-        <v>52</v>
+        <f>'dane po Vs'!L28</f>
+        <v>16.2</v>
       </c>
       <c r="M27" s="6">
-        <f>'dane po Vs'!M27</f>
-        <v>9.3000000000000007</v>
+        <f>'dane po Vs'!M28</f>
+        <v>87.4</v>
       </c>
       <c r="N27" s="6">
-        <f>'dane po Vs'!N27</f>
-        <v>16.5</v>
+        <f>'dane po Vs'!N28</f>
+        <v>2.4500000000000002</v>
       </c>
       <c r="O27" s="6">
-        <f>'dane po Vs'!O27</f>
-        <v>0.34999999999999992</v>
+        <f>'dane po Vs'!O28</f>
+        <v>0.59714285714285709</v>
       </c>
       <c r="P27" s="6">
-        <f>'dane po Vs'!P27</f>
-        <v>2.36</v>
+        <f>'dane po Vs'!P28</f>
+        <v>2.66</v>
       </c>
       <c r="Q27" s="6">
-        <f>'dane po Vs'!Q27</f>
-        <v>140</v>
+        <f>'dane po Vs'!Q28</f>
+        <v>58</v>
       </c>
       <c r="R27" s="6">
-        <f>'dane po Vs'!R27</f>
-        <v>7.75</v>
+        <f>'dane po Vs'!R28</f>
+        <v>2</v>
       </c>
       <c r="S27" s="6">
-        <f>'dane po Vs'!S27</f>
-        <v>0.12</v>
+        <f>'dane po Vs'!S28</f>
+        <v>0.21</v>
       </c>
       <c r="T27" s="5">
-        <f>'dane po Vs'!T27</f>
-        <v>23.6</v>
+        <f>'dane po Vs'!T28</f>
+        <v>26.6</v>
       </c>
       <c r="U27" s="5">
-        <f>'dane po Vs'!U27</f>
-        <v>18.3</v>
+        <f>'dane po Vs'!U28</f>
+        <v>34.799999999999997</v>
       </c>
       <c r="V27" s="6">
-        <f>'dane po Vs'!V27</f>
-        <v>72</v>
+        <f>'dane po Vs'!V28</f>
+        <v>144.12425003756678</v>
       </c>
       <c r="W27" s="9">
+        <f>((B27-$B$30)^2+(C27-$C$30)^2+(D27-$D$30)^2+(E27-$E$30)^2+(F27-$F$30)^2+(G27-$G$30)^2+(H27-$H$30)^2+(I27-$I$30)^2+(J27-$J$30)^2+(K27-$K$30)^2+(L27-$L$30)^2+(M27-$M$30)^2+(N27-$N$30)^2+(O27-$O$30)^2+(P27-$P$30)^2+(Q27-$Q$30)^2+(R27-$R$30)^2+(S27-$S$30)^2+(T27-$T$30)^2+(U27-$U$30)^2+(V27-$V$30)^2)^(0.5)</f>
+        <v>727.63190375296983</v>
+      </c>
+      <c r="X27" s="9">
+        <f>1-(W27/$AD$2)</f>
+        <v>0.1218893482893405</v>
+      </c>
+      <c r="Y27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Węgry</v>
+      </c>
+      <c r="Z27" s="10">
+        <f t="shared" si="2"/>
+        <v>0.1218893482893405</v>
+      </c>
+      <c r="AA27" s="6">
         <f t="shared" si="0"/>
-        <v>514.67331705564698</v>
-      </c>
-      <c r="X27" s="9">
-        <f>1-(W27/$AD$3)</f>
-        <v>0.37888907904283675</v>
-      </c>
-      <c r="Y27" s="6" t="str">
-        <f>A27</f>
-        <v>Szwecja</v>
-      </c>
-      <c r="Z27" s="10">
-        <f>X27</f>
-        <v>0.37888907904283675</v>
-      </c>
-      <c r="AA27" s="6">
-        <f>X27</f>
-        <v>0.37888907904283675</v>
+        <v>0.1218893482893405</v>
       </c>
       <c r="AB27" s="6" t="s">
         <v>165</v>
@@ -17411,112 +17425,112 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="str">
-        <f>'dane po Vs'!A28</f>
-        <v>Węgry</v>
+        <f>'dane po Vs'!A29</f>
+        <v>Wielka Brytania</v>
       </c>
       <c r="B28" s="6">
-        <f>'dane po Vs'!B28</f>
-        <v>21</v>
+        <f>'dane po Vs'!B29</f>
+        <v>9</v>
       </c>
       <c r="C28" s="6">
-        <f>'dane po Vs'!C28</f>
-        <v>152.80000000000001</v>
+        <f>'dane po Vs'!C29</f>
+        <v>160.30000000000001</v>
       </c>
       <c r="D28" s="5">
-        <f>'dane po Vs'!D28</f>
-        <v>618</v>
+        <f>'dane po Vs'!D29</f>
+        <v>231.76190476190473</v>
       </c>
       <c r="E28" s="5">
-        <f>'dane po Vs'!E28</f>
-        <v>49.6</v>
+        <f>'dane po Vs'!E29</f>
+        <v>47.1</v>
       </c>
       <c r="F28" s="5">
-        <f>'dane po Vs'!F28</f>
-        <v>3.2</v>
+        <f>'dane po Vs'!F29</f>
+        <v>5.9</v>
       </c>
       <c r="G28" s="5">
-        <f>'dane po Vs'!G28</f>
-        <v>7.7</v>
+        <f>'dane po Vs'!G29</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H28" s="5">
-        <f>'dane po Vs'!H28</f>
-        <v>12.8</v>
+        <f>'dane po Vs'!H29</f>
+        <v>17</v>
       </c>
       <c r="I28" s="5">
-        <f>'dane po Vs'!I28</f>
-        <v>10</v>
+        <f>'dane po Vs'!I29</f>
+        <v>8.9</v>
       </c>
       <c r="J28" s="5">
-        <f>'dane po Vs'!J28</f>
-        <v>-1</v>
+        <f>'dane po Vs'!J29</f>
+        <v>-0.54545454545454541</v>
       </c>
       <c r="K28" s="5">
-        <f>'dane po Vs'!K28</f>
-        <v>378</v>
+        <f>'dane po Vs'!K29</f>
+        <v>482</v>
       </c>
       <c r="L28" s="6">
-        <f>'dane po Vs'!L28</f>
-        <v>16.2</v>
+        <f>'dane po Vs'!L29</f>
+        <v>5.7</v>
       </c>
       <c r="M28" s="6">
-        <f>'dane po Vs'!M28</f>
-        <v>87.4</v>
+        <f>'dane po Vs'!M29</f>
+        <v>108.5</v>
       </c>
       <c r="N28" s="6">
-        <f>'dane po Vs'!N28</f>
-        <v>2.4500000000000002</v>
+        <f>'dane po Vs'!N29</f>
+        <v>3.24</v>
       </c>
       <c r="O28" s="6">
-        <f>'dane po Vs'!O28</f>
-        <v>0.59714285714285709</v>
+        <f>'dane po Vs'!O29</f>
+        <v>0.25285714285714284</v>
       </c>
       <c r="P28" s="6">
-        <f>'dane po Vs'!P28</f>
-        <v>2.66</v>
+        <f>'dane po Vs'!P29</f>
+        <v>2.46</v>
       </c>
       <c r="Q28" s="6">
-        <f>'dane po Vs'!Q28</f>
-        <v>58</v>
+        <f>'dane po Vs'!Q29</f>
+        <v>130</v>
       </c>
       <c r="R28" s="6">
-        <f>'dane po Vs'!R28</f>
-        <v>2</v>
+        <f>'dane po Vs'!R29</f>
+        <v>24</v>
       </c>
       <c r="S28" s="6">
-        <f>'dane po Vs'!S28</f>
-        <v>0.21</v>
+        <f>'dane po Vs'!S29</f>
+        <v>0.13</v>
       </c>
       <c r="T28" s="5">
-        <f>'dane po Vs'!T28</f>
-        <v>26.6</v>
+        <f>'dane po Vs'!T29</f>
+        <v>20.7</v>
       </c>
       <c r="U28" s="5">
-        <f>'dane po Vs'!U28</f>
-        <v>34.799999999999997</v>
+        <f>'dane po Vs'!U29</f>
+        <v>24.8</v>
       </c>
       <c r="V28" s="6">
-        <f>'dane po Vs'!V28</f>
-        <v>144.12425003756678</v>
+        <f>'dane po Vs'!V29</f>
+        <v>325.20000000000005</v>
       </c>
       <c r="W28" s="9">
+        <f>((B28-$B$30)^2+(C28-$C$30)^2+(D28-$D$30)^2+(E28-$E$30)^2+(F28-$F$30)^2+(G28-$G$30)^2+(H28-$H$30)^2+(I28-$I$30)^2+(J28-$J$30)^2+(K28-$K$30)^2+(L28-$L$30)^2+(M28-$M$30)^2+(N28-$N$30)^2+(O28-$O$30)^2+(P28-$P$30)^2+(Q28-$Q$30)^2+(R28-$R$30)^2+(S28-$S$30)^2+(T28-$T$30)^2+(U28-$U$30)^2+(V28-$V$30)^2)^(0.5)</f>
+        <v>381.86666843743564</v>
+      </c>
+      <c r="X28" s="9">
+        <f>1-(W28/$AD$2)</f>
+        <v>0.53916095850297396</v>
+      </c>
+      <c r="Y28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Wielka Brytania</v>
+      </c>
+      <c r="Z28" s="10">
+        <f t="shared" si="2"/>
+        <v>0.53916095850297396</v>
+      </c>
+      <c r="AA28" s="6">
         <f t="shared" si="0"/>
-        <v>727.63190375296983</v>
-      </c>
-      <c r="X28" s="9">
-        <f>1-(W28/$AD$3)</f>
-        <v>0.1218893482893405</v>
-      </c>
-      <c r="Y28" s="6" t="str">
-        <f>A28</f>
-        <v>Węgry</v>
-      </c>
-      <c r="Z28" s="10">
-        <f>X28</f>
-        <v>0.1218893482893405</v>
-      </c>
-      <c r="AA28" s="6">
-        <f>X28</f>
-        <v>0.1218893482893405</v>
+        <v>0.53916095850297396</v>
       </c>
       <c r="AB28" s="6" t="s">
         <v>165</v>
@@ -17530,112 +17544,112 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="str">
-        <f>'dane po Vs'!A29</f>
-        <v>Wielka Brytania</v>
+        <f>'dane po Vs'!A30</f>
+        <v>Włochy</v>
       </c>
       <c r="B29" s="6">
-        <f>'dane po Vs'!B29</f>
-        <v>9</v>
+        <f>'dane po Vs'!B30</f>
+        <v>19</v>
       </c>
       <c r="C29" s="6">
-        <f>'dane po Vs'!C29</f>
-        <v>160.30000000000001</v>
+        <f>'dane po Vs'!C30</f>
+        <v>188.8</v>
       </c>
       <c r="D29" s="5">
-        <f>'dane po Vs'!D29</f>
-        <v>231.76190476190473</v>
+        <f>'dane po Vs'!D30</f>
+        <v>177</v>
       </c>
       <c r="E29" s="5">
-        <f>'dane po Vs'!E29</f>
-        <v>47.1</v>
+        <f>'dane po Vs'!E30</f>
+        <v>76.8</v>
       </c>
       <c r="F29" s="5">
-        <f>'dane po Vs'!F29</f>
-        <v>5.9</v>
+        <f>'dane po Vs'!F30</f>
+        <v>2.4</v>
       </c>
       <c r="G29" s="5">
-        <f>'dane po Vs'!G29</f>
-        <v>2.2999999999999998</v>
+        <f>'dane po Vs'!G30</f>
+        <v>3.1</v>
       </c>
       <c r="H29" s="5">
-        <f>'dane po Vs'!H29</f>
-        <v>17</v>
+        <f>'dane po Vs'!H30</f>
+        <v>18.100000000000001</v>
       </c>
       <c r="I29" s="5">
-        <f>'dane po Vs'!I29</f>
-        <v>8.9</v>
+        <f>'dane po Vs'!I30</f>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J29" s="5">
-        <f>'dane po Vs'!J29</f>
-        <v>-0.54545454545454541</v>
+        <f>'dane po Vs'!J30</f>
+        <v>-2</v>
       </c>
       <c r="K29" s="5">
-        <f>'dane po Vs'!K29</f>
-        <v>482</v>
+        <f>'dane po Vs'!K30</f>
+        <v>491</v>
       </c>
       <c r="L29" s="6">
-        <f>'dane po Vs'!L29</f>
-        <v>5.7</v>
+        <f>'dane po Vs'!L30</f>
+        <v>16.7</v>
       </c>
       <c r="M29" s="6">
-        <f>'dane po Vs'!M29</f>
-        <v>108.5</v>
+        <f>'dane po Vs'!M30</f>
+        <v>75.8</v>
       </c>
       <c r="N29" s="6">
-        <f>'dane po Vs'!N29</f>
-        <v>3.24</v>
+        <f>'dane po Vs'!N30</f>
+        <v>10.6</v>
       </c>
       <c r="O29" s="6">
-        <f>'dane po Vs'!O29</f>
-        <v>0.25285714285714284</v>
+        <f>'dane po Vs'!O30</f>
+        <v>0.76333333333333331</v>
       </c>
       <c r="P29" s="6">
-        <f>'dane po Vs'!P29</f>
-        <v>2.46</v>
+        <f>'dane po Vs'!P30</f>
+        <v>3.45</v>
       </c>
       <c r="Q29" s="6">
-        <f>'dane po Vs'!Q29</f>
-        <v>130</v>
+        <f>'dane po Vs'!Q30</f>
+        <v>97</v>
       </c>
       <c r="R29" s="6">
-        <f>'dane po Vs'!R29</f>
-        <v>24</v>
+        <f>'dane po Vs'!R30</f>
+        <v>34.92</v>
       </c>
       <c r="S29" s="6">
-        <f>'dane po Vs'!S29</f>
-        <v>0.13</v>
+        <f>'dane po Vs'!S30</f>
+        <v>0.18</v>
       </c>
       <c r="T29" s="5">
-        <f>'dane po Vs'!T29</f>
-        <v>20.7</v>
+        <f>'dane po Vs'!T30</f>
+        <v>40</v>
       </c>
       <c r="U29" s="5">
-        <f>'dane po Vs'!U29</f>
-        <v>24.8</v>
+        <f>'dane po Vs'!U30</f>
+        <v>28.5</v>
       </c>
       <c r="V29" s="6">
-        <f>'dane po Vs'!V29</f>
-        <v>325.20000000000005</v>
+        <f>'dane po Vs'!V30</f>
+        <v>144.2523062613476</v>
       </c>
       <c r="W29" s="9">
+        <f>((B29-$B$30)^2+(C29-$C$30)^2+(D29-$D$30)^2+(E29-$E$30)^2+(F29-$F$30)^2+(G29-$G$30)^2+(H29-$H$30)^2+(I29-$I$30)^2+(J29-$J$30)^2+(K29-$K$30)^2+(L29-$L$30)^2+(M29-$M$30)^2+(N29-$N$30)^2+(O29-$O$30)^2+(P29-$P$30)^2+(Q29-$Q$30)^2+(R29-$R$30)^2+(S29-$S$30)^2+(T29-$T$30)^2+(U29-$U$30)^2+(V29-$V$30)^2)^(0.5)</f>
+        <v>463.81592262373874</v>
+      </c>
+      <c r="X29" s="9">
+        <f>1-(W29/$AD$2)</f>
+        <v>0.4402640950895087</v>
+      </c>
+      <c r="Y29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>Włochy</v>
+      </c>
+      <c r="Z29" s="10">
+        <f t="shared" si="2"/>
+        <v>0.4402640950895087</v>
+      </c>
+      <c r="AA29" s="6">
         <f t="shared" si="0"/>
-        <v>381.86666843743564</v>
-      </c>
-      <c r="X29" s="9">
-        <f>1-(W29/$AD$3)</f>
-        <v>0.53916095850297396</v>
-      </c>
-      <c r="Y29" s="6" t="str">
-        <f>A29</f>
-        <v>Wielka Brytania</v>
-      </c>
-      <c r="Z29" s="10">
-        <f>X29</f>
-        <v>0.53916095850297396</v>
-      </c>
-      <c r="AA29" s="6">
-        <f>X29</f>
-        <v>0.53916095850297396</v>
+        <v>0.4402640950895087</v>
       </c>
       <c r="AB29" s="6" t="s">
         <v>165</v>
@@ -17648,113 +17662,107 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="str">
-        <f>'dane po Vs'!A30</f>
-        <v>Włochy</v>
-      </c>
-      <c r="B30" s="6">
-        <f>'dane po Vs'!B30</f>
+      <c r="A30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="8">
+        <f>MAX(B29:B29)</f>
         <v>19</v>
       </c>
-      <c r="C30" s="6">
-        <f>'dane po Vs'!C30</f>
+      <c r="C30" s="8">
+        <f>MAX(C29:C29)</f>
         <v>188.8</v>
       </c>
-      <c r="D30" s="5">
-        <f>'dane po Vs'!D30</f>
-        <v>177</v>
-      </c>
-      <c r="E30" s="5">
-        <f>'dane po Vs'!E30</f>
-        <v>76.8</v>
-      </c>
-      <c r="F30" s="5">
-        <f>'dane po Vs'!F30</f>
-        <v>2.4</v>
-      </c>
-      <c r="G30" s="5">
-        <f>'dane po Vs'!G30</f>
-        <v>3.1</v>
-      </c>
-      <c r="H30" s="5">
-        <f>'dane po Vs'!H30</f>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="I30" s="5">
-        <f>'dane po Vs'!I30</f>
+      <c r="D30" s="17">
+        <f>MIN(D2:D29)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" ref="E30:K30" si="3">MIN(E2:E29)</f>
+        <v>11.9</v>
+      </c>
+      <c r="F30" s="17">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="H30" s="17">
+        <f t="shared" si="3"/>
+        <v>9.4</v>
+      </c>
+      <c r="I30" s="17">
+        <f t="shared" si="3"/>
         <v>8.3000000000000007</v>
       </c>
-      <c r="J30" s="5">
-        <f>'dane po Vs'!J30</f>
-        <v>-2</v>
-      </c>
-      <c r="K30" s="5">
-        <f>'dane po Vs'!K30</f>
-        <v>491</v>
-      </c>
-      <c r="L30" s="6">
-        <f>'dane po Vs'!L30</f>
-        <v>16.7</v>
-      </c>
-      <c r="M30" s="6">
-        <f>'dane po Vs'!M30</f>
-        <v>75.8</v>
-      </c>
-      <c r="N30" s="6">
-        <f>'dane po Vs'!N30</f>
-        <v>10.6</v>
-      </c>
-      <c r="O30" s="6">
-        <f>'dane po Vs'!O30</f>
-        <v>0.76333333333333331</v>
-      </c>
-      <c r="P30" s="6">
-        <f>'dane po Vs'!P30</f>
-        <v>3.45</v>
-      </c>
-      <c r="Q30" s="6">
-        <f>'dane po Vs'!Q30</f>
-        <v>97</v>
-      </c>
-      <c r="R30" s="6">
-        <f>'dane po Vs'!R30</f>
-        <v>34.92</v>
-      </c>
-      <c r="S30" s="6">
-        <f>'dane po Vs'!S30</f>
-        <v>0.18</v>
-      </c>
-      <c r="T30" s="5">
-        <f>'dane po Vs'!T30</f>
-        <v>40</v>
-      </c>
-      <c r="U30" s="5">
-        <f>'dane po Vs'!U30</f>
-        <v>28.5</v>
-      </c>
-      <c r="V30" s="6">
-        <f>'dane po Vs'!V30</f>
-        <v>144.2523062613476</v>
-      </c>
-      <c r="W30" s="9">
-        <f t="shared" si="0"/>
-        <v>463.81592262373874</v>
-      </c>
-      <c r="X30" s="9">
-        <f>1-(W30/$AD$3)</f>
-        <v>0.4402640950895087</v>
-      </c>
-      <c r="Y30" s="6" t="str">
-        <f>A30</f>
-        <v>Włochy</v>
-      </c>
-      <c r="Z30" s="10">
-        <f>X30</f>
-        <v>0.4402640950895087</v>
-      </c>
-      <c r="AA30" s="6">
-        <f>X30</f>
-        <v>0.4402640950895087</v>
+      <c r="J30" s="17">
+        <f t="shared" si="3"/>
+        <v>-9</v>
+      </c>
+      <c r="K30" s="17">
+        <f t="shared" si="3"/>
+        <v>254</v>
+      </c>
+      <c r="L30" s="8">
+        <f>MAX(L2:L29)</f>
+        <v>52</v>
+      </c>
+      <c r="M30" s="8">
+        <f t="shared" ref="M30:S30" si="4">MAX(M2:M29)</f>
+        <v>235.8</v>
+      </c>
+      <c r="N30" s="8">
+        <f t="shared" si="4"/>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="O30" s="8">
+        <f t="shared" si="4"/>
+        <v>0.88375000000000015</v>
+      </c>
+      <c r="P30" s="8">
+        <f t="shared" si="4"/>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="R30" s="8">
+        <f t="shared" si="4"/>
+        <v>92.65</v>
+      </c>
+      <c r="S30" s="8">
+        <f t="shared" si="4"/>
+        <v>0.42</v>
+      </c>
+      <c r="T30" s="17">
+        <f>MIN(T2:T29)</f>
+        <v>7.8</v>
+      </c>
+      <c r="U30" s="17">
+        <f>MIN(U2:U29)</f>
+        <v>14.6</v>
+      </c>
+      <c r="V30" s="8">
+        <f t="shared" ref="V30" si="5">MAX(V2:V29)</f>
+        <v>444.2</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="X30" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y30" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>165</v>
@@ -17763,119 +17771,6 @@
         <v>165</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="8">
-        <f>MAX(B30:B30)</f>
-        <v>19</v>
-      </c>
-      <c r="C31" s="8">
-        <f>MAX(C30:C30)</f>
-        <v>188.8</v>
-      </c>
-      <c r="D31" s="17">
-        <f>MIN(D3:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
-        <f t="shared" ref="E31:K31" si="1">MIN(E3:E30)</f>
-        <v>11.9</v>
-      </c>
-      <c r="F31" s="17">
-        <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="G31" s="17">
-        <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="H31" s="17">
-        <f t="shared" si="1"/>
-        <v>9.4</v>
-      </c>
-      <c r="I31" s="17">
-        <f t="shared" si="1"/>
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J31" s="17">
-        <f t="shared" si="1"/>
-        <v>-9</v>
-      </c>
-      <c r="K31" s="17">
-        <f t="shared" si="1"/>
-        <v>254</v>
-      </c>
-      <c r="L31" s="8">
-        <f>MAX(L3:L30)</f>
-        <v>52</v>
-      </c>
-      <c r="M31" s="8">
-        <f t="shared" ref="M31:S31" si="2">MAX(M3:M30)</f>
-        <v>235.8</v>
-      </c>
-      <c r="N31" s="8">
-        <f t="shared" si="2"/>
-        <v>18.399999999999999</v>
-      </c>
-      <c r="O31" s="8">
-        <f t="shared" si="2"/>
-        <v>0.88375000000000015</v>
-      </c>
-      <c r="P31" s="8">
-        <f t="shared" si="2"/>
-        <v>4.1399999999999997</v>
-      </c>
-      <c r="Q31" s="8">
-        <f t="shared" si="2"/>
-        <v>140</v>
-      </c>
-      <c r="R31" s="8">
-        <f t="shared" si="2"/>
-        <v>92.65</v>
-      </c>
-      <c r="S31" s="8">
-        <f t="shared" si="2"/>
-        <v>0.42</v>
-      </c>
-      <c r="T31" s="17">
-        <f>MIN(T3:T30)</f>
-        <v>7.8</v>
-      </c>
-      <c r="U31" s="17">
-        <f>MIN(U3:U30)</f>
-        <v>14.6</v>
-      </c>
-      <c r="V31" s="8">
-        <f t="shared" ref="V31" si="3">MAX(V3:V30)</f>
-        <v>444.2</v>
-      </c>
-      <c r="W31" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="X31" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="Y31" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z31" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA31" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB31" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AC31" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD31" s="6" t="s">
         <v>165</v>
       </c>
     </row>
@@ -18002,174 +17897,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="str">
-        <f>wzorzec!B1</f>
-        <v>X1</v>
-      </c>
-      <c r="C1" s="6" t="str">
-        <f>wzorzec!C1</f>
-        <v>X5</v>
-      </c>
-      <c r="D1" s="5" t="str">
-        <f>wzorzec!D1</f>
-        <v>X6</v>
-      </c>
-      <c r="E1" s="5" t="str">
-        <f>wzorzec!E1</f>
-        <v>X8</v>
-      </c>
-      <c r="F1" s="5" t="str">
-        <f>wzorzec!F1</f>
-        <v>X10</v>
-      </c>
-      <c r="G1" s="5" t="str">
-        <f>wzorzec!G1</f>
-        <v>X11</v>
-      </c>
-      <c r="H1" s="5" t="str">
-        <f>wzorzec!H1</f>
-        <v>X12</v>
-      </c>
-      <c r="I1" s="5" t="str">
-        <f>wzorzec!I1</f>
-        <v>X13</v>
-      </c>
-      <c r="J1" s="5" t="str">
-        <f>wzorzec!J1</f>
-        <v>X14</v>
-      </c>
-      <c r="K1" s="5" t="str">
-        <f>wzorzec!K1</f>
-        <v>X15</v>
-      </c>
-      <c r="L1" s="6" t="str">
-        <f>wzorzec!L1</f>
-        <v>X16</v>
-      </c>
-      <c r="M1" s="13" t="str">
-        <f>wzorzec!M1</f>
-        <v>X17</v>
-      </c>
-      <c r="N1" s="13" t="str">
-        <f>wzorzec!N1</f>
-        <v>X18</v>
-      </c>
-      <c r="O1" s="13" t="str">
-        <f>wzorzec!O1</f>
-        <v>X20</v>
-      </c>
-      <c r="P1" s="6" t="str">
-        <f>wzorzec!P1</f>
-        <v>X21</v>
-      </c>
-      <c r="Q1" s="6" t="str">
-        <f>wzorzec!Q1</f>
-        <v>X22</v>
-      </c>
-      <c r="R1" s="6" t="str">
-        <f>wzorzec!R1</f>
-        <v>X23</v>
-      </c>
-      <c r="S1" s="6" t="str">
-        <f>wzorzec!S1</f>
-        <v>X24</v>
-      </c>
-      <c r="T1" s="5" t="str">
-        <f>wzorzec!T1</f>
-        <v>X25</v>
-      </c>
-      <c r="U1" s="5" t="str">
-        <f>wzorzec!U1</f>
-        <v>X26</v>
-      </c>
-      <c r="V1" s="6" t="str">
-        <f>wzorzec!V1</f>
-        <v>X27</v>
+      <c r="B1" s="6" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C1" s="6" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D1" s="5" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E1" s="5" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F1" s="5" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G1" s="5" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H1" s="5" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I1" s="5" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J1" s="5" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K1" s="5" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L1" s="6" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M1" s="13" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N1" s="13" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O1" s="13" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P1" s="6" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q1" s="6" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R1" s="6" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="S1" s="6" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T1" s="5" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="U1" s="5" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V1" s="6" t="e">
+        <f>wzorzec!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="str">
-        <f>wzorzec!B2</f>
+        <f>wzorzec!B1</f>
         <v>Chroniony obszar lądowy (% powierzchni państwa)</v>
       </c>
       <c r="C2" s="6" t="str">
-        <f>wzorzec!C2</f>
+        <f>wzorzec!C1</f>
         <v>Indeks wydajnosci zasobów (rok 2000=100)</v>
       </c>
       <c r="D2" s="5" t="str">
-        <f>wzorzec!D2</f>
+        <f>wzorzec!D1</f>
         <v>Połowy w regionach rybackich (tys.ton)</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f>wzorzec!E2</f>
+        <f>wzorzec!E1</f>
         <v>Zależność energetyczna (%)</v>
       </c>
       <c r="F2" s="5" t="str">
-        <f>wzorzec!F2</f>
+        <f>wzorzec!F1</f>
         <v>Emisja tlenków siarki (kg/osoba)</v>
       </c>
       <c r="G2" s="5" t="str">
-        <f>wzorzec!G2</f>
+        <f>wzorzec!G1</f>
         <v>Emisja cząstek stałych (kg/osoba)</v>
       </c>
       <c r="H2" s="5" t="str">
-        <f>wzorzec!H2</f>
+        <f>wzorzec!H1</f>
         <v>Zanieczyszczenie hałasem (% ludności)</v>
       </c>
       <c r="I2" s="5" t="str">
-        <f>wzorzec!I2</f>
+        <f>wzorzec!I1</f>
         <v>Konsumpcja surowców (ton/osoba)</v>
       </c>
       <c r="J2" s="5" t="str">
-        <f>wzorzec!J2</f>
+        <f>wzorzec!J1</f>
         <v>Zużycie nawozów (kg/ha)</v>
       </c>
       <c r="K2" s="5" t="str">
-        <f>wzorzec!K2</f>
+        <f>wzorzec!K1</f>
         <v>Odpady komunalne (kg/osoba)</v>
       </c>
       <c r="L2" s="6" t="str">
-        <f>wzorzec!L2</f>
+        <f>wzorzec!L1</f>
         <v>Odnawialna energia elektryczna (%konsumpcji prądu)</v>
       </c>
       <c r="M2" s="13" t="str">
-        <f>wzorzec!M2</f>
+        <f>wzorzec!M1</f>
         <v>Krajowa konsumpcja biomasy (100 tys. ton ekwiwalentu oleju)</v>
       </c>
       <c r="N2" s="13" t="str">
-        <f>wzorzec!N2</f>
+        <f>wzorzec!N1</f>
         <v>Uprawy ekologiczne (% użytków rolnych)</v>
       </c>
       <c r="O2" s="13" t="str">
-        <f>wzorzec!O2</f>
+        <f>wzorzec!O1</f>
         <v>Wydatki na ochronę środoiwska (% PKB)</v>
       </c>
       <c r="P2" s="6" t="str">
-        <f>wzorzec!P2</f>
+        <f>wzorzec!P1</f>
         <v>Dochody z podatków środoiwskowych (% PKB)</v>
       </c>
       <c r="Q2" s="6" t="str">
-        <f>wzorzec!Q2</f>
+        <f>wzorzec!Q1</f>
         <v>Indeks eko-innowacyjnosci (śr krajów UE=100)</v>
       </c>
       <c r="R2" s="6" t="str">
-        <f>wzorzec!R2</f>
+        <f>wzorzec!R1</f>
         <v>Patenty związane z recyklingiem i surowcami wtórnymi  (liczba)</v>
       </c>
       <c r="S2" s="6" t="str">
-        <f>wzorzec!S2</f>
+        <f>wzorzec!S1</f>
         <v>Wydatki publiczne na badania i rozwój dotyczące środowiska (% PKB)</v>
       </c>
       <c r="T2" s="5" t="str">
-        <f>wzorzec!T2</f>
+        <f>wzorzec!T1</f>
         <v>Stopa bezrobocia ludzi młodych w wieku 15-24 lata, obliczona jako udział (%) w całkowitej populacji w tej samej grupie wiekowej</v>
       </c>
       <c r="U2" s="5" t="str">
-        <f>wzorzec!U2</f>
+        <f>wzorzec!U1</f>
         <v>Osoby zagrożone ubóstwem lub wykluczeniem społecznym</v>
       </c>
       <c r="V2" s="6" t="str">
-        <f>wzorzec!V2</f>
+        <f>wzorzec!V1</f>
         <v>Zatrudnienie w sektorze dóbr i usług środowiskowych (ekwiwalent pełnego czasu pracy ∙〖10〗^(-3); FTE)</v>
       </c>
     </row>
@@ -18179,87 +18074,87 @@
         <v>Austria</v>
       </c>
       <c r="B3" s="6">
-        <f>wzorzec!B3</f>
+        <f>wzorzec!B2</f>
         <v>15</v>
       </c>
       <c r="C3" s="6">
-        <f>wzorzec!C3</f>
+        <f>wzorzec!C2</f>
         <v>128.4</v>
       </c>
       <c r="D3" s="5">
-        <f>wzorzec!D3</f>
+        <f>wzorzec!D2</f>
         <v>324</v>
       </c>
       <c r="E3" s="5">
-        <f>wzorzec!E3</f>
+        <f>wzorzec!E2</f>
         <v>61.3</v>
       </c>
       <c r="F3" s="5">
-        <f>wzorzec!F3</f>
+        <f>wzorzec!F2</f>
         <v>1.8</v>
       </c>
       <c r="G3" s="5">
-        <f>wzorzec!G3</f>
+        <f>wzorzec!G2</f>
         <v>3.9</v>
       </c>
       <c r="H3" s="5">
-        <f>wzorzec!H3</f>
+        <f>wzorzec!H2</f>
         <v>18.899999999999999</v>
       </c>
       <c r="I3" s="5">
-        <f>wzorzec!I3</f>
+        <f>wzorzec!I2</f>
         <v>20.6</v>
       </c>
       <c r="J3" s="5">
-        <f>wzorzec!J3</f>
+        <f>wzorzec!J2</f>
         <v>4</v>
       </c>
       <c r="K3" s="5">
-        <f>wzorzec!K3</f>
+        <f>wzorzec!K2</f>
         <v>578</v>
       </c>
       <c r="L3" s="6">
-        <f>wzorzec!L3</f>
+        <f>wzorzec!L2</f>
         <v>32.4</v>
       </c>
       <c r="M3" s="6">
-        <f>wzorzec!M3</f>
+        <f>wzorzec!M2</f>
         <v>29.1</v>
       </c>
       <c r="N3" s="6">
-        <f>wzorzec!N3</f>
+        <f>wzorzec!N2</f>
         <v>18.399999999999999</v>
       </c>
       <c r="O3" s="6">
-        <f>wzorzec!O3</f>
+        <f>wzorzec!O2</f>
         <v>0.30714285714285711</v>
       </c>
       <c r="P3" s="6">
-        <f>wzorzec!P3</f>
+        <f>wzorzec!P2</f>
         <v>2.38</v>
       </c>
       <c r="Q3" s="6">
-        <f>wzorzec!Q3</f>
+        <f>wzorzec!Q2</f>
         <v>107</v>
       </c>
       <c r="R3" s="6">
-        <f>wzorzec!R3</f>
+        <f>wzorzec!R2</f>
         <v>10</v>
       </c>
       <c r="S3" s="6">
-        <f>wzorzec!S3</f>
+        <f>wzorzec!S2</f>
         <v>0.13</v>
       </c>
       <c r="T3" s="5">
-        <f>wzorzec!T3</f>
+        <f>wzorzec!T2</f>
         <v>9.6999999999999993</v>
       </c>
       <c r="U3" s="5">
-        <f>wzorzec!U3</f>
+        <f>wzorzec!U2</f>
         <v>18.8</v>
       </c>
       <c r="V3" s="6">
-        <f>wzorzec!V3</f>
+        <f>wzorzec!V2</f>
         <v>182.5</v>
       </c>
     </row>
@@ -18269,87 +18164,87 @@
         <v>Belgia</v>
       </c>
       <c r="B4" s="6">
-        <f>wzorzec!B4</f>
+        <f>wzorzec!B3</f>
         <v>13</v>
       </c>
       <c r="C4" s="6">
-        <f>wzorzec!C4</f>
+        <f>wzorzec!C3</f>
         <v>121.3</v>
       </c>
       <c r="D4" s="5">
-        <f>wzorzec!D4</f>
+        <f>wzorzec!D3</f>
         <v>231.76190476190476</v>
       </c>
       <c r="E4" s="5">
-        <f>wzorzec!E4</f>
+        <f>wzorzec!E3</f>
         <v>77.400000000000006</v>
       </c>
       <c r="F4" s="5">
-        <f>wzorzec!F4</f>
+        <f>wzorzec!F3</f>
         <v>4</v>
       </c>
       <c r="G4" s="5">
-        <f>wzorzec!G4</f>
+        <f>wzorzec!G3</f>
         <v>3.8</v>
       </c>
       <c r="H4" s="5">
-        <f>wzorzec!H4</f>
+        <f>wzorzec!H3</f>
         <v>17.5</v>
       </c>
       <c r="I4" s="5">
-        <f>wzorzec!I4</f>
+        <f>wzorzec!I3</f>
         <v>13.6</v>
       </c>
       <c r="J4" s="5">
-        <f>wzorzec!J4</f>
+        <f>wzorzec!J3</f>
         <v>6</v>
       </c>
       <c r="K4" s="5">
-        <f>wzorzec!K4</f>
+        <f>wzorzec!K3</f>
         <v>438</v>
       </c>
       <c r="L4" s="6">
-        <f>wzorzec!L4</f>
+        <f>wzorzec!L3</f>
         <v>7.5</v>
       </c>
       <c r="M4" s="6">
-        <f>wzorzec!M4</f>
+        <f>wzorzec!M3</f>
         <v>11.8</v>
       </c>
       <c r="N4" s="6">
-        <f>wzorzec!N4</f>
+        <f>wzorzec!N3</f>
         <v>4.67</v>
       </c>
       <c r="O4" s="6">
-        <f>wzorzec!O4</f>
+        <f>wzorzec!O3</f>
         <v>0.31857142857142856</v>
       </c>
       <c r="P4" s="6">
-        <f>wzorzec!P4</f>
+        <f>wzorzec!P3</f>
         <v>2.0699999999999998</v>
       </c>
       <c r="Q4" s="6">
-        <f>wzorzec!Q4</f>
+        <f>wzorzec!Q3</f>
         <v>98</v>
       </c>
       <c r="R4" s="6">
-        <f>wzorzec!R4</f>
+        <f>wzorzec!R3</f>
         <v>15.42</v>
       </c>
       <c r="S4" s="6">
-        <f>wzorzec!S4</f>
+        <f>wzorzec!S3</f>
         <v>0.2</v>
       </c>
       <c r="T4" s="5">
-        <f>wzorzec!T4</f>
+        <f>wzorzec!T3</f>
         <v>23.7</v>
       </c>
       <c r="U4" s="5">
-        <f>wzorzec!U4</f>
+        <f>wzorzec!U3</f>
         <v>20.8</v>
       </c>
       <c r="V4" s="6">
-        <f>wzorzec!V4</f>
+        <f>wzorzec!V3</f>
         <v>96</v>
       </c>
     </row>
@@ -18359,87 +18254,87 @@
         <v>Bułgaria</v>
       </c>
       <c r="B5" s="6">
-        <f>wzorzec!B5</f>
+        <f>wzorzec!B4</f>
         <v>34</v>
       </c>
       <c r="C5" s="6">
-        <f>wzorzec!C5</f>
+        <f>wzorzec!C4</f>
         <v>131</v>
       </c>
       <c r="D5" s="5">
-        <f>wzorzec!D5</f>
+        <f>wzorzec!D4</f>
         <v>25</v>
       </c>
       <c r="E5" s="5">
-        <f>wzorzec!E5</f>
+        <f>wzorzec!E4</f>
         <v>37.700000000000003</v>
       </c>
       <c r="F5" s="5">
-        <f>wzorzec!F5</f>
+        <f>wzorzec!F4</f>
         <v>27</v>
       </c>
       <c r="G5" s="5">
-        <f>wzorzec!G5</f>
+        <f>wzorzec!G4</f>
         <v>6.7</v>
       </c>
       <c r="H5" s="5">
-        <f>wzorzec!H5</f>
+        <f>wzorzec!H4</f>
         <v>11.1</v>
       </c>
       <c r="I5" s="5">
-        <f>wzorzec!I5</f>
+        <f>wzorzec!I4</f>
         <v>17.100000000000001</v>
       </c>
       <c r="J5" s="5">
-        <f>wzorzec!J5</f>
+        <f>wzorzec!J4</f>
         <v>-9</v>
       </c>
       <c r="K5" s="5">
-        <f>wzorzec!K5</f>
+        <f>wzorzec!K4</f>
         <v>432</v>
       </c>
       <c r="L5" s="6">
-        <f>wzorzec!L5</f>
+        <f>wzorzec!L4</f>
         <v>19</v>
       </c>
       <c r="M5" s="6">
-        <f>wzorzec!M5</f>
+        <f>wzorzec!M4</f>
         <v>35.799999999999997</v>
       </c>
       <c r="N5" s="6">
-        <f>wzorzec!N5</f>
+        <f>wzorzec!N4</f>
         <v>1.1299999999999999</v>
       </c>
       <c r="O5" s="6">
-        <f>wzorzec!O5</f>
+        <f>wzorzec!O4</f>
         <v>0.88375000000000015</v>
       </c>
       <c r="P5" s="6">
-        <f>wzorzec!P5</f>
+        <f>wzorzec!P4</f>
         <v>2.8</v>
       </c>
       <c r="Q5" s="6">
-        <f>wzorzec!Q5</f>
+        <f>wzorzec!Q4</f>
         <v>20</v>
       </c>
       <c r="R5" s="6">
-        <f>wzorzec!R5</f>
+        <f>wzorzec!R4</f>
         <v>0</v>
       </c>
       <c r="S5" s="6">
-        <f>wzorzec!S5</f>
+        <f>wzorzec!S4</f>
         <v>0.19</v>
       </c>
       <c r="T5" s="5">
-        <f>wzorzec!T5</f>
+        <f>wzorzec!T4</f>
         <v>28.4</v>
       </c>
       <c r="U5" s="5">
-        <f>wzorzec!U5</f>
+        <f>wzorzec!U4</f>
         <v>48</v>
       </c>
       <c r="V5" s="6">
-        <f>wzorzec!V5</f>
+        <f>wzorzec!V4</f>
         <v>42.2</v>
       </c>
     </row>
@@ -18449,87 +18344,87 @@
         <v>Chorwacja</v>
       </c>
       <c r="B6" s="6">
-        <f>wzorzec!B6</f>
+        <f>wzorzec!B5</f>
         <v>37</v>
       </c>
       <c r="C6" s="6">
-        <f>wzorzec!C6</f>
+        <f>wzorzec!C5</f>
         <v>98.3</v>
       </c>
       <c r="D6" s="5">
-        <f>wzorzec!D6</f>
+        <f>wzorzec!D5</f>
         <v>529</v>
       </c>
       <c r="E6" s="5">
-        <f>wzorzec!E6</f>
+        <f>wzorzec!E5</f>
         <v>47.1</v>
       </c>
       <c r="F6" s="5">
-        <f>wzorzec!F6</f>
+        <f>wzorzec!F5</f>
         <v>4</v>
       </c>
       <c r="G6" s="5">
-        <f>wzorzec!G6</f>
+        <f>wzorzec!G5</f>
         <v>7</v>
       </c>
       <c r="H6" s="5">
-        <f>wzorzec!H6</f>
+        <f>wzorzec!H5</f>
         <v>10</v>
       </c>
       <c r="I6" s="5">
-        <f>wzorzec!I6</f>
+        <f>wzorzec!I5</f>
         <v>10</v>
       </c>
       <c r="J6" s="5">
-        <f>wzorzec!J6</f>
+        <f>wzorzec!J5</f>
         <v>3</v>
       </c>
       <c r="K6" s="5">
-        <f>wzorzec!K6</f>
+        <f>wzorzec!K5</f>
         <v>404</v>
       </c>
       <c r="L6" s="6">
-        <f>wzorzec!L6</f>
+        <f>wzorzec!L5</f>
         <v>28</v>
       </c>
       <c r="M6" s="6">
-        <f>wzorzec!M6</f>
+        <f>wzorzec!M5</f>
         <v>33</v>
       </c>
       <c r="N6" s="6">
-        <f>wzorzec!N6</f>
+        <f>wzorzec!N5</f>
         <v>3.13</v>
       </c>
       <c r="O6" s="6">
-        <f>wzorzec!O6</f>
+        <f>wzorzec!O5</f>
         <v>0.70499999999999996</v>
       </c>
       <c r="P6" s="6">
-        <f>wzorzec!P6</f>
+        <f>wzorzec!P5</f>
         <v>2.86</v>
       </c>
       <c r="Q6" s="6">
-        <f>wzorzec!Q6</f>
+        <f>wzorzec!Q5</f>
         <v>53</v>
       </c>
       <c r="R6" s="6">
-        <f>wzorzec!R6</f>
+        <f>wzorzec!R5</f>
         <v>0</v>
       </c>
       <c r="S6" s="6">
-        <f>wzorzec!S6</f>
+        <f>wzorzec!S5</f>
         <v>0.21</v>
       </c>
       <c r="T6" s="5">
-        <f>wzorzec!T6</f>
+        <f>wzorzec!T5</f>
         <v>49.9</v>
       </c>
       <c r="U6" s="5">
-        <f>wzorzec!U6</f>
+        <f>wzorzec!U5</f>
         <v>29.9</v>
       </c>
       <c r="V6" s="6">
-        <f>wzorzec!V6</f>
+        <f>wzorzec!V5</f>
         <v>48.333333333333336</v>
       </c>
     </row>
@@ -18539,87 +18434,87 @@
         <v>Cypr</v>
       </c>
       <c r="B7" s="6">
-        <f>wzorzec!B7</f>
+        <f>wzorzec!B6</f>
         <v>28</v>
       </c>
       <c r="C7" s="6">
-        <f>wzorzec!C7</f>
+        <f>wzorzec!C6</f>
         <v>173.2</v>
       </c>
       <c r="D7" s="5">
-        <f>wzorzec!D7</f>
+        <f>wzorzec!D6</f>
         <v>173</v>
       </c>
       <c r="E7" s="5">
-        <f>wzorzec!E7</f>
+        <f>wzorzec!E6</f>
         <v>96.3</v>
       </c>
       <c r="F7" s="5">
-        <f>wzorzec!F7</f>
+        <f>wzorzec!F6</f>
         <v>16</v>
       </c>
       <c r="G7" s="5">
-        <f>wzorzec!G7</f>
+        <f>wzorzec!G6</f>
         <v>2.1</v>
       </c>
       <c r="H7" s="5">
-        <f>wzorzec!H7</f>
+        <f>wzorzec!H6</f>
         <v>26.2</v>
       </c>
       <c r="I7" s="5">
-        <f>wzorzec!I7</f>
+        <f>wzorzec!I6</f>
         <v>13.9</v>
       </c>
       <c r="J7" s="5">
-        <f>wzorzec!J7</f>
+        <f>wzorzec!J6</f>
         <v>29</v>
       </c>
       <c r="K7" s="5">
-        <f>wzorzec!K7</f>
+        <f>wzorzec!K6</f>
         <v>618</v>
       </c>
       <c r="L7" s="6">
-        <f>wzorzec!L7</f>
+        <f>wzorzec!L6</f>
         <v>8.1</v>
       </c>
       <c r="M7" s="6">
-        <f>wzorzec!M7</f>
+        <f>wzorzec!M6</f>
         <v>235.8</v>
       </c>
       <c r="N7" s="6">
-        <f>wzorzec!N7</f>
+        <f>wzorzec!N6</f>
         <v>4.03</v>
       </c>
       <c r="O7" s="6">
-        <f>wzorzec!O7</f>
+        <f>wzorzec!O6</f>
         <v>0.24714285714285711</v>
       </c>
       <c r="P7" s="6">
-        <f>wzorzec!P7</f>
+        <f>wzorzec!P6</f>
         <v>2.72</v>
       </c>
       <c r="Q7" s="6">
-        <f>wzorzec!Q7</f>
+        <f>wzorzec!Q6</f>
         <v>33</v>
       </c>
       <c r="R7" s="6">
-        <f>wzorzec!R7</f>
+        <f>wzorzec!R6</f>
         <v>0</v>
       </c>
       <c r="S7" s="6">
-        <f>wzorzec!S7</f>
+        <f>wzorzec!S6</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T7" s="5">
-        <f>wzorzec!T7</f>
+        <f>wzorzec!T6</f>
         <v>38.9</v>
       </c>
       <c r="U7" s="5">
-        <f>wzorzec!U7</f>
+        <f>wzorzec!U6</f>
         <v>27.8</v>
       </c>
       <c r="V7" s="6">
-        <f>wzorzec!V7</f>
+        <f>wzorzec!V6</f>
         <v>144.90352633826882</v>
       </c>
     </row>
@@ -18629,87 +18524,87 @@
         <v>Czechy</v>
       </c>
       <c r="B8" s="6">
-        <f>wzorzec!B8</f>
+        <f>wzorzec!B7</f>
         <v>14</v>
       </c>
       <c r="C8" s="6">
-        <f>wzorzec!C8</f>
+        <f>wzorzec!C7</f>
         <v>159.19999999999999</v>
       </c>
       <c r="D8" s="5">
-        <f>wzorzec!D8</f>
+        <f>wzorzec!D7</f>
         <v>10</v>
       </c>
       <c r="E8" s="5">
-        <f>wzorzec!E8</f>
+        <f>wzorzec!E7</f>
         <v>27.7</v>
       </c>
       <c r="F8" s="5">
-        <f>wzorzec!F8</f>
+        <f>wzorzec!F7</f>
         <v>13.2</v>
       </c>
       <c r="G8" s="5">
-        <f>wzorzec!G8</f>
+        <f>wzorzec!G7</f>
         <v>3.6</v>
       </c>
       <c r="H8" s="5">
-        <f>wzorzec!H8</f>
+        <f>wzorzec!H7</f>
         <v>14.9</v>
       </c>
       <c r="I8" s="5">
-        <f>wzorzec!I8</f>
+        <f>wzorzec!I7</f>
         <v>14.8</v>
       </c>
       <c r="J8" s="5">
-        <f>wzorzec!J8</f>
+        <f>wzorzec!J7</f>
         <v>-3</v>
       </c>
       <c r="K8" s="5">
-        <f>wzorzec!K8</f>
+        <f>wzorzec!K7</f>
         <v>307</v>
       </c>
       <c r="L8" s="6">
-        <f>wzorzec!L8</f>
+        <f>wzorzec!L7</f>
         <v>13.8</v>
       </c>
       <c r="M8" s="6">
-        <f>wzorzec!M8</f>
+        <f>wzorzec!M7</f>
         <v>8</v>
       </c>
       <c r="N8" s="6">
-        <f>wzorzec!N8</f>
+        <f>wzorzec!N7</f>
         <v>13.47</v>
       </c>
       <c r="O8" s="6">
-        <f>wzorzec!O8</f>
+        <f>wzorzec!O7</f>
         <v>0.8337500000000001</v>
       </c>
       <c r="P8" s="6">
-        <f>wzorzec!P8</f>
+        <f>wzorzec!P7</f>
         <v>2.13</v>
       </c>
       <c r="Q8" s="6">
-        <f>wzorzec!Q8</f>
+        <f>wzorzec!Q7</f>
         <v>66</v>
       </c>
       <c r="R8" s="6">
-        <f>wzorzec!R8</f>
+        <f>wzorzec!R7</f>
         <v>7.33</v>
       </c>
       <c r="S8" s="6">
-        <f>wzorzec!S8</f>
+        <f>wzorzec!S7</f>
         <v>0.35</v>
       </c>
       <c r="T8" s="5">
-        <f>wzorzec!T8</f>
+        <f>wzorzec!T7</f>
         <v>18.899999999999999</v>
       </c>
       <c r="U8" s="5">
-        <f>wzorzec!U8</f>
+        <f>wzorzec!U7</f>
         <v>14.6</v>
       </c>
       <c r="V8" s="6">
-        <f>wzorzec!V8</f>
+        <f>wzorzec!V7</f>
         <v>96.4</v>
       </c>
     </row>
@@ -18719,87 +18614,87 @@
         <v>Dania</v>
       </c>
       <c r="B9" s="6">
-        <f>wzorzec!B9</f>
+        <f>wzorzec!B8</f>
         <v>8</v>
       </c>
       <c r="C9" s="6">
-        <f>wzorzec!C9</f>
+        <f>wzorzec!C8</f>
         <v>122.9</v>
       </c>
       <c r="D9" s="5">
-        <f>wzorzec!D9</f>
+        <f>wzorzec!D8</f>
         <v>231.76190476190476</v>
       </c>
       <c r="E9" s="5">
-        <f>wzorzec!E9</f>
+        <f>wzorzec!E8</f>
         <v>12.3</v>
       </c>
       <c r="F9" s="5">
-        <f>wzorzec!F9</f>
+        <f>wzorzec!F8</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="G9" s="5">
-        <f>wzorzec!G9</f>
+        <f>wzorzec!G8</f>
         <v>5.6</v>
       </c>
       <c r="H9" s="5">
-        <f>wzorzec!H9</f>
+        <f>wzorzec!H8</f>
         <v>15.6</v>
       </c>
       <c r="I9" s="5">
-        <f>wzorzec!I9</f>
+        <f>wzorzec!I8</f>
         <v>21.9</v>
       </c>
       <c r="J9" s="5">
-        <f>wzorzec!J9</f>
+        <f>wzorzec!J8</f>
         <v>8</v>
       </c>
       <c r="K9" s="5">
-        <f>wzorzec!K9</f>
+        <f>wzorzec!K8</f>
         <v>790</v>
       </c>
       <c r="L9" s="6">
-        <f>wzorzec!L9</f>
+        <f>wzorzec!L8</f>
         <v>27.4</v>
       </c>
       <c r="M9" s="6">
-        <f>wzorzec!M9</f>
+        <f>wzorzec!M8</f>
         <v>3.9</v>
       </c>
       <c r="N9" s="6">
-        <f>wzorzec!N9</f>
+        <f>wzorzec!N8</f>
         <v>6.44</v>
       </c>
       <c r="O9" s="6">
-        <f>wzorzec!O9</f>
+        <f>wzorzec!O8</f>
         <v>0.40624999999999994</v>
       </c>
       <c r="P9" s="6">
-        <f>wzorzec!P9</f>
+        <f>wzorzec!P8</f>
         <v>4.1399999999999997</v>
       </c>
       <c r="Q9" s="6">
-        <f>wzorzec!Q9</f>
+        <f>wzorzec!Q8</f>
         <v>129</v>
       </c>
       <c r="R9" s="6">
-        <f>wzorzec!R9</f>
+        <f>wzorzec!R8</f>
         <v>8.17</v>
       </c>
       <c r="S9" s="6">
-        <f>wzorzec!S9</f>
+        <f>wzorzec!S8</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T9" s="5">
-        <f>wzorzec!T9</f>
+        <f>wzorzec!T8</f>
         <v>13</v>
       </c>
       <c r="U9" s="5">
-        <f>wzorzec!U9</f>
+        <f>wzorzec!U8</f>
         <v>18.3</v>
       </c>
       <c r="V9" s="6">
-        <f>wzorzec!V9</f>
+        <f>wzorzec!V8</f>
         <v>65</v>
       </c>
     </row>
@@ -18809,87 +18704,87 @@
         <v>Estonia</v>
       </c>
       <c r="B10" s="6">
-        <f>wzorzec!B10</f>
+        <f>wzorzec!B9</f>
         <v>18</v>
       </c>
       <c r="C10" s="6">
-        <f>wzorzec!C10</f>
+        <f>wzorzec!C9</f>
         <v>95</v>
       </c>
       <c r="D10" s="5">
-        <f>wzorzec!D10</f>
+        <f>wzorzec!D9</f>
         <v>219</v>
       </c>
       <c r="E10" s="5">
-        <f>wzorzec!E10</f>
+        <f>wzorzec!E9</f>
         <v>11.9</v>
       </c>
       <c r="F10" s="5">
-        <f>wzorzec!F10</f>
+        <f>wzorzec!F9</f>
         <v>27.7</v>
       </c>
       <c r="G10" s="5">
-        <f>wzorzec!G10</f>
+        <f>wzorzec!G9</f>
         <v>13.3</v>
       </c>
       <c r="H10" s="5">
-        <f>wzorzec!H10</f>
+        <f>wzorzec!H9</f>
         <v>10.8</v>
       </c>
       <c r="I10" s="5">
-        <f>wzorzec!I10</f>
+        <f>wzorzec!I9</f>
         <v>28.8</v>
       </c>
       <c r="J10" s="5">
-        <f>wzorzec!J10</f>
+        <f>wzorzec!J9</f>
         <v>-8</v>
       </c>
       <c r="K10" s="5">
-        <f>wzorzec!K10</f>
+        <f>wzorzec!K9</f>
         <v>293</v>
       </c>
       <c r="L10" s="6">
-        <f>wzorzec!L10</f>
+        <f>wzorzec!L9</f>
         <v>25.6</v>
       </c>
       <c r="M10" s="6">
-        <f>wzorzec!M10</f>
+        <f>wzorzec!M9</f>
         <v>12</v>
       </c>
       <c r="N10" s="6">
-        <f>wzorzec!N10</f>
+        <f>wzorzec!N9</f>
         <v>15.65</v>
       </c>
       <c r="O10" s="6">
-        <f>wzorzec!O10</f>
+        <f>wzorzec!O9</f>
         <v>0.53999999999999992</v>
       </c>
       <c r="P10" s="6">
-        <f>wzorzec!P10</f>
+        <f>wzorzec!P9</f>
         <v>2.56</v>
       </c>
       <c r="Q10" s="6">
-        <f>wzorzec!Q10</f>
+        <f>wzorzec!Q9</f>
         <v>56</v>
       </c>
       <c r="R10" s="6">
-        <f>wzorzec!R10</f>
+        <f>wzorzec!R9</f>
         <v>0</v>
       </c>
       <c r="S10" s="6">
-        <f>wzorzec!S10</f>
+        <f>wzorzec!S9</f>
         <v>0.15</v>
       </c>
       <c r="T10" s="5">
-        <f>wzorzec!T10</f>
+        <f>wzorzec!T9</f>
         <v>18.7</v>
       </c>
       <c r="U10" s="5">
-        <f>wzorzec!U10</f>
+        <f>wzorzec!U9</f>
         <v>23.5</v>
       </c>
       <c r="V10" s="6">
-        <f>wzorzec!V10</f>
+        <f>wzorzec!V9</f>
         <v>28.25</v>
       </c>
     </row>
@@ -18899,87 +18794,87 @@
         <v>Finlandia</v>
       </c>
       <c r="B11" s="6">
-        <f>wzorzec!B11</f>
+        <f>wzorzec!B10</f>
         <v>14</v>
       </c>
       <c r="C11" s="6">
-        <f>wzorzec!C11</f>
+        <f>wzorzec!C10</f>
         <v>102.1</v>
       </c>
       <c r="D11" s="5">
-        <f>wzorzec!D11</f>
+        <f>wzorzec!D10</f>
         <v>231.76190476190476</v>
       </c>
       <c r="E11" s="5">
-        <f>wzorzec!E11</f>
+        <f>wzorzec!E10</f>
         <v>48.6</v>
       </c>
       <c r="F11" s="5">
-        <f>wzorzec!F11</f>
+        <f>wzorzec!F10</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="G11" s="5">
-        <f>wzorzec!G11</f>
+        <f>wzorzec!G10</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="H11" s="5">
-        <f>wzorzec!H11</f>
+        <f>wzorzec!H10</f>
         <v>13.4</v>
       </c>
       <c r="I11" s="5">
-        <f>wzorzec!I11</f>
+        <f>wzorzec!I10</f>
         <v>37.299999999999997</v>
       </c>
       <c r="J11" s="5">
-        <f>wzorzec!J11</f>
+        <f>wzorzec!J10</f>
         <v>4</v>
       </c>
       <c r="K11" s="5">
-        <f>wzorzec!K11</f>
+        <f>wzorzec!K10</f>
         <v>493</v>
       </c>
       <c r="L11" s="6">
-        <f>wzorzec!L11</f>
+        <f>wzorzec!L10</f>
         <v>36.700000000000003</v>
       </c>
       <c r="M11" s="6">
-        <f>wzorzec!M11</f>
+        <f>wzorzec!M10</f>
         <v>69.400000000000006</v>
       </c>
       <c r="N11" s="6">
-        <f>wzorzec!N11</f>
+        <f>wzorzec!N10</f>
         <v>9.07</v>
       </c>
       <c r="O11" s="6">
-        <f>wzorzec!O11</f>
+        <f>wzorzec!O10</f>
         <v>0.40285714285714291</v>
       </c>
       <c r="P11" s="6">
-        <f>wzorzec!P11</f>
+        <f>wzorzec!P10</f>
         <v>2.93</v>
       </c>
       <c r="Q11" s="6">
-        <f>wzorzec!Q11</f>
+        <f>wzorzec!Q10</f>
         <v>133</v>
       </c>
       <c r="R11" s="6">
-        <f>wzorzec!R11</f>
+        <f>wzorzec!R10</f>
         <v>14.42</v>
       </c>
       <c r="S11" s="6">
-        <f>wzorzec!S11</f>
+        <f>wzorzec!S10</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T11" s="5">
-        <f>wzorzec!T11</f>
+        <f>wzorzec!T10</f>
         <v>19.899999999999999</v>
       </c>
       <c r="U11" s="5">
-        <f>wzorzec!U11</f>
+        <f>wzorzec!U10</f>
         <v>16</v>
       </c>
       <c r="V11" s="6">
-        <f>wzorzec!V11</f>
+        <f>wzorzec!V10</f>
         <v>132.69999999999999</v>
       </c>
     </row>
@@ -18989,87 +18884,87 @@
         <v>Francja</v>
       </c>
       <c r="B12" s="6">
-        <f>wzorzec!B12</f>
+        <f>wzorzec!B11</f>
         <v>13</v>
       </c>
       <c r="C12" s="6">
-        <f>wzorzec!C12</f>
+        <f>wzorzec!C11</f>
         <v>131.19999999999999</v>
       </c>
       <c r="D12" s="5">
-        <f>wzorzec!D12</f>
+        <f>wzorzec!D11</f>
         <v>904</v>
       </c>
       <c r="E12" s="5">
-        <f>wzorzec!E12</f>
+        <f>wzorzec!E11</f>
         <v>47.9</v>
       </c>
       <c r="F12" s="5">
-        <f>wzorzec!F12</f>
+        <f>wzorzec!F11</f>
         <v>3</v>
       </c>
       <c r="G12" s="5">
-        <f>wzorzec!G12</f>
+        <f>wzorzec!G11</f>
         <v>4.5</v>
       </c>
       <c r="H12" s="5">
-        <f>wzorzec!H12</f>
+        <f>wzorzec!H11</f>
         <v>16.2</v>
       </c>
       <c r="I12" s="5">
-        <f>wzorzec!I12</f>
+        <f>wzorzec!I11</f>
         <v>12</v>
       </c>
       <c r="J12" s="5">
-        <f>wzorzec!J12</f>
+        <f>wzorzec!J11</f>
         <v>2</v>
       </c>
       <c r="K12" s="5">
-        <f>wzorzec!K12</f>
+        <f>wzorzec!K11</f>
         <v>520</v>
       </c>
       <c r="L12" s="6">
-        <f>wzorzec!L12</f>
+        <f>wzorzec!L11</f>
         <v>14.1</v>
       </c>
       <c r="M12" s="6">
-        <f>wzorzec!M12</f>
+        <f>wzorzec!M11</f>
         <v>152.19999999999999</v>
       </c>
       <c r="N12" s="6">
-        <f>wzorzec!N12</f>
+        <f>wzorzec!N11</f>
         <v>3.66</v>
       </c>
       <c r="O12" s="6">
-        <f>wzorzec!O12</f>
+        <f>wzorzec!O11</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="P12" s="6">
-        <f>wzorzec!P12</f>
+        <f>wzorzec!P11</f>
         <v>2.0299999999999998</v>
       </c>
       <c r="Q12" s="6">
-        <f>wzorzec!Q12</f>
+        <f>wzorzec!Q11</f>
         <v>113</v>
       </c>
       <c r="R12" s="6">
-        <f>wzorzec!R12</f>
+        <f>wzorzec!R11</f>
         <v>53.73</v>
       </c>
       <c r="S12" s="6">
-        <f>wzorzec!S12</f>
+        <f>wzorzec!S11</f>
         <v>0.28999999999999998</v>
       </c>
       <c r="T12" s="5">
-        <f>wzorzec!T12</f>
+        <f>wzorzec!T11</f>
         <v>24.9</v>
       </c>
       <c r="U12" s="5">
-        <f>wzorzec!U12</f>
+        <f>wzorzec!U11</f>
         <v>18.100000000000001</v>
       </c>
       <c r="V12" s="6">
-        <f>wzorzec!V12</f>
+        <f>wzorzec!V11</f>
         <v>444.2</v>
       </c>
     </row>
@@ -19079,87 +18974,87 @@
         <v>Grecja</v>
       </c>
       <c r="B13" s="6">
-        <f>wzorzec!B13</f>
+        <f>wzorzec!B12</f>
         <v>27</v>
       </c>
       <c r="C13" s="6">
-        <f>wzorzec!C13</f>
+        <f>wzorzec!C12</f>
         <v>110.3</v>
       </c>
       <c r="D13" s="5">
-        <f>wzorzec!D13</f>
+        <f>wzorzec!D12</f>
         <v>246</v>
       </c>
       <c r="E13" s="5">
-        <f>wzorzec!E13</f>
+        <f>wzorzec!E12</f>
         <v>62.2</v>
       </c>
       <c r="F13" s="5">
-        <f>wzorzec!F13</f>
+        <f>wzorzec!F12</f>
         <v>12.8</v>
       </c>
       <c r="G13" s="5">
-        <f>wzorzec!G13</f>
+        <f>wzorzec!G12</f>
         <v>5.8</v>
       </c>
       <c r="H13" s="5">
-        <f>wzorzec!H13</f>
+        <f>wzorzec!H12</f>
         <v>24.2</v>
       </c>
       <c r="I13" s="5">
-        <f>wzorzec!I13</f>
+        <f>wzorzec!I12</f>
         <v>12.3</v>
       </c>
       <c r="J13" s="5">
-        <f>wzorzec!J13</f>
+        <f>wzorzec!J12</f>
         <v>2</v>
       </c>
       <c r="K13" s="5">
-        <f>wzorzec!K13</f>
+        <f>wzorzec!K12</f>
         <v>482</v>
       </c>
       <c r="L13" s="6">
-        <f>wzorzec!L13</f>
+        <f>wzorzec!L12</f>
         <v>15</v>
       </c>
       <c r="M13" s="6">
-        <f>wzorzec!M13</f>
+        <f>wzorzec!M12</f>
         <v>12.8</v>
       </c>
       <c r="N13" s="6">
-        <f>wzorzec!N13</f>
+        <f>wzorzec!N12</f>
         <v>7.36</v>
       </c>
       <c r="O13" s="6">
-        <f>wzorzec!O13</f>
+        <f>wzorzec!O12</f>
         <v>0.40624999999999994</v>
       </c>
       <c r="P13" s="6">
-        <f>wzorzec!P13</f>
+        <f>wzorzec!P12</f>
         <v>3.65</v>
       </c>
       <c r="Q13" s="6">
-        <f>wzorzec!Q13</f>
+        <f>wzorzec!Q12</f>
         <v>61</v>
       </c>
       <c r="R13" s="6">
-        <f>wzorzec!R13</f>
+        <f>wzorzec!R12</f>
         <v>1</v>
       </c>
       <c r="S13" s="6">
-        <f>wzorzec!S13</f>
+        <f>wzorzec!S12</f>
         <v>0.23</v>
       </c>
       <c r="T13" s="5">
-        <f>wzorzec!T13</f>
+        <f>wzorzec!T12</f>
         <v>58.3</v>
       </c>
       <c r="U13" s="5">
-        <f>wzorzec!U13</f>
+        <f>wzorzec!U12</f>
         <v>35.700000000000003</v>
       </c>
       <c r="V13" s="6">
-        <f>wzorzec!V13</f>
+        <f>wzorzec!V12</f>
         <v>145.53229055046864</v>
       </c>
     </row>
@@ -19169,87 +19064,87 @@
         <v>Hiszpania</v>
       </c>
       <c r="B14" s="6">
-        <f>wzorzec!B14</f>
+        <f>wzorzec!B13</f>
         <v>27</v>
       </c>
       <c r="C14" s="6">
-        <f>wzorzec!C14</f>
+        <f>wzorzec!C13</f>
         <v>209.2</v>
       </c>
       <c r="D14" s="5">
-        <f>wzorzec!D14</f>
+        <f>wzorzec!D13</f>
         <v>64</v>
       </c>
       <c r="E14" s="5">
-        <f>wzorzec!E14</f>
+        <f>wzorzec!E13</f>
         <v>70.400000000000006</v>
       </c>
       <c r="F14" s="5">
-        <f>wzorzec!F14</f>
+        <f>wzorzec!F13</f>
         <v>5.6</v>
       </c>
       <c r="G14" s="5">
-        <f>wzorzec!G14</f>
+        <f>wzorzec!G13</f>
         <v>3.6</v>
       </c>
       <c r="H14" s="5">
-        <f>wzorzec!H14</f>
+        <f>wzorzec!H13</f>
         <v>18.3</v>
       </c>
       <c r="I14" s="5">
-        <f>wzorzec!I14</f>
+        <f>wzorzec!I13</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="J14" s="5">
-        <f>wzorzec!J14</f>
+        <f>wzorzec!J13</f>
         <v>0</v>
       </c>
       <c r="K14" s="5">
-        <f>wzorzec!K14</f>
+        <f>wzorzec!K13</f>
         <v>454</v>
       </c>
       <c r="L14" s="6">
-        <f>wzorzec!L14</f>
+        <f>wzorzec!L13</f>
         <v>15.3</v>
       </c>
       <c r="M14" s="6">
-        <f>wzorzec!M14</f>
+        <f>wzorzec!M13</f>
         <v>135.1</v>
       </c>
       <c r="N14" s="6">
-        <f>wzorzec!N14</f>
+        <f>wzorzec!N13</f>
         <v>6.85</v>
       </c>
       <c r="O14" s="6">
-        <f>wzorzec!O14</f>
+        <f>wzorzec!O13</f>
         <v>0.25571428571428573</v>
       </c>
       <c r="P14" s="6">
-        <f>wzorzec!P14</f>
+        <f>wzorzec!P13</f>
         <v>1.91</v>
       </c>
       <c r="Q14" s="6">
-        <f>wzorzec!Q14</f>
+        <f>wzorzec!Q13</f>
         <v>120</v>
       </c>
       <c r="R14" s="6">
-        <f>wzorzec!R14</f>
+        <f>wzorzec!R13</f>
         <v>28.65</v>
       </c>
       <c r="S14" s="6">
-        <f>wzorzec!S14</f>
+        <f>wzorzec!S13</f>
         <v>0.24</v>
       </c>
       <c r="T14" s="5">
-        <f>wzorzec!T14</f>
+        <f>wzorzec!T13</f>
         <v>55.5</v>
       </c>
       <c r="U14" s="5">
-        <f>wzorzec!U14</f>
+        <f>wzorzec!U13</f>
         <v>27.3</v>
       </c>
       <c r="V14" s="6">
-        <f>wzorzec!V14</f>
+        <f>wzorzec!V13</f>
         <v>259.75</v>
       </c>
     </row>
@@ -19259,87 +19154,87 @@
         <v>Holandia</v>
       </c>
       <c r="B15" s="6">
-        <f>wzorzec!B15</f>
+        <f>wzorzec!B14</f>
         <v>13</v>
       </c>
       <c r="C15" s="6">
-        <f>wzorzec!C15</f>
+        <f>wzorzec!C14</f>
         <v>135.69999999999999</v>
       </c>
       <c r="D15" s="5">
-        <f>wzorzec!D15</f>
+        <f>wzorzec!D14</f>
         <v>2</v>
       </c>
       <c r="E15" s="5">
-        <f>wzorzec!E15</f>
+        <f>wzorzec!E14</f>
         <v>25.7</v>
       </c>
       <c r="F15" s="5">
-        <f>wzorzec!F15</f>
+        <f>wzorzec!F14</f>
         <v>1.8</v>
       </c>
       <c r="G15" s="5">
-        <f>wzorzec!G15</f>
+        <f>wzorzec!G14</f>
         <v>1.6</v>
       </c>
       <c r="H15" s="5">
-        <f>wzorzec!H15</f>
+        <f>wzorzec!H14</f>
         <v>24.1</v>
       </c>
       <c r="I15" s="5">
-        <f>wzorzec!I15</f>
+        <f>wzorzec!I14</f>
         <v>10.1</v>
       </c>
       <c r="J15" s="5">
-        <f>wzorzec!J15</f>
+        <f>wzorzec!J14</f>
         <v>5</v>
       </c>
       <c r="K15" s="5">
-        <f>wzorzec!K15</f>
+        <f>wzorzec!K14</f>
         <v>526</v>
       </c>
       <c r="L15" s="6">
-        <f>wzorzec!L15</f>
+        <f>wzorzec!L14</f>
         <v>4.8</v>
       </c>
       <c r="M15" s="6">
-        <f>wzorzec!M15</f>
+        <f>wzorzec!M14</f>
         <v>0.4</v>
       </c>
       <c r="N15" s="6">
-        <f>wzorzec!N15</f>
+        <f>wzorzec!N14</f>
         <v>2.65</v>
       </c>
       <c r="O15" s="6">
-        <f>wzorzec!O15</f>
+        <f>wzorzec!O14</f>
         <v>0.30333333333333329</v>
       </c>
       <c r="P15" s="6">
-        <f>wzorzec!P15</f>
+        <f>wzorzec!P14</f>
         <v>3.3</v>
       </c>
       <c r="Q15" s="6">
-        <f>wzorzec!Q15</f>
+        <f>wzorzec!Q14</f>
         <v>96</v>
       </c>
       <c r="R15" s="6">
-        <f>wzorzec!R15</f>
+        <f>wzorzec!R14</f>
         <v>13.98</v>
       </c>
       <c r="S15" s="6">
-        <f>wzorzec!S15</f>
+        <f>wzorzec!S14</f>
         <v>0.24</v>
       </c>
       <c r="T15" s="5">
-        <f>wzorzec!T15</f>
+        <f>wzorzec!T14</f>
         <v>13.2</v>
       </c>
       <c r="U15" s="5">
-        <f>wzorzec!U15</f>
+        <f>wzorzec!U14</f>
         <v>15.9</v>
       </c>
       <c r="V15" s="6">
-        <f>wzorzec!V15</f>
+        <f>wzorzec!V14</f>
         <v>130.75</v>
       </c>
     </row>
@@ -19349,87 +19244,87 @@
         <v>Irlandia</v>
       </c>
       <c r="B16" s="6">
-        <f>wzorzec!B16</f>
+        <f>wzorzec!B15</f>
         <v>13</v>
       </c>
       <c r="C16" s="6">
-        <f>wzorzec!C16</f>
+        <f>wzorzec!C15</f>
         <v>180.8</v>
       </c>
       <c r="D16" s="5">
-        <f>wzorzec!D16</f>
+        <f>wzorzec!D15</f>
         <v>67</v>
       </c>
       <c r="E16" s="5">
-        <f>wzorzec!E16</f>
+        <f>wzorzec!E15</f>
         <v>89.1</v>
       </c>
       <c r="F16" s="5">
-        <f>wzorzec!F16</f>
+        <f>wzorzec!F15</f>
         <v>5.5</v>
       </c>
       <c r="G16" s="5">
-        <f>wzorzec!G16</f>
+        <f>wzorzec!G15</f>
         <v>5.5</v>
       </c>
       <c r="H16" s="5">
-        <f>wzorzec!H16</f>
+        <f>wzorzec!H15</f>
         <v>9.4</v>
       </c>
       <c r="I16" s="5">
-        <f>wzorzec!I16</f>
+        <f>wzorzec!I15</f>
         <v>21.8</v>
       </c>
       <c r="J16" s="5">
-        <f>wzorzec!J16</f>
+        <f>wzorzec!J15</f>
         <v>4</v>
       </c>
       <c r="K16" s="5">
-        <f>wzorzec!K16</f>
+        <f>wzorzec!K15</f>
         <v>582</v>
       </c>
       <c r="L16" s="6">
-        <f>wzorzec!L16</f>
+        <f>wzorzec!L15</f>
         <v>7.7</v>
       </c>
       <c r="M16" s="6">
-        <f>wzorzec!M16</f>
+        <f>wzorzec!M15</f>
         <v>13.5</v>
       </c>
       <c r="N16" s="6">
-        <f>wzorzec!N16</f>
+        <f>wzorzec!N15</f>
         <v>1.2</v>
       </c>
       <c r="O16" s="6">
-        <f>wzorzec!O16</f>
+        <f>wzorzec!O15</f>
         <v>0.40624999999999994</v>
       </c>
       <c r="P16" s="6">
-        <f>wzorzec!P16</f>
+        <f>wzorzec!P15</f>
         <v>2.46</v>
       </c>
       <c r="Q16" s="6">
-        <f>wzorzec!Q16</f>
+        <f>wzorzec!Q15</f>
         <v>96</v>
       </c>
       <c r="R16" s="6">
-        <f>wzorzec!R16</f>
+        <f>wzorzec!R15</f>
         <v>2</v>
       </c>
       <c r="S16" s="6">
-        <f>wzorzec!S16</f>
+        <f>wzorzec!S15</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T16" s="5">
-        <f>wzorzec!T16</f>
+        <f>wzorzec!T15</f>
         <v>26.7</v>
       </c>
       <c r="U16" s="5">
-        <f>wzorzec!U16</f>
+        <f>wzorzec!U15</f>
         <v>29.9</v>
       </c>
       <c r="V16" s="6">
-        <f>wzorzec!V16</f>
+        <f>wzorzec!V15</f>
         <v>16.2</v>
       </c>
     </row>
@@ -19439,87 +19334,87 @@
         <v>Litwa</v>
       </c>
       <c r="B17" s="6">
-        <f>wzorzec!B17</f>
+        <f>wzorzec!B16</f>
         <v>12</v>
       </c>
       <c r="C17" s="6">
-        <f>wzorzec!C17</f>
+        <f>wzorzec!C16</f>
         <v>109.7</v>
       </c>
       <c r="D17" s="5">
-        <f>wzorzec!D17</f>
+        <f>wzorzec!D16</f>
         <v>116</v>
       </c>
       <c r="E17" s="5">
-        <f>wzorzec!E17</f>
+        <f>wzorzec!E16</f>
         <v>78.3</v>
       </c>
       <c r="F17" s="5">
-        <f>wzorzec!F17</f>
+        <f>wzorzec!F16</f>
         <v>6.4</v>
       </c>
       <c r="G17" s="5">
-        <f>wzorzec!G17</f>
+        <f>wzorzec!G16</f>
         <v>8.9</v>
       </c>
       <c r="H17" s="5">
-        <f>wzorzec!H17</f>
+        <f>wzorzec!H16</f>
         <v>14.1</v>
       </c>
       <c r="I17" s="5">
-        <f>wzorzec!I17</f>
+        <f>wzorzec!I16</f>
         <v>15.7</v>
       </c>
       <c r="J17" s="5">
-        <f>wzorzec!J17</f>
+        <f>wzorzec!J16</f>
         <v>2</v>
       </c>
       <c r="K17" s="5">
-        <f>wzorzec!K17</f>
+        <f>wzorzec!K16</f>
         <v>433</v>
       </c>
       <c r="L17" s="6">
-        <f>wzorzec!L17</f>
+        <f>wzorzec!L16</f>
         <v>22.7</v>
       </c>
       <c r="M17" s="6">
-        <f>wzorzec!M17</f>
+        <f>wzorzec!M16</f>
         <v>11.1</v>
       </c>
       <c r="N17" s="6">
-        <f>wzorzec!N17</f>
+        <f>wzorzec!N16</f>
         <v>5.74</v>
       </c>
       <c r="O17" s="6">
-        <f>wzorzec!O17</f>
+        <f>wzorzec!O16</f>
         <v>0.39874999999999999</v>
       </c>
       <c r="P17" s="6">
-        <f>wzorzec!P17</f>
+        <f>wzorzec!P16</f>
         <v>1.68</v>
       </c>
       <c r="Q17" s="6">
-        <f>wzorzec!Q17</f>
+        <f>wzorzec!Q16</f>
         <v>63</v>
       </c>
       <c r="R17" s="6">
-        <f>wzorzec!R17</f>
+        <f>wzorzec!R16</f>
         <v>1</v>
       </c>
       <c r="S17" s="6">
-        <f>wzorzec!S17</f>
+        <f>wzorzec!S16</f>
         <v>0.19</v>
       </c>
       <c r="T17" s="5">
-        <f>wzorzec!T17</f>
+        <f>wzorzec!T16</f>
         <v>21.9</v>
       </c>
       <c r="U17" s="5">
-        <f>wzorzec!U17</f>
+        <f>wzorzec!U16</f>
         <v>30.8</v>
       </c>
       <c r="V17" s="6">
-        <f>wzorzec!V17</f>
+        <f>wzorzec!V16</f>
         <v>38.200000000000003</v>
       </c>
     </row>
@@ -19529,87 +19424,87 @@
         <v>Luksemburg</v>
       </c>
       <c r="B18" s="6">
-        <f>wzorzec!B18</f>
+        <f>wzorzec!B17</f>
         <v>18</v>
       </c>
       <c r="C18" s="6">
-        <f>wzorzec!C18</f>
+        <f>wzorzec!C17</f>
         <v>136.5</v>
       </c>
       <c r="D18" s="5">
-        <f>wzorzec!D18</f>
+        <f>wzorzec!D17</f>
         <v>75</v>
       </c>
       <c r="E18" s="5">
-        <f>wzorzec!E18</f>
+        <f>wzorzec!E17</f>
         <v>97.1</v>
       </c>
       <c r="F18" s="5">
-        <f>wzorzec!F18</f>
+        <f>wzorzec!F17</f>
         <v>2.8</v>
       </c>
       <c r="G18" s="5">
-        <f>wzorzec!G18</f>
+        <f>wzorzec!G17</f>
         <v>4</v>
       </c>
       <c r="H18" s="5">
-        <f>wzorzec!H18</f>
+        <f>wzorzec!H17</f>
         <v>18.5</v>
       </c>
       <c r="I18" s="5">
-        <f>wzorzec!I18</f>
+        <f>wzorzec!I17</f>
         <v>20.8</v>
       </c>
       <c r="J18" s="5">
-        <f>wzorzec!J18</f>
+        <f>wzorzec!J17</f>
         <v>4</v>
       </c>
       <c r="K18" s="5">
-        <f>wzorzec!K18</f>
+        <f>wzorzec!K17</f>
         <v>616</v>
       </c>
       <c r="L18" s="6">
-        <f>wzorzec!L18</f>
+        <f>wzorzec!L17</f>
         <v>3.5</v>
       </c>
       <c r="M18" s="6">
-        <f>wzorzec!M18</f>
+        <f>wzorzec!M17</f>
         <v>1.3</v>
       </c>
       <c r="N18" s="6">
-        <f>wzorzec!N18</f>
+        <f>wzorzec!N17</f>
         <v>3.39</v>
       </c>
       <c r="O18" s="6">
-        <f>wzorzec!O18</f>
+        <f>wzorzec!O17</f>
         <v>0.40624999999999994</v>
       </c>
       <c r="P18" s="6">
-        <f>wzorzec!P18</f>
+        <f>wzorzec!P17</f>
         <v>2.16</v>
       </c>
       <c r="Q18" s="6">
-        <f>wzorzec!Q18</f>
+        <f>wzorzec!Q17</f>
         <v>114</v>
       </c>
       <c r="R18" s="6">
-        <f>wzorzec!R18</f>
+        <f>wzorzec!R17</f>
         <v>3.26</v>
       </c>
       <c r="S18" s="6">
-        <f>wzorzec!S18</f>
+        <f>wzorzec!S17</f>
         <v>0.38</v>
       </c>
       <c r="T18" s="5">
-        <f>wzorzec!T18</f>
+        <f>wzorzec!T17</f>
         <v>16.899999999999999</v>
       </c>
       <c r="U18" s="5">
-        <f>wzorzec!U18</f>
+        <f>wzorzec!U17</f>
         <v>19</v>
       </c>
       <c r="V18" s="6">
-        <f>wzorzec!V18</f>
+        <f>wzorzec!V17</f>
         <v>9.64</v>
       </c>
     </row>
@@ -19619,87 +19514,87 @@
         <v>Łotwa</v>
       </c>
       <c r="B19" s="6">
-        <f>wzorzec!B19</f>
+        <f>wzorzec!B18</f>
         <v>12</v>
       </c>
       <c r="C19" s="6">
-        <f>wzorzec!C19</f>
+        <f>wzorzec!C18</f>
         <v>136.80000000000001</v>
       </c>
       <c r="D19" s="5">
-        <f>wzorzec!D19</f>
+        <f>wzorzec!D18</f>
         <v>1</v>
       </c>
       <c r="E19" s="5">
-        <f>wzorzec!E19</f>
+        <f>wzorzec!E18</f>
         <v>55.9</v>
       </c>
       <c r="F19" s="5">
-        <f>wzorzec!F19</f>
+        <f>wzorzec!F18</f>
         <v>2</v>
       </c>
       <c r="G19" s="5">
-        <f>wzorzec!G19</f>
+        <f>wzorzec!G18</f>
         <v>11.3</v>
       </c>
       <c r="H19" s="5">
-        <f>wzorzec!H19</f>
+        <f>wzorzec!H18</f>
         <v>14.8</v>
       </c>
       <c r="I19" s="5">
-        <f>wzorzec!I19</f>
+        <f>wzorzec!I18</f>
         <v>20.8</v>
       </c>
       <c r="J19" s="5">
-        <f>wzorzec!J19</f>
+        <f>wzorzec!J18</f>
         <v>3</v>
       </c>
       <c r="K19" s="5">
-        <f>wzorzec!K19</f>
+        <f>wzorzec!K18</f>
         <v>350</v>
       </c>
       <c r="L19" s="6">
-        <f>wzorzec!L19</f>
+        <f>wzorzec!L18</f>
         <v>37.1</v>
       </c>
       <c r="M19" s="6">
-        <f>wzorzec!M19</f>
+        <f>wzorzec!M18</f>
         <v>29.2</v>
       </c>
       <c r="N19" s="6">
-        <f>wzorzec!N19</f>
+        <f>wzorzec!N18</f>
         <v>9.89</v>
       </c>
       <c r="O19" s="6">
-        <f>wzorzec!O19</f>
+        <f>wzorzec!O18</f>
         <v>0.31374999999999997</v>
       </c>
       <c r="P19" s="6">
-        <f>wzorzec!P19</f>
+        <f>wzorzec!P18</f>
         <v>3.36</v>
       </c>
       <c r="Q19" s="6">
-        <f>wzorzec!Q19</f>
+        <f>wzorzec!Q18</f>
         <v>43</v>
       </c>
       <c r="R19" s="6">
-        <f>wzorzec!R19</f>
+        <f>wzorzec!R18</f>
         <v>3</v>
       </c>
       <c r="S19" s="6">
-        <f>wzorzec!S19</f>
+        <f>wzorzec!S18</f>
         <v>0.18</v>
       </c>
       <c r="T19" s="5">
-        <f>wzorzec!T19</f>
+        <f>wzorzec!T18</f>
         <v>23.2</v>
       </c>
       <c r="U19" s="5">
-        <f>wzorzec!U19</f>
+        <f>wzorzec!U18</f>
         <v>35.1</v>
       </c>
       <c r="V19" s="6">
-        <f>wzorzec!V19</f>
+        <f>wzorzec!V18</f>
         <v>25.5</v>
       </c>
     </row>
@@ -19709,87 +19604,87 @@
         <v>Malta</v>
       </c>
       <c r="B20" s="6">
-        <f>wzorzec!B20</f>
+        <f>wzorzec!B19</f>
         <v>13</v>
       </c>
       <c r="C20" s="6">
-        <f>wzorzec!C20</f>
+        <f>wzorzec!C19</f>
         <v>126.3</v>
       </c>
       <c r="D20" s="5">
-        <f>wzorzec!D20</f>
+        <f>wzorzec!D19</f>
         <v>231.76190476190473</v>
       </c>
       <c r="E20" s="5">
-        <f>wzorzec!E20</f>
+        <f>wzorzec!E19</f>
         <v>104.1</v>
       </c>
       <c r="F20" s="5">
-        <f>wzorzec!F20</f>
+        <f>wzorzec!F19</f>
         <v>11.8</v>
       </c>
       <c r="G20" s="5">
-        <f>wzorzec!G20</f>
+        <f>wzorzec!G19</f>
         <v>3</v>
       </c>
       <c r="H20" s="5">
-        <f>wzorzec!H20</f>
+        <f>wzorzec!H19</f>
         <v>31.2</v>
       </c>
       <c r="I20" s="5">
-        <f>wzorzec!I20</f>
+        <f>wzorzec!I19</f>
         <v>9</v>
       </c>
       <c r="J20" s="5">
-        <f>wzorzec!J20</f>
+        <f>wzorzec!J19</f>
         <v>30</v>
       </c>
       <c r="K20" s="5">
-        <f>wzorzec!K20</f>
+        <f>wzorzec!K19</f>
         <v>579</v>
       </c>
       <c r="L20" s="6">
-        <f>wzorzec!L20</f>
+        <f>wzorzec!L19</f>
         <v>3.7</v>
       </c>
       <c r="M20" s="6">
-        <f>wzorzec!M20</f>
+        <f>wzorzec!M19</f>
         <v>0.1</v>
       </c>
       <c r="N20" s="6">
-        <f>wzorzec!N20</f>
+        <f>wzorzec!N19</f>
         <v>0.06</v>
       </c>
       <c r="O20" s="6">
-        <f>wzorzec!O20</f>
+        <f>wzorzec!O19</f>
         <v>0.40624999999999994</v>
       </c>
       <c r="P20" s="6">
-        <f>wzorzec!P20</f>
+        <f>wzorzec!P19</f>
         <v>2.69</v>
       </c>
       <c r="Q20" s="6">
-        <f>wzorzec!Q20</f>
+        <f>wzorzec!Q19</f>
         <v>68</v>
       </c>
       <c r="R20" s="6">
-        <f>wzorzec!R20</f>
+        <f>wzorzec!R19</f>
         <v>0</v>
       </c>
       <c r="S20" s="6">
-        <f>wzorzec!S20</f>
+        <f>wzorzec!S19</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="T20" s="5">
-        <f>wzorzec!T20</f>
+        <f>wzorzec!T19</f>
         <v>13.7</v>
       </c>
       <c r="U20" s="5">
-        <f>wzorzec!U20</f>
+        <f>wzorzec!U19</f>
         <v>24</v>
       </c>
       <c r="V20" s="6">
-        <f>wzorzec!V20</f>
+        <f>wzorzec!V19</f>
         <v>143.91419305977459</v>
       </c>
     </row>
@@ -19799,87 +19694,87 @@
         <v>Niemcy</v>
       </c>
       <c r="B21" s="6">
-        <f>wzorzec!B21</f>
+        <f>wzorzec!B20</f>
         <v>15</v>
       </c>
       <c r="C21" s="6">
-        <f>wzorzec!C21</f>
+        <f>wzorzec!C20</f>
         <v>126.9</v>
       </c>
       <c r="D21" s="5">
-        <f>wzorzec!D21</f>
+        <f>wzorzec!D20</f>
         <v>668</v>
       </c>
       <c r="E21" s="5">
-        <f>wzorzec!E21</f>
+        <f>wzorzec!E20</f>
         <v>62.7</v>
       </c>
       <c r="F21" s="5">
-        <f>wzorzec!F21</f>
+        <f>wzorzec!F20</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="G21" s="5">
-        <f>wzorzec!G21</f>
+        <f>wzorzec!G20</f>
         <v>2.8</v>
       </c>
       <c r="H21" s="5">
-        <f>wzorzec!H21</f>
+        <f>wzorzec!H20</f>
         <v>26.1</v>
       </c>
       <c r="I21" s="5">
-        <f>wzorzec!I21</f>
+        <f>wzorzec!I20</f>
         <v>16.3</v>
       </c>
       <c r="J21" s="5">
-        <f>wzorzec!J21</f>
+        <f>wzorzec!J20</f>
         <v>-1</v>
       </c>
       <c r="K21" s="5">
-        <f>wzorzec!K21</f>
+        <f>wzorzec!K20</f>
         <v>615</v>
       </c>
       <c r="L21" s="6">
-        <f>wzorzec!L21</f>
+        <f>wzorzec!L20</f>
         <v>12.4</v>
       </c>
       <c r="M21" s="6">
-        <f>wzorzec!M21</f>
+        <f>wzorzec!M20</f>
         <v>29.1</v>
       </c>
       <c r="N21" s="6">
-        <f>wzorzec!N21</f>
+        <f>wzorzec!N20</f>
         <v>6.04</v>
       </c>
       <c r="O21" s="6">
-        <f>wzorzec!O21</f>
+        <f>wzorzec!O20</f>
         <v>0.47799999999999992</v>
       </c>
       <c r="P21" s="6">
-        <f>wzorzec!P21</f>
+        <f>wzorzec!P20</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="Q21" s="6">
-        <f>wzorzec!Q21</f>
+        <f>wzorzec!Q20</f>
         <v>138</v>
       </c>
       <c r="R21" s="6">
-        <f>wzorzec!R21</f>
+        <f>wzorzec!R20</f>
         <v>92.65</v>
       </c>
       <c r="S21" s="6">
-        <f>wzorzec!S21</f>
+        <f>wzorzec!S20</f>
         <v>0.42</v>
       </c>
       <c r="T21" s="5">
-        <f>wzorzec!T21</f>
+        <f>wzorzec!T20</f>
         <v>7.8</v>
       </c>
       <c r="U21" s="5">
-        <f>wzorzec!U21</f>
+        <f>wzorzec!U20</f>
         <v>20.3</v>
       </c>
       <c r="V21" s="6">
-        <f>wzorzec!V21</f>
+        <f>wzorzec!V20</f>
         <v>410.24285714285713</v>
       </c>
     </row>
@@ -19889,87 +19784,87 @@
         <v>Polska</v>
       </c>
       <c r="B22" s="6">
-        <f>wzorzec!B22</f>
+        <f>wzorzec!B21</f>
         <v>20</v>
       </c>
       <c r="C22" s="6">
-        <f>wzorzec!C22</f>
+        <f>wzorzec!C21</f>
         <v>130.5</v>
       </c>
       <c r="D22" s="5">
-        <f>wzorzec!D22</f>
+        <f>wzorzec!D21</f>
         <v>231.76190476190473</v>
       </c>
       <c r="E22" s="5">
-        <f>wzorzec!E22</f>
+        <f>wzorzec!E21</f>
         <v>25.6</v>
       </c>
       <c r="F22" s="5">
-        <f>wzorzec!F22</f>
+        <f>wzorzec!F21</f>
         <v>20</v>
       </c>
       <c r="G22" s="5">
-        <f>wzorzec!G22</f>
+        <f>wzorzec!G21</f>
         <v>6.2</v>
       </c>
       <c r="H22" s="5">
-        <f>wzorzec!H22</f>
+        <f>wzorzec!H21</f>
         <v>14</v>
       </c>
       <c r="I22" s="5">
-        <f>wzorzec!I22</f>
+        <f>wzorzec!I21</f>
         <v>17.3</v>
       </c>
       <c r="J22" s="5">
-        <f>wzorzec!J22</f>
+        <f>wzorzec!J21</f>
         <v>4</v>
       </c>
       <c r="K22" s="5">
-        <f>wzorzec!K22</f>
+        <f>wzorzec!K21</f>
         <v>297</v>
       </c>
       <c r="L22" s="6">
-        <f>wzorzec!L22</f>
+        <f>wzorzec!L21</f>
         <v>11.4</v>
       </c>
       <c r="M22" s="6">
-        <f>wzorzec!M22</f>
+        <f>wzorzec!M21</f>
         <v>59.4</v>
       </c>
       <c r="N22" s="6">
-        <f>wzorzec!N22</f>
+        <f>wzorzec!N21</f>
         <v>4.6500000000000004</v>
       </c>
       <c r="O22" s="6">
-        <f>wzorzec!O22</f>
+        <f>wzorzec!O21</f>
         <v>0.80625000000000002</v>
       </c>
       <c r="P22" s="6">
-        <f>wzorzec!P22</f>
+        <f>wzorzec!P21</f>
         <v>2.41</v>
       </c>
       <c r="Q22" s="6">
-        <f>wzorzec!Q22</f>
+        <f>wzorzec!Q21</f>
         <v>30</v>
       </c>
       <c r="R22" s="6">
-        <f>wzorzec!R22</f>
+        <f>wzorzec!R21</f>
         <v>34.5</v>
       </c>
       <c r="S22" s="6">
-        <f>wzorzec!S22</f>
+        <f>wzorzec!S21</f>
         <v>0.23</v>
       </c>
       <c r="T22" s="5">
-        <f>wzorzec!T22</f>
+        <f>wzorzec!T21</f>
         <v>27.3</v>
       </c>
       <c r="U22" s="5">
-        <f>wzorzec!U22</f>
+        <f>wzorzec!U21</f>
         <v>25.8</v>
       </c>
       <c r="V22" s="6">
-        <f>wzorzec!V22</f>
+        <f>wzorzec!V21</f>
         <v>442.83333333333331</v>
       </c>
     </row>
@@ -19979,87 +19874,87 @@
         <v>Portugalia</v>
       </c>
       <c r="B23" s="6">
-        <f>wzorzec!B23</f>
+        <f>wzorzec!B22</f>
         <v>21</v>
       </c>
       <c r="C23" s="6">
-        <f>wzorzec!C23</f>
+        <f>wzorzec!C22</f>
         <v>137.9</v>
       </c>
       <c r="D23" s="5">
-        <f>wzorzec!D23</f>
+        <f>wzorzec!D22</f>
         <v>195</v>
       </c>
       <c r="E23" s="5">
-        <f>wzorzec!E23</f>
+        <f>wzorzec!E22</f>
         <v>72.400000000000006</v>
       </c>
       <c r="F23" s="5">
-        <f>wzorzec!F23</f>
+        <f>wzorzec!F22</f>
         <v>5.2</v>
       </c>
       <c r="G23" s="5">
-        <f>wzorzec!G23</f>
+        <f>wzorzec!G22</f>
         <v>5.7</v>
       </c>
       <c r="H23" s="5">
-        <f>wzorzec!H23</f>
+        <f>wzorzec!H22</f>
         <v>22.7</v>
       </c>
       <c r="I23" s="5">
-        <f>wzorzec!I23</f>
+        <f>wzorzec!I22</f>
         <v>14</v>
       </c>
       <c r="J23" s="5">
-        <f>wzorzec!J23</f>
+        <f>wzorzec!J22</f>
         <v>4</v>
       </c>
       <c r="K23" s="5">
-        <f>wzorzec!K23</f>
+        <f>wzorzec!K22</f>
         <v>440</v>
       </c>
       <c r="L23" s="6">
-        <f>wzorzec!L23</f>
+        <f>wzorzec!L22</f>
         <v>25.7</v>
       </c>
       <c r="M23" s="6">
-        <f>wzorzec!M23</f>
+        <f>wzorzec!M22</f>
         <v>78</v>
       </c>
       <c r="N23" s="6">
-        <f>wzorzec!N23</f>
+        <f>wzorzec!N22</f>
         <v>5.31</v>
       </c>
       <c r="O23" s="6">
-        <f>wzorzec!O23</f>
+        <f>wzorzec!O22</f>
         <v>0.2475</v>
       </c>
       <c r="P23" s="6">
-        <f>wzorzec!P23</f>
+        <f>wzorzec!P22</f>
         <v>2.21</v>
       </c>
       <c r="Q23" s="6">
-        <f>wzorzec!Q23</f>
+        <f>wzorzec!Q22</f>
         <v>81</v>
       </c>
       <c r="R23" s="6">
-        <f>wzorzec!R23</f>
+        <f>wzorzec!R22</f>
         <v>1</v>
       </c>
       <c r="S23" s="6">
-        <f>wzorzec!S23</f>
+        <f>wzorzec!S22</f>
         <v>0.09</v>
       </c>
       <c r="T23" s="5">
-        <f>wzorzec!T23</f>
+        <f>wzorzec!T22</f>
         <v>38.1</v>
       </c>
       <c r="U23" s="5">
-        <f>wzorzec!U23</f>
+        <f>wzorzec!U22</f>
         <v>27.5</v>
       </c>
       <c r="V23" s="6">
-        <f>wzorzec!V23</f>
+        <f>wzorzec!V22</f>
         <v>95.699999999999989</v>
       </c>
     </row>
@@ -20069,87 +19964,87 @@
         <v>Rumunia</v>
       </c>
       <c r="B24" s="6">
-        <f>wzorzec!B24</f>
+        <f>wzorzec!B23</f>
         <v>23</v>
       </c>
       <c r="C24" s="6">
-        <f>wzorzec!C24</f>
+        <f>wzorzec!C23</f>
         <v>63.4</v>
       </c>
       <c r="D24" s="5">
-        <f>wzorzec!D24</f>
+        <f>wzorzec!D23</f>
         <v>195</v>
       </c>
       <c r="E24" s="5">
-        <f>wzorzec!E24</f>
+        <f>wzorzec!E23</f>
         <v>18.5</v>
       </c>
       <c r="F24" s="5">
-        <f>wzorzec!F24</f>
+        <f>wzorzec!F23</f>
         <v>10.1</v>
       </c>
       <c r="G24" s="5">
-        <f>wzorzec!G24</f>
+        <f>wzorzec!G23</f>
         <v>7.6</v>
       </c>
       <c r="H24" s="5">
-        <f>wzorzec!H24</f>
+        <f>wzorzec!H23</f>
         <v>26.4</v>
       </c>
       <c r="I24" s="5">
-        <f>wzorzec!I24</f>
+        <f>wzorzec!I23</f>
         <v>22.1</v>
       </c>
       <c r="J24" s="5">
-        <f>wzorzec!J24</f>
+        <f>wzorzec!J23</f>
         <v>-2</v>
       </c>
       <c r="K24" s="5">
-        <f>wzorzec!K24</f>
+        <f>wzorzec!K23</f>
         <v>254</v>
       </c>
       <c r="L24" s="6">
-        <f>wzorzec!L24</f>
+        <f>wzorzec!L23</f>
         <v>23.9</v>
       </c>
       <c r="M24" s="6">
-        <f>wzorzec!M24</f>
+        <f>wzorzec!M23</f>
         <v>27.9</v>
       </c>
       <c r="N24" s="6">
-        <f>wzorzec!N24</f>
+        <f>wzorzec!N23</f>
         <v>2.06</v>
       </c>
       <c r="O24" s="6">
-        <f>wzorzec!O24</f>
+        <f>wzorzec!O23</f>
         <v>0.83750000000000002</v>
       </c>
       <c r="P24" s="6">
-        <f>wzorzec!P24</f>
+        <f>wzorzec!P23</f>
         <v>2</v>
       </c>
       <c r="Q24" s="6">
-        <f>wzorzec!Q24</f>
+        <f>wzorzec!Q23</f>
         <v>55</v>
       </c>
       <c r="R24" s="6">
-        <f>wzorzec!R24</f>
+        <f>wzorzec!R23</f>
         <v>2</v>
       </c>
       <c r="S24" s="6">
-        <f>wzorzec!S24</f>
+        <f>wzorzec!S23</f>
         <v>0.19</v>
       </c>
       <c r="T24" s="5">
-        <f>wzorzec!T24</f>
+        <f>wzorzec!T23</f>
         <v>23.7</v>
       </c>
       <c r="U24" s="5">
-        <f>wzorzec!U24</f>
+        <f>wzorzec!U23</f>
         <v>41.9</v>
       </c>
       <c r="V24" s="6">
-        <f>wzorzec!V24</f>
+        <f>wzorzec!V23</f>
         <v>183.1</v>
       </c>
     </row>
@@ -20159,87 +20054,87 @@
         <v>Słowacja</v>
       </c>
       <c r="B25" s="6">
-        <f>wzorzec!B25</f>
+        <f>wzorzec!B24</f>
         <v>30</v>
       </c>
       <c r="C25" s="6">
-        <f>wzorzec!C25</f>
+        <f>wzorzec!C24</f>
         <v>150.9</v>
       </c>
       <c r="D25" s="5">
-        <f>wzorzec!D25</f>
+        <f>wzorzec!D24</f>
         <v>0</v>
       </c>
       <c r="E25" s="5">
-        <f>wzorzec!E25</f>
+        <f>wzorzec!E24</f>
         <v>59.2</v>
       </c>
       <c r="F25" s="5">
-        <f>wzorzec!F25</f>
+        <f>wzorzec!F24</f>
         <v>10.5</v>
       </c>
       <c r="G25" s="5">
-        <f>wzorzec!G25</f>
+        <f>wzorzec!G24</f>
         <v>6.8</v>
       </c>
       <c r="H25" s="5">
-        <f>wzorzec!H25</f>
+        <f>wzorzec!H24</f>
         <v>15.1</v>
       </c>
       <c r="I25" s="5">
-        <f>wzorzec!I25</f>
+        <f>wzorzec!I24</f>
         <v>11.4</v>
       </c>
       <c r="J25" s="5">
-        <f>wzorzec!J25</f>
+        <f>wzorzec!J24</f>
         <v>-4</v>
       </c>
       <c r="K25" s="5">
-        <f>wzorzec!K25</f>
+        <f>wzorzec!K24</f>
         <v>304</v>
       </c>
       <c r="L25" s="6">
-        <f>wzorzec!L25</f>
+        <f>wzorzec!L24</f>
         <v>10.1</v>
       </c>
       <c r="M25" s="6">
-        <f>wzorzec!M25</f>
+        <f>wzorzec!M24</f>
         <v>38.1</v>
       </c>
       <c r="N25" s="6">
-        <f>wzorzec!N25</f>
+        <f>wzorzec!N24</f>
         <v>8.18</v>
       </c>
       <c r="O25" s="6">
-        <f>wzorzec!O25</f>
+        <f>wzorzec!O24</f>
         <v>0.68714285714285706</v>
       </c>
       <c r="P25" s="6">
-        <f>wzorzec!P25</f>
+        <f>wzorzec!P24</f>
         <v>1.72</v>
       </c>
       <c r="Q25" s="6">
-        <f>wzorzec!Q25</f>
+        <f>wzorzec!Q24</f>
         <v>42</v>
       </c>
       <c r="R25" s="6">
-        <f>wzorzec!R25</f>
+        <f>wzorzec!R24</f>
         <v>1</v>
       </c>
       <c r="S25" s="6">
-        <f>wzorzec!S25</f>
+        <f>wzorzec!S24</f>
         <v>0.17</v>
       </c>
       <c r="T25" s="5">
-        <f>wzorzec!T25</f>
+        <f>wzorzec!T24</f>
         <v>33.700000000000003</v>
       </c>
       <c r="U25" s="5">
-        <f>wzorzec!U25</f>
+        <f>wzorzec!U24</f>
         <v>19.8</v>
       </c>
       <c r="V25" s="6">
-        <f>wzorzec!V25</f>
+        <f>wzorzec!V24</f>
         <v>144.01113543840199</v>
       </c>
     </row>
@@ -20249,87 +20144,87 @@
         <v>Słowenia</v>
       </c>
       <c r="B26" s="6">
-        <f>wzorzec!B26</f>
+        <f>wzorzec!B25</f>
         <v>38</v>
       </c>
       <c r="C26" s="6">
-        <f>wzorzec!C26</f>
+        <f>wzorzec!C25</f>
         <v>171.3</v>
       </c>
       <c r="D26" s="5">
-        <f>wzorzec!D26</f>
+        <f>wzorzec!D25</f>
         <v>2</v>
       </c>
       <c r="E26" s="5">
-        <f>wzorzec!E26</f>
+        <f>wzorzec!E25</f>
         <v>46.9</v>
       </c>
       <c r="F26" s="5">
-        <f>wzorzec!F26</f>
+        <f>wzorzec!F25</f>
         <v>5.6</v>
       </c>
       <c r="G26" s="5">
-        <f>wzorzec!G26</f>
+        <f>wzorzec!G25</f>
         <v>7.1</v>
       </c>
       <c r="H26" s="5">
-        <f>wzorzec!H26</f>
+        <f>wzorzec!H25</f>
         <v>12.3</v>
       </c>
       <c r="I26" s="5">
-        <f>wzorzec!I26</f>
+        <f>wzorzec!I25</f>
         <v>12.2</v>
       </c>
       <c r="J26" s="5">
-        <f>wzorzec!J26</f>
+        <f>wzorzec!J25</f>
         <v>6</v>
       </c>
       <c r="K26" s="5">
-        <f>wzorzec!K26</f>
+        <f>wzorzec!K25</f>
         <v>414</v>
       </c>
       <c r="L26" s="6">
-        <f>wzorzec!L26</f>
+        <f>wzorzec!L25</f>
         <v>22.4</v>
       </c>
       <c r="M26" s="6">
-        <f>wzorzec!M26</f>
+        <f>wzorzec!M25</f>
         <v>7.1</v>
       </c>
       <c r="N26" s="6">
-        <f>wzorzec!N26</f>
+        <f>wzorzec!N25</f>
         <v>8.07</v>
       </c>
       <c r="O26" s="6">
-        <f>wzorzec!O26</f>
+        <f>wzorzec!O25</f>
         <v>0.87428571428571433</v>
       </c>
       <c r="P26" s="6">
-        <f>wzorzec!P26</f>
+        <f>wzorzec!P25</f>
         <v>3.94</v>
       </c>
       <c r="Q26" s="6">
-        <f>wzorzec!Q26</f>
+        <f>wzorzec!Q25</f>
         <v>71</v>
       </c>
       <c r="R26" s="6">
-        <f>wzorzec!R26</f>
+        <f>wzorzec!R25</f>
         <v>2</v>
       </c>
       <c r="S26" s="6">
-        <f>wzorzec!S26</f>
+        <f>wzorzec!S25</f>
         <v>0.34</v>
       </c>
       <c r="T26" s="5">
-        <f>wzorzec!T26</f>
+        <f>wzorzec!T25</f>
         <v>21.6</v>
       </c>
       <c r="U26" s="5">
-        <f>wzorzec!U26</f>
+        <f>wzorzec!U25</f>
         <v>20.399999999999999</v>
       </c>
       <c r="V26" s="6">
-        <f>wzorzec!V26</f>
+        <f>wzorzec!V25</f>
         <v>23.3</v>
       </c>
     </row>
@@ -20339,87 +20234,87 @@
         <v>Szwecja</v>
       </c>
       <c r="B27" s="6">
-        <f>wzorzec!B27</f>
+        <f>wzorzec!B26</f>
         <v>14</v>
       </c>
       <c r="C27" s="6">
-        <f>wzorzec!C27</f>
+        <f>wzorzec!C26</f>
         <v>103.5</v>
       </c>
       <c r="D27" s="5">
-        <f>wzorzec!D27</f>
+        <f>wzorzec!D26</f>
         <v>144</v>
       </c>
       <c r="E27" s="5">
-        <f>wzorzec!E27</f>
+        <f>wzorzec!E26</f>
         <v>32</v>
       </c>
       <c r="F27" s="5">
-        <f>wzorzec!F27</f>
+        <f>wzorzec!F26</f>
         <v>2.4</v>
       </c>
       <c r="G27" s="5">
-        <f>wzorzec!G27</f>
+        <f>wzorzec!G26</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="H27" s="5">
-        <f>wzorzec!H27</f>
+        <f>wzorzec!H26</f>
         <v>12.9</v>
       </c>
       <c r="I27" s="5">
-        <f>wzorzec!I27</f>
+        <f>wzorzec!I26</f>
         <v>22.6</v>
       </c>
       <c r="J27" s="5">
-        <f>wzorzec!J27</f>
+        <f>wzorzec!J26</f>
         <v>1</v>
       </c>
       <c r="K27" s="5">
-        <f>wzorzec!K27</f>
+        <f>wzorzec!K26</f>
         <v>451</v>
       </c>
       <c r="L27" s="6">
-        <f>wzorzec!L27</f>
+        <f>wzorzec!L26</f>
         <v>52</v>
       </c>
       <c r="M27" s="6">
-        <f>wzorzec!M27</f>
+        <f>wzorzec!M26</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="N27" s="6">
-        <f>wzorzec!N27</f>
+        <f>wzorzec!N26</f>
         <v>16.5</v>
       </c>
       <c r="O27" s="6">
-        <f>wzorzec!O27</f>
+        <f>wzorzec!O26</f>
         <v>0.34999999999999992</v>
       </c>
       <c r="P27" s="6">
-        <f>wzorzec!P27</f>
+        <f>wzorzec!P26</f>
         <v>2.36</v>
       </c>
       <c r="Q27" s="6">
-        <f>wzorzec!Q27</f>
+        <f>wzorzec!Q26</f>
         <v>140</v>
       </c>
       <c r="R27" s="6">
-        <f>wzorzec!R27</f>
+        <f>wzorzec!R26</f>
         <v>7.75</v>
       </c>
       <c r="S27" s="6">
-        <f>wzorzec!S27</f>
+        <f>wzorzec!S26</f>
         <v>0.12</v>
       </c>
       <c r="T27" s="5">
-        <f>wzorzec!T27</f>
+        <f>wzorzec!T26</f>
         <v>23.6</v>
       </c>
       <c r="U27" s="5">
-        <f>wzorzec!U27</f>
+        <f>wzorzec!U26</f>
         <v>18.3</v>
       </c>
       <c r="V27" s="6">
-        <f>wzorzec!V27</f>
+        <f>wzorzec!V26</f>
         <v>72</v>
       </c>
     </row>
@@ -20429,87 +20324,87 @@
         <v>Węgry</v>
       </c>
       <c r="B28" s="6">
-        <f>wzorzec!B28</f>
+        <f>wzorzec!B27</f>
         <v>21</v>
       </c>
       <c r="C28" s="6">
-        <f>wzorzec!C28</f>
+        <f>wzorzec!C27</f>
         <v>152.80000000000001</v>
       </c>
       <c r="D28" s="5">
-        <f>wzorzec!D28</f>
+        <f>wzorzec!D27</f>
         <v>618</v>
       </c>
       <c r="E28" s="5">
-        <f>wzorzec!E28</f>
+        <f>wzorzec!E27</f>
         <v>49.6</v>
       </c>
       <c r="F28" s="5">
-        <f>wzorzec!F28</f>
+        <f>wzorzec!F27</f>
         <v>3.2</v>
       </c>
       <c r="G28" s="5">
-        <f>wzorzec!G28</f>
+        <f>wzorzec!G27</f>
         <v>7.7</v>
       </c>
       <c r="H28" s="5">
-        <f>wzorzec!H28</f>
+        <f>wzorzec!H27</f>
         <v>12.8</v>
       </c>
       <c r="I28" s="5">
-        <f>wzorzec!I28</f>
+        <f>wzorzec!I27</f>
         <v>10</v>
       </c>
       <c r="J28" s="5">
-        <f>wzorzec!J28</f>
+        <f>wzorzec!J27</f>
         <v>-1</v>
       </c>
       <c r="K28" s="5">
-        <f>wzorzec!K28</f>
+        <f>wzorzec!K27</f>
         <v>378</v>
       </c>
       <c r="L28" s="6">
-        <f>wzorzec!L28</f>
+        <f>wzorzec!L27</f>
         <v>16.2</v>
       </c>
       <c r="M28" s="6">
-        <f>wzorzec!M28</f>
+        <f>wzorzec!M27</f>
         <v>87.4</v>
       </c>
       <c r="N28" s="6">
-        <f>wzorzec!N28</f>
+        <f>wzorzec!N27</f>
         <v>2.4500000000000002</v>
       </c>
       <c r="O28" s="6">
-        <f>wzorzec!O28</f>
+        <f>wzorzec!O27</f>
         <v>0.59714285714285709</v>
       </c>
       <c r="P28" s="6">
-        <f>wzorzec!P28</f>
+        <f>wzorzec!P27</f>
         <v>2.66</v>
       </c>
       <c r="Q28" s="6">
-        <f>wzorzec!Q28</f>
+        <f>wzorzec!Q27</f>
         <v>58</v>
       </c>
       <c r="R28" s="6">
-        <f>wzorzec!R28</f>
+        <f>wzorzec!R27</f>
         <v>2</v>
       </c>
       <c r="S28" s="6">
-        <f>wzorzec!S28</f>
+        <f>wzorzec!S27</f>
         <v>0.21</v>
       </c>
       <c r="T28" s="5">
-        <f>wzorzec!T28</f>
+        <f>wzorzec!T27</f>
         <v>26.6</v>
       </c>
       <c r="U28" s="5">
-        <f>wzorzec!U28</f>
+        <f>wzorzec!U27</f>
         <v>34.799999999999997</v>
       </c>
       <c r="V28" s="6">
-        <f>wzorzec!V28</f>
+        <f>wzorzec!V27</f>
         <v>144.12425003756678</v>
       </c>
     </row>
@@ -20519,87 +20414,87 @@
         <v>Wielka Brytania</v>
       </c>
       <c r="B29" s="6">
-        <f>wzorzec!B29</f>
+        <f>wzorzec!B28</f>
         <v>9</v>
       </c>
       <c r="C29" s="6">
-        <f>wzorzec!C29</f>
+        <f>wzorzec!C28</f>
         <v>160.30000000000001</v>
       </c>
       <c r="D29" s="5">
-        <f>wzorzec!D29</f>
+        <f>wzorzec!D28</f>
         <v>231.76190476190473</v>
       </c>
       <c r="E29" s="5">
-        <f>wzorzec!E29</f>
+        <f>wzorzec!E28</f>
         <v>47.1</v>
       </c>
       <c r="F29" s="5">
-        <f>wzorzec!F29</f>
+        <f>wzorzec!F28</f>
         <v>5.9</v>
       </c>
       <c r="G29" s="5">
-        <f>wzorzec!G29</f>
+        <f>wzorzec!G28</f>
         <v>2.2999999999999998</v>
       </c>
       <c r="H29" s="5">
-        <f>wzorzec!H29</f>
+        <f>wzorzec!H28</f>
         <v>17</v>
       </c>
       <c r="I29" s="5">
-        <f>wzorzec!I29</f>
+        <f>wzorzec!I28</f>
         <v>8.9</v>
       </c>
       <c r="J29" s="5">
-        <f>wzorzec!J29</f>
+        <f>wzorzec!J28</f>
         <v>-0.54545454545454541</v>
       </c>
       <c r="K29" s="5">
-        <f>wzorzec!K29</f>
+        <f>wzorzec!K28</f>
         <v>482</v>
       </c>
       <c r="L29" s="6">
-        <f>wzorzec!L29</f>
+        <f>wzorzec!L28</f>
         <v>5.7</v>
       </c>
       <c r="M29" s="6">
-        <f>wzorzec!M29</f>
+        <f>wzorzec!M28</f>
         <v>108.5</v>
       </c>
       <c r="N29" s="6">
-        <f>wzorzec!N29</f>
+        <f>wzorzec!N28</f>
         <v>3.24</v>
       </c>
       <c r="O29" s="6">
-        <f>wzorzec!O29</f>
+        <f>wzorzec!O28</f>
         <v>0.25285714285714284</v>
       </c>
       <c r="P29" s="6">
-        <f>wzorzec!P29</f>
+        <f>wzorzec!P28</f>
         <v>2.46</v>
       </c>
       <c r="Q29" s="6">
-        <f>wzorzec!Q29</f>
+        <f>wzorzec!Q28</f>
         <v>130</v>
       </c>
       <c r="R29" s="6">
-        <f>wzorzec!R29</f>
+        <f>wzorzec!R28</f>
         <v>24</v>
       </c>
       <c r="S29" s="6">
-        <f>wzorzec!S29</f>
+        <f>wzorzec!S28</f>
         <v>0.13</v>
       </c>
       <c r="T29" s="5">
-        <f>wzorzec!T29</f>
+        <f>wzorzec!T28</f>
         <v>20.7</v>
       </c>
       <c r="U29" s="5">
-        <f>wzorzec!U29</f>
+        <f>wzorzec!U28</f>
         <v>24.8</v>
       </c>
       <c r="V29" s="6">
-        <f>wzorzec!V29</f>
+        <f>wzorzec!V28</f>
         <v>325.20000000000005</v>
       </c>
     </row>
@@ -20609,87 +20504,87 @@
         <v>Włochy</v>
       </c>
       <c r="B30" s="6">
-        <f>wzorzec!B30</f>
+        <f>wzorzec!B29</f>
         <v>19</v>
       </c>
       <c r="C30" s="6">
-        <f>wzorzec!C30</f>
+        <f>wzorzec!C29</f>
         <v>188.8</v>
       </c>
       <c r="D30" s="5">
-        <f>wzorzec!D30</f>
+        <f>wzorzec!D29</f>
         <v>177</v>
       </c>
       <c r="E30" s="5">
-        <f>wzorzec!E30</f>
+        <f>wzorzec!E29</f>
         <v>76.8</v>
       </c>
       <c r="F30" s="5">
-        <f>wzorzec!F30</f>
+        <f>wzorzec!F29</f>
         <v>2.4</v>
       </c>
       <c r="G30" s="5">
-        <f>wzorzec!G30</f>
+        <f>wzorzec!G29</f>
         <v>3.1</v>
       </c>
       <c r="H30" s="5">
-        <f>wzorzec!H30</f>
+        <f>wzorzec!H29</f>
         <v>18.100000000000001</v>
       </c>
       <c r="I30" s="5">
-        <f>wzorzec!I30</f>
+        <f>wzorzec!I29</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="J30" s="5">
-        <f>wzorzec!J30</f>
+        <f>wzorzec!J29</f>
         <v>-2</v>
       </c>
       <c r="K30" s="5">
-        <f>wzorzec!K30</f>
+        <f>wzorzec!K29</f>
         <v>491</v>
       </c>
       <c r="L30" s="6">
-        <f>wzorzec!L30</f>
+        <f>wzorzec!L29</f>
         <v>16.7</v>
       </c>
       <c r="M30" s="6">
-        <f>wzorzec!M30</f>
+        <f>wzorzec!M29</f>
         <v>75.8</v>
       </c>
       <c r="N30" s="6">
-        <f>wzorzec!N30</f>
+        <f>wzorzec!N29</f>
         <v>10.6</v>
       </c>
       <c r="O30" s="6">
-        <f>wzorzec!O30</f>
+        <f>wzorzec!O29</f>
         <v>0.76333333333333331</v>
       </c>
       <c r="P30" s="6">
-        <f>wzorzec!P30</f>
+        <f>wzorzec!P29</f>
         <v>3.45</v>
       </c>
       <c r="Q30" s="6">
-        <f>wzorzec!Q30</f>
+        <f>wzorzec!Q29</f>
         <v>97</v>
       </c>
       <c r="R30" s="6">
-        <f>wzorzec!R30</f>
+        <f>wzorzec!R29</f>
         <v>34.92</v>
       </c>
       <c r="S30" s="6">
-        <f>wzorzec!S30</f>
+        <f>wzorzec!S29</f>
         <v>0.18</v>
       </c>
       <c r="T30" s="5">
-        <f>wzorzec!T30</f>
+        <f>wzorzec!T29</f>
         <v>40</v>
       </c>
       <c r="U30" s="5">
-        <f>wzorzec!U30</f>
+        <f>wzorzec!U29</f>
         <v>28.5</v>
       </c>
       <c r="V30" s="6">
-        <f>wzorzec!V30</f>
+        <f>wzorzec!V29</f>
         <v>144.2523062613476</v>
       </c>
     </row>
@@ -21297,89 +21192,89 @@
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B42" s="6" t="str">
+      <c r="B42" s="6" t="e">
         <f>B1</f>
-        <v>X1</v>
-      </c>
-      <c r="C42" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C42" s="6" t="e">
         <f t="shared" ref="C42:V42" si="6">C1</f>
-        <v>X5</v>
-      </c>
-      <c r="D42" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D42" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X6</v>
-      </c>
-      <c r="E42" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E42" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X8</v>
-      </c>
-      <c r="F42" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F42" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X10</v>
-      </c>
-      <c r="G42" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="G42" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X11</v>
-      </c>
-      <c r="H42" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="H42" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X12</v>
-      </c>
-      <c r="I42" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="I42" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X13</v>
-      </c>
-      <c r="J42" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="J42" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X14</v>
-      </c>
-      <c r="K42" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="K42" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X15</v>
-      </c>
-      <c r="L42" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="L42" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X16</v>
-      </c>
-      <c r="M42" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="M42" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X17</v>
-      </c>
-      <c r="N42" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="N42" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X18</v>
-      </c>
-      <c r="O42" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O42" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X20</v>
-      </c>
-      <c r="P42" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="P42" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X21</v>
-      </c>
-      <c r="Q42" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="Q42" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X22</v>
-      </c>
-      <c r="R42" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="R42" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X23</v>
-      </c>
-      <c r="S42" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="S42" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X24</v>
-      </c>
-      <c r="T42" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="T42" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X25</v>
-      </c>
-      <c r="U42" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="U42" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X26</v>
-      </c>
-      <c r="V42" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="V42" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X27</v>
+        <v>#REF!</v>
       </c>
       <c r="X42" s="6" t="s">
         <v>32</v>
@@ -24701,89 +24596,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B1" s="13" t="str">
+      <c r="B1" s="13" t="e">
         <f>'ranking-standaryzacja'!B1</f>
-        <v>X1</v>
-      </c>
-      <c r="C1" s="13" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C1" s="13" t="e">
         <f>'ranking-standaryzacja'!C1</f>
-        <v>X5</v>
-      </c>
-      <c r="D1" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D1" s="5" t="e">
         <f>'ranking-standaryzacja'!D1</f>
-        <v>X6</v>
-      </c>
-      <c r="E1" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E1" s="5" t="e">
         <f>'ranking-standaryzacja'!E1</f>
-        <v>X8</v>
-      </c>
-      <c r="F1" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F1" s="5" t="e">
         <f>'ranking-standaryzacja'!F1</f>
-        <v>X10</v>
-      </c>
-      <c r="G1" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="G1" s="5" t="e">
         <f>'ranking-standaryzacja'!G1</f>
-        <v>X11</v>
-      </c>
-      <c r="H1" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="H1" s="5" t="e">
         <f>'ranking-standaryzacja'!H1</f>
-        <v>X12</v>
-      </c>
-      <c r="I1" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="I1" s="5" t="e">
         <f>'ranking-standaryzacja'!I1</f>
-        <v>X13</v>
-      </c>
-      <c r="J1" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="J1" s="5" t="e">
         <f>'ranking-standaryzacja'!J1</f>
-        <v>X14</v>
-      </c>
-      <c r="K1" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="K1" s="5" t="e">
         <f>'ranking-standaryzacja'!K1</f>
-        <v>X15</v>
-      </c>
-      <c r="L1" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="L1" s="6" t="e">
         <f>'ranking-standaryzacja'!L1</f>
-        <v>X16</v>
-      </c>
-      <c r="M1" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="M1" s="6" t="e">
         <f>'ranking-standaryzacja'!M1</f>
-        <v>X17</v>
-      </c>
-      <c r="N1" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="N1" s="6" t="e">
         <f>'ranking-standaryzacja'!N1</f>
-        <v>X18</v>
-      </c>
-      <c r="O1" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O1" s="6" t="e">
         <f>'ranking-standaryzacja'!O1</f>
-        <v>X20</v>
-      </c>
-      <c r="P1" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="P1" s="6" t="e">
         <f>'ranking-standaryzacja'!P1</f>
-        <v>X21</v>
-      </c>
-      <c r="Q1" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="Q1" s="6" t="e">
         <f>'ranking-standaryzacja'!Q1</f>
-        <v>X22</v>
-      </c>
-      <c r="R1" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="R1" s="6" t="e">
         <f>'ranking-standaryzacja'!R1</f>
-        <v>X23</v>
-      </c>
-      <c r="S1" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="S1" s="6" t="e">
         <f>'ranking-standaryzacja'!S1</f>
-        <v>X24</v>
-      </c>
-      <c r="T1" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="T1" s="5" t="e">
         <f>'ranking-standaryzacja'!T1</f>
-        <v>X25</v>
-      </c>
-      <c r="U1" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="U1" s="5" t="e">
         <f>'ranking-standaryzacja'!U1</f>
-        <v>X26</v>
-      </c>
-      <c r="V1" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="V1" s="6" t="e">
         <f>'ranking-standaryzacja'!V1</f>
-        <v>X27</v>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -27996,89 +27891,89 @@
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B43" s="13" t="str">
+      <c r="B43" s="13" t="e">
         <f>B1</f>
-        <v>X1</v>
-      </c>
-      <c r="C43" s="13" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="C43" s="13" t="e">
         <f t="shared" ref="C43:V43" si="6">C1</f>
-        <v>X5</v>
-      </c>
-      <c r="D43" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="D43" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X6</v>
-      </c>
-      <c r="E43" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="E43" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X8</v>
-      </c>
-      <c r="F43" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="F43" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X10</v>
-      </c>
-      <c r="G43" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="G43" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X11</v>
-      </c>
-      <c r="H43" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="H43" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X12</v>
-      </c>
-      <c r="I43" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="I43" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X13</v>
-      </c>
-      <c r="J43" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="J43" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X14</v>
-      </c>
-      <c r="K43" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="K43" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X15</v>
-      </c>
-      <c r="L43" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="L43" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X16</v>
-      </c>
-      <c r="M43" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="M43" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X17</v>
-      </c>
-      <c r="N43" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="N43" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X18</v>
-      </c>
-      <c r="O43" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="O43" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X20</v>
-      </c>
-      <c r="P43" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="P43" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X21</v>
-      </c>
-      <c r="Q43" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="Q43" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X22</v>
-      </c>
-      <c r="R43" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="R43" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X23</v>
-      </c>
-      <c r="S43" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="S43" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X24</v>
-      </c>
-      <c r="T43" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="T43" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X25</v>
-      </c>
-      <c r="U43" s="5" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="U43" s="5" t="e">
         <f t="shared" si="6"/>
-        <v>X26</v>
-      </c>
-      <c r="V43" s="6" t="str">
+        <v>#REF!</v>
+      </c>
+      <c r="V43" s="6" t="e">
         <f t="shared" si="6"/>
-        <v>X27</v>
+        <v>#REF!</v>
       </c>
       <c r="X43" s="6" t="s">
         <v>32</v>
@@ -31721,14 +31616,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <f>wzorzec!Y14</f>
+        <f>wzorzec!Y13</f>
         <v>Hiszpania</v>
       </c>
       <c r="C2" t="s">
         <v>134</v>
       </c>
       <c r="D2" s="4">
-        <f>wzorzec!Z14</f>
+        <f>wzorzec!Z13</f>
         <v>0.6169314720196164</v>
       </c>
       <c r="E2" t="str">
@@ -31749,19 +31644,19 @@
       </c>
       <c r="I2" s="4">
         <f>AVERAGE(D2:D29)</f>
-        <v>0.34055207128903592</v>
+        <v>0.34581720189564952</v>
       </c>
       <c r="J2">
         <f>STDEV(D2:D29)</f>
-        <v>0.17027603564451788</v>
+        <v>0.15633715484146138</v>
       </c>
       <c r="K2" s="4">
         <f>I2-J2</f>
-        <v>0.17027603564451804</v>
+        <v>0.18948004705418814</v>
       </c>
       <c r="L2" s="4">
         <f>I2+J2</f>
-        <v>0.51082810693355385</v>
+        <v>0.50215435673711095</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -31769,14 +31664,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f>wzorzec!Y22</f>
+        <f>wzorzec!Y21</f>
         <v>Polska</v>
       </c>
       <c r="C3" t="s">
         <v>135</v>
       </c>
       <c r="D3" s="4">
-        <f>wzorzec!Z22</f>
+        <f>wzorzec!Z21</f>
         <v>0.60208302122604196</v>
       </c>
       <c r="E3" t="str">
@@ -31817,14 +31712,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <f>wzorzec!Y29</f>
+        <f>wzorzec!Y28</f>
         <v>Wielka Brytania</v>
       </c>
       <c r="C4" t="s">
         <v>137</v>
       </c>
       <c r="D4" s="4">
-        <f>wzorzec!Z29</f>
+        <f>wzorzec!Z28</f>
         <v>0.53916095850297396</v>
       </c>
       <c r="E4" t="str">
@@ -31865,14 +31760,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <f>wzorzec!Y25</f>
+        <f>wzorzec!Y24</f>
         <v>Słowacja</v>
       </c>
       <c r="C5" t="s">
         <v>138</v>
       </c>
       <c r="D5" s="4">
-        <f>wzorzec!Z25</f>
+        <f>wzorzec!Z24</f>
         <v>0.52299735294549876</v>
       </c>
       <c r="E5" t="str">
@@ -31909,14 +31804,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <f>wzorzec!Y24</f>
+        <f>wzorzec!Y23</f>
         <v>Rumunia</v>
       </c>
       <c r="C6" t="s">
         <v>139</v>
       </c>
       <c r="D6" s="4">
-        <f>wzorzec!Z24</f>
+        <f>wzorzec!Z23</f>
         <v>0.48326647556832814</v>
       </c>
       <c r="E6" t="str">
@@ -31953,14 +31848,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <f>wzorzec!Y8</f>
+        <f>wzorzec!Y7</f>
         <v>Czechy</v>
       </c>
       <c r="C7" t="s">
         <v>140</v>
       </c>
       <c r="D7" s="4">
-        <f>wzorzec!Z8</f>
+        <f>wzorzec!Z7</f>
         <v>0.47185684044499998</v>
       </c>
       <c r="E7" t="str">
@@ -31997,14 +31892,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <f>wzorzec!Y30</f>
+        <f>wzorzec!Y29</f>
         <v>Włochy</v>
       </c>
       <c r="C8" t="s">
         <v>141</v>
       </c>
       <c r="D8" s="4">
-        <f>wzorzec!Z30</f>
+        <f>wzorzec!Z29</f>
         <v>0.4402640950895087</v>
       </c>
       <c r="E8" t="str">
@@ -32041,14 +31936,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <f>wzorzec!Y23</f>
+        <f>wzorzec!Y22</f>
         <v>Portugalia</v>
       </c>
       <c r="C9" t="s">
         <v>142</v>
       </c>
       <c r="D9" s="4">
-        <f>wzorzec!Z23</f>
+        <f>wzorzec!Z22</f>
         <v>0.40944327703365946</v>
       </c>
       <c r="E9" t="str">
@@ -32085,14 +31980,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <f>wzorzec!Y15</f>
+        <f>wzorzec!Y14</f>
         <v>Holandia</v>
       </c>
       <c r="C10" t="s">
         <v>143</v>
       </c>
       <c r="D10" s="4">
-        <f>wzorzec!Z15</f>
+        <f>wzorzec!Z14</f>
         <v>0.40664121691339705</v>
       </c>
       <c r="E10" t="str">
@@ -32129,14 +32024,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <f>wzorzec!Y19</f>
+        <f>wzorzec!Y18</f>
         <v>Łotwa</v>
       </c>
       <c r="C11" t="s">
         <v>144</v>
       </c>
       <c r="D11" s="4">
-        <f>wzorzec!Z19</f>
+        <f>wzorzec!Z18</f>
         <v>0.39572655145836444</v>
       </c>
       <c r="E11" t="str">
@@ -32173,14 +32068,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <f>wzorzec!Y11</f>
+        <f>wzorzec!Y10</f>
         <v>Finlandia</v>
       </c>
       <c r="C12" t="s">
         <v>145</v>
       </c>
       <c r="D12" s="4">
-        <f>wzorzec!Z11</f>
+        <f>wzorzec!Z10</f>
         <v>0.39394389568589583</v>
       </c>
       <c r="E12" t="str">
@@ -32217,14 +32112,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <f>wzorzec!Y5</f>
+        <f>wzorzec!Y4</f>
         <v>Bułgaria</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
       <c r="D13" s="4">
-        <f>wzorzec!Z5</f>
+        <f>wzorzec!Z4</f>
         <v>0.37899427497600557</v>
       </c>
       <c r="E13" t="str">
@@ -32261,14 +32156,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <f>wzorzec!Y27</f>
+        <f>wzorzec!Y26</f>
         <v>Szwecja</v>
       </c>
       <c r="C14" t="s">
         <v>147</v>
       </c>
       <c r="D14" s="4">
-        <f>wzorzec!Z27</f>
+        <f>wzorzec!Z26</f>
         <v>0.37888907904283675</v>
       </c>
       <c r="E14" t="str">
@@ -32305,14 +32200,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f>wzorzec!Y26</f>
+        <f>wzorzec!Y25</f>
         <v>Słowenia</v>
       </c>
       <c r="C15" t="s">
         <v>148</v>
       </c>
       <c r="D15" s="4">
-        <f>wzorzec!Z26</f>
+        <f>wzorzec!Z25</f>
         <v>0.3712603947352201</v>
       </c>
       <c r="E15" t="str">
@@ -32349,14 +32244,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <f>wzorzec!Y4</f>
+        <f>wzorzec!Y3</f>
         <v>Belgia</v>
       </c>
       <c r="C16" t="s">
         <v>149</v>
       </c>
       <c r="D16" s="4">
-        <f>wzorzec!Z4</f>
+        <f>wzorzec!Z3</f>
         <v>0.36325353532856031</v>
       </c>
       <c r="E16" t="str">
@@ -32393,14 +32288,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <f>wzorzec!Y13</f>
+        <f>wzorzec!Y12</f>
         <v>Grecja</v>
       </c>
       <c r="C17" t="s">
         <v>150</v>
       </c>
       <c r="D17" s="4">
-        <f>wzorzec!Z13</f>
+        <f>wzorzec!Z12</f>
         <v>0.36163492370965244</v>
       </c>
       <c r="E17" t="str">
@@ -32437,14 +32332,14 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <f>wzorzec!Y7</f>
+        <f>wzorzec!Y6</f>
         <v>Cypr</v>
       </c>
       <c r="C18" t="s">
         <v>151</v>
       </c>
       <c r="D18" s="4">
-        <f>wzorzec!Z7</f>
+        <f>wzorzec!Z6</f>
         <v>0.35605688951342729</v>
       </c>
       <c r="E18" t="str">
@@ -32481,14 +32376,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <f>wzorzec!Y17</f>
+        <f>wzorzec!Y16</f>
         <v>Litwa</v>
       </c>
       <c r="C19" t="s">
         <v>136</v>
       </c>
       <c r="D19" s="4">
-        <f>wzorzec!Z17</f>
+        <f>wzorzec!Z16</f>
         <v>0.35278137303016976</v>
       </c>
       <c r="E19" t="str">
@@ -32525,14 +32420,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <f>wzorzec!Y10</f>
+        <f>wzorzec!Y9</f>
         <v>Estonia</v>
       </c>
       <c r="C20" t="s">
         <v>152</v>
       </c>
       <c r="D20" s="4">
-        <f>wzorzec!Z10</f>
+        <f>wzorzec!Z9</f>
         <v>0.33993280976150186</v>
       </c>
       <c r="E20" t="str">
@@ -32569,14 +32464,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <f>wzorzec!Y3</f>
+        <f>wzorzec!Y2</f>
         <v>Austria</v>
       </c>
       <c r="C21" t="s">
         <v>153</v>
       </c>
       <c r="D21" s="4">
-        <f>wzorzec!Z3</f>
+        <f>wzorzec!Z2</f>
         <v>0.30045508826898304</v>
       </c>
       <c r="E21" t="str">
@@ -32613,14 +32508,14 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <f>wzorzec!Y20</f>
+        <f>wzorzec!Y19</f>
         <v>Malta</v>
       </c>
       <c r="C22" t="s">
         <v>154</v>
       </c>
       <c r="D22" s="4">
-        <f>wzorzec!Z20</f>
+        <f>wzorzec!Z19</f>
         <v>0.3002924789044733</v>
       </c>
       <c r="E22" t="str">
@@ -32657,14 +32552,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <f>wzorzec!Y16</f>
+        <f>wzorzec!Y15</f>
         <v>Irlandia</v>
       </c>
       <c r="C23" t="s">
         <v>155</v>
       </c>
       <c r="D23" s="4">
-        <f>wzorzec!Z16</f>
+        <f>wzorzec!Z15</f>
         <v>0.27178422798817858</v>
       </c>
       <c r="E23" t="str">
@@ -32701,14 +32596,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <f>wzorzec!Y18</f>
+        <f>wzorzec!Y17</f>
         <v>Luksemburg</v>
       </c>
       <c r="C24" t="s">
         <v>156</v>
       </c>
       <c r="D24" s="4">
-        <f>wzorzec!Z18</f>
+        <f>wzorzec!Z17</f>
         <v>0.23459350364094644</v>
       </c>
       <c r="E24" t="str">
@@ -32745,14 +32640,14 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <f>wzorzec!Y6</f>
+        <f>wzorzec!Y5</f>
         <v>Chorwacja</v>
       </c>
       <c r="C25" t="s">
         <v>157</v>
       </c>
       <c r="D25" s="4">
-        <f>wzorzec!Z6</f>
+        <f>wzorzec!Z5</f>
         <v>0.12219123753519323</v>
       </c>
       <c r="E25" t="str">
@@ -32789,14 +32684,14 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <f>wzorzec!Y28</f>
+        <f>wzorzec!Y27</f>
         <v>Węgry</v>
       </c>
       <c r="C26" t="s">
         <v>158</v>
       </c>
       <c r="D26" s="4">
-        <f>wzorzec!Z28</f>
+        <f>wzorzec!Z27</f>
         <v>0.1218893482893405</v>
       </c>
       <c r="E26" t="str">
@@ -32833,14 +32728,14 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <f>wzorzec!Y9</f>
+        <f>wzorzec!Y8</f>
         <v>Dania</v>
       </c>
       <c r="C27" t="s">
         <v>160</v>
       </c>
       <c r="D27" s="4">
-        <f>wzorzec!Z9</f>
+        <f>wzorzec!Z8</f>
         <v>0.10369182384124187</v>
       </c>
       <c r="E27" t="str">
@@ -32877,14 +32772,14 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <f>wzorzec!Y21</f>
+        <f>wzorzec!Y20</f>
         <v>Niemcy</v>
       </c>
       <c r="C28" t="s">
         <v>159</v>
       </c>
       <c r="D28" s="4">
-        <f>wzorzec!Z21</f>
+        <f>wzorzec!Z20</f>
         <v>4.2865507624174071E-2</v>
       </c>
       <c r="E28" t="str">
@@ -32921,15 +32816,15 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <f>wzorzec!Y12</f>
+        <f>wzorzec!Y11</f>
         <v>Francja</v>
       </c>
       <c r="C29" t="s">
         <v>161</v>
       </c>
       <c r="D29" s="4">
-        <f>wzorzec!Z12</f>
-        <v>-0.14742365698518145</v>
+        <f>wzorzec!Z11</f>
+        <v>0</v>
       </c>
       <c r="E29" t="str">
         <f>'ranking-standaryzacja'!A90</f>
